--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2168620.986046145</v>
+        <v>2176458.54034686</v>
       </c>
     </row>
     <row r="7">
@@ -1616,55 +1616,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="T14" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="G14" t="n">
+      <c r="U14" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="H14" t="n">
+      <c r="V14" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>22.56635248423083</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H15" t="n">
-        <v>25.62029119463083</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="I15" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>22.56635248423083</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="H16" t="n">
         <v>25.62029119463083</v>
@@ -1786,7 +1786,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>82.87640023446851</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>82.87640023446851</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="G17" t="n">
-        <v>82.87640023446851</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="H17" t="n">
-        <v>72.99753332651984</v>
+        <v>72.99753332651973</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>82.87640023446851</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>72.99753332651984</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>82.87640023446851</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>9.049164100513785</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>63.94836922600594</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>82.87640023446851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>72.99753332651973</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>82.87640023446851</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2044,28 +2044,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.95257832505713</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>23.0449550014627</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.87640023446851</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>82.87640023446851</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>53.55978060881855</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>158.7256050346236</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
@@ -2160,25 +2160,25 @@
         <v>116.2387190982456</v>
       </c>
       <c r="C21" t="n">
-        <v>122.414034436694</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>97.15060101301702</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>94.77474784176215</v>
+        <v>94.77474784176218</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>23.07508240658174</v>
       </c>
       <c r="H21" t="n">
-        <v>61.94097968487473</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>39.10216829979335</v>
+        <v>39.10216829979338</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.8633696010214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>121.3887065522161</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>149.8702641431999</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>182.5061225978035</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>201.4005186092979</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>155.4785206518558</v>
       </c>
       <c r="Y21" t="n">
-        <v>49.9488031509913</v>
+        <v>155.3882312256827</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>129.5375156303156</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>236.2285337849693</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>168.2264490396398</v>
+        <v>106.6272783938202</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>168.2901888004731</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2400,22 +2400,22 @@
         <v>122.414034436694</v>
       </c>
       <c r="D24" t="n">
-        <v>65.81761423677315</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>107.3506159037792</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>94.77474784176215</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>87.04905261158891</v>
+        <v>87.04905261158893</v>
       </c>
       <c r="H24" t="n">
-        <v>61.94097968487473</v>
+        <v>61.94097968487476</v>
       </c>
       <c r="I24" t="n">
-        <v>39.10216829979335</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>121.3887065522161</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>149.8702641431999</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>175.6469175293531</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>61.53977666663651</v>
       </c>
       <c r="W24" t="n">
-        <v>201.4005186092979</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>155.4785206518557</v>
+        <v>155.4785206518558</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>96.13949809494744</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>53.96799962712247</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.06471556505105</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.86757870007266</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>236.2285337849693</v>
       </c>
       <c r="X25" t="n">
-        <v>175.4151908374154</v>
+        <v>168.2264490396396</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
@@ -2567,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>86.35872053943683</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>92.86044523761502</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>90.48459206636015</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.5732138256194</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>117.0985507768141</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>145.5801083677979</v>
       </c>
       <c r="U27" t="n">
-        <v>171.356761753951</v>
+        <v>171.3567617539511</v>
       </c>
       <c r="V27" t="n">
         <v>178.2159668224015</v>
       </c>
       <c r="W27" t="n">
-        <v>197.1103628338958</v>
+        <v>94.15861342586005</v>
       </c>
       <c r="X27" t="n">
-        <v>151.1883648764536</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>151.0980754502805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>98.46649504664263</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>107.6425521804158</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>100.8658546002345</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.7087710501457</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.1922718710665202</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>197.5530229968043</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>231.9383780095673</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>131.8346503901834</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>225.2319683381396</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I29" t="n">
-        <v>96.23305579277832</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>213.5094246925073</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>20.57443542832809</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>52.29034987223974</v>
+        <v>52.2903498722397</v>
       </c>
       <c r="C30" t="n">
-        <v>58.46566521068814</v>
+        <v>58.4656652106881</v>
       </c>
       <c r="D30" t="n">
-        <v>33.20223178701116</v>
+        <v>33.20223178701112</v>
       </c>
       <c r="E30" t="n">
-        <v>43.40224667777335</v>
+        <v>43.40224667777331</v>
       </c>
       <c r="F30" t="n">
-        <v>30.82637861575628</v>
+        <v>30.82637861575624</v>
       </c>
       <c r="G30" t="n">
-        <v>23.10068338558304</v>
+        <v>23.100683385583</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.44033732621033</v>
+        <v>57.44033732621018</v>
       </c>
       <c r="T30" t="n">
-        <v>85.92189491719401</v>
+        <v>85.92189491719397</v>
       </c>
       <c r="U30" t="n">
         <v>111.6985483033472</v>
       </c>
       <c r="V30" t="n">
-        <v>118.5577533717977</v>
+        <v>118.5577533717976</v>
       </c>
       <c r="W30" t="n">
         <v>137.452149383292</v>
       </c>
       <c r="X30" t="n">
-        <v>91.53015142584988</v>
+        <v>91.53015142584984</v>
       </c>
       <c r="Y30" t="n">
-        <v>91.43986199967676</v>
+        <v>91.43986199967672</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>44.85829340892668</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.05055759954189</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>109.7737642593447</v>
+        <v>109.7737642593446</v>
       </c>
       <c r="T31" t="n">
         <v>113.7027556506539</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0761955788633</v>
+        <v>172.0761955788632</v>
       </c>
       <c r="V31" t="n">
-        <v>137.8948095462004</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>172.2801645589634</v>
+        <v>172.2801645589633</v>
       </c>
       <c r="X31" t="n">
-        <v>59.72156744906046</v>
+        <v>111.4668216114095</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3032,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>240.4402078430554</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>228.0677061829616</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I32" t="n">
-        <v>40.13036338431478</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>35.62628416352207</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>137.1028191302089</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>52.29034987223973</v>
+        <v>52.2903498722397</v>
       </c>
       <c r="C33" t="n">
-        <v>58.46566521068813</v>
+        <v>58.4656652106881</v>
       </c>
       <c r="D33" t="n">
-        <v>33.20223178701114</v>
+        <v>33.20223178701112</v>
       </c>
       <c r="E33" t="n">
-        <v>43.40224667777333</v>
+        <v>43.40224667777331</v>
       </c>
       <c r="F33" t="n">
-        <v>30.82637861575627</v>
+        <v>30.82637861575624</v>
       </c>
       <c r="G33" t="n">
-        <v>23.10068338558303</v>
+        <v>23.100683385583</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,22 +3156,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.44033732621021</v>
+        <v>57.44033732621055</v>
       </c>
       <c r="T33" t="n">
-        <v>85.921894917194</v>
+        <v>85.92189491719397</v>
       </c>
       <c r="U33" t="n">
         <v>111.6985483033472</v>
       </c>
       <c r="V33" t="n">
-        <v>118.5577533717977</v>
+        <v>118.5577533717976</v>
       </c>
       <c r="W33" t="n">
         <v>137.452149383292</v>
       </c>
       <c r="X33" t="n">
-        <v>91.53015142584987</v>
+        <v>91.53015142584984</v>
       </c>
       <c r="Y33" t="n">
         <v>91.43986199967672</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.58914640430969</v>
+        <v>65.58914640430966</v>
       </c>
       <c r="C34" t="n">
-        <v>53.00398732100022</v>
+        <v>53.0039873210002</v>
       </c>
       <c r="D34" t="n">
-        <v>34.37263924058475</v>
+        <v>34.37263924058472</v>
       </c>
       <c r="E34" t="n">
-        <v>32.19112886894156</v>
+        <v>32.19112886894153</v>
       </c>
       <c r="F34" t="n">
-        <v>31.17821424530364</v>
+        <v>31.17821424530361</v>
       </c>
       <c r="G34" t="n">
-        <v>53.74814558083115</v>
+        <v>53.74814558083112</v>
       </c>
       <c r="H34" t="n">
-        <v>47.98433872981197</v>
+        <v>47.98433872981194</v>
       </c>
       <c r="I34" t="n">
-        <v>41.20764114963067</v>
+        <v>41.20764114963065</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.05055759954188</v>
+        <v>63.05055759954185</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0761955788633</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>18.08520975783314</v>
       </c>
       <c r="W34" t="n">
-        <v>16.05324469868829</v>
+        <v>172.2801645589633</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>111.4668216114095</v>
       </c>
       <c r="Y34" t="n">
         <v>104.3418195744672</v>
@@ -3269,67 +3269,67 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>239.316967963124</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>213.9827065579771</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>61.09756688824876</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>151.1878187551933</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,19 +3345,19 @@
         <v>66.37534949722421</v>
       </c>
       <c r="C36" t="n">
-        <v>72.55066483567261</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>47.28723141199562</v>
       </c>
       <c r="E36" t="n">
-        <v>57.48724630275781</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>44.91137824074075</v>
       </c>
       <c r="G36" t="n">
-        <v>37.1856830105675</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>39.95749083467273</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T36" t="n">
-        <v>100.0068945421785</v>
+        <v>84.12549356637808</v>
       </c>
       <c r="U36" t="n">
         <v>125.7835479283317</v>
@@ -3405,7 +3405,7 @@
         <v>132.6427529967821</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>151.5371490082765</v>
       </c>
       <c r="X36" t="n">
         <v>105.6151510508343</v>
@@ -3424,25 +3424,25 @@
         <v>79.67414602929416</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H37" t="n">
         <v>62.06933835479644</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>103.2246583674024</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>47.39148447720284</v>
       </c>
       <c r="X37" t="n">
         <v>125.551821236394</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="C38" t="n">
+      <c r="F38" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="D38" t="n">
+      <c r="G38" t="n">
+        <v>189.7190331592112</v>
+      </c>
+      <c r="H38" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="E38" t="n">
-        <v>189.7190331592112</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>66.37534949722421</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>72.55066483567261</v>
@@ -3591,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>44.91137824074075</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>37.1856830105675</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U39" t="n">
-        <v>72.27080453154107</v>
+        <v>125.7835479283317</v>
       </c>
       <c r="V39" t="n">
         <v>132.6427529967821</v>
@@ -3648,7 +3648,7 @@
         <v>105.6151510508343</v>
       </c>
       <c r="Y39" t="n">
-        <v>105.5248616246612</v>
+        <v>28.95229748302998</v>
       </c>
     </row>
     <row r="40">
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S40" t="n">
         <v>123.8587638843291</v>
@@ -3715,19 +3715,19 @@
         <v>127.7877552756384</v>
       </c>
       <c r="U40" t="n">
-        <v>186.1611952038477</v>
+        <v>85.65812966387726</v>
       </c>
       <c r="V40" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>128.2746260480499</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="41">
@@ -3740,70 +3740,70 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>63.99213877845338</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>75.2957135384688</v>
+      </c>
+      <c r="U41" t="n">
         <v>158.1378886431906</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>139.2878523169222</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>158.1378886431906</v>
       </c>
-      <c r="G41" t="n">
+      <c r="X41" t="n">
         <v>158.1378886431906</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>67.5979791025115</v>
       </c>
       <c r="C42" t="n">
-        <v>86.83151982561949</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>61.56808640194251</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>71.76810129270464</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>51.46653800051439</v>
+        <v>51.46653800051433</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.519653688718833</v>
+        <v>3.519653688718776</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.80619194114158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>114.2877495321253</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>146.923607986729</v>
       </c>
       <c r="W42" t="n">
         <v>158.1378886431906</v>
       </c>
       <c r="X42" t="n">
-        <v>46.56592313075848</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>119.8057166146081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>82.11400019576251</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>69.57349576456204</v>
+        <v>69.57349576456198</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3940,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.2850640889981406</v>
+        <v>0.2850640889980838</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>87.73450488021184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,13 +3955,13 @@
         <v>158.1378886431906</v>
       </c>
       <c r="V43" t="n">
-        <v>145.4531809107901</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>158.1378886431906</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>139.8326762263409</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C14" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D14" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E14" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F14" t="n">
-        <v>53.80778732512771</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G14" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H14" t="n">
         <v>2.049623295570466</v>
@@ -5282,16 +5282,16 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>51.75298821315428</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N14" t="n">
-        <v>51.75298821315428</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O14" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
         <v>102.4811647785233</v>
@@ -5303,25 +5303,25 @@
         <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>102.4811647785233</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T14" t="n">
-        <v>79.68686933990632</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U14" t="n">
-        <v>79.68686933990632</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V14" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W14" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X14" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>50.72300074896609</v>
       </c>
       <c r="G15" t="n">
-        <v>50.72300074896609</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H15" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I15" t="n">
         <v>2.049623295570466</v>
@@ -5358,22 +5358,22 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L15" t="n">
-        <v>2.049623295570466</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M15" t="n">
-        <v>26.38889993046976</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N15" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O15" t="n">
         <v>77.1170764958388</v>
       </c>
       <c r="P15" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q15" t="n">
         <v>102.4811647785233</v>
@@ -5416,22 +5416,22 @@
         <v>102.4811647785233</v>
       </c>
       <c r="D16" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="E16" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="F16" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="G16" t="n">
         <v>79.68686933990632</v>
       </c>
-      <c r="E16" t="n">
-        <v>79.68686933990632</v>
-      </c>
-      <c r="F16" t="n">
-        <v>79.68686933990632</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>53.80778732512771</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>27.92870531034908</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.049623295570466</v>
       </c>
       <c r="J16" t="n">
         <v>2.049623295570466</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>331.505600937874</v>
+        <v>247.7920653475015</v>
       </c>
       <c r="C17" t="n">
-        <v>331.505600937874</v>
+        <v>247.7920653475015</v>
       </c>
       <c r="D17" t="n">
-        <v>331.505600937874</v>
+        <v>247.7920653475015</v>
       </c>
       <c r="E17" t="n">
-        <v>247.7920653475018</v>
+        <v>247.7920653475015</v>
       </c>
       <c r="F17" t="n">
-        <v>164.0785297571296</v>
+        <v>164.0785297571293</v>
       </c>
       <c r="G17" t="n">
-        <v>80.36499416675733</v>
+        <v>80.3649941667572</v>
       </c>
       <c r="H17" t="n">
-        <v>6.63011201875748</v>
+        <v>6.630112018757472</v>
       </c>
       <c r="I17" t="n">
-        <v>6.63011201875748</v>
+        <v>6.630112018757472</v>
       </c>
       <c r="J17" t="n">
-        <v>6.63011201875748</v>
+        <v>6.630112018757472</v>
       </c>
       <c r="K17" t="n">
-        <v>85.36269224150259</v>
+        <v>88.67774825088119</v>
       </c>
       <c r="L17" t="n">
-        <v>167.4103284736264</v>
+        <v>170.7253844830049</v>
       </c>
       <c r="M17" t="n">
-        <v>167.4103284736264</v>
+        <v>249.4579647057499</v>
       </c>
       <c r="N17" t="n">
-        <v>167.4103284736264</v>
+        <v>249.4579647057499</v>
       </c>
       <c r="O17" t="n">
-        <v>249.4579647057502</v>
+        <v>249.4579647057499</v>
       </c>
       <c r="P17" t="n">
-        <v>331.505600937874</v>
+        <v>331.5056009378736</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.505600937874</v>
+        <v>331.5056009378736</v>
       </c>
       <c r="R17" t="n">
-        <v>331.505600937874</v>
+        <v>331.5056009378736</v>
       </c>
       <c r="S17" t="n">
-        <v>331.505600937874</v>
+        <v>331.5056009378736</v>
       </c>
       <c r="T17" t="n">
-        <v>331.505600937874</v>
+        <v>331.5056009378736</v>
       </c>
       <c r="U17" t="n">
-        <v>331.505600937874</v>
+        <v>331.5056009378736</v>
       </c>
       <c r="V17" t="n">
-        <v>331.505600937874</v>
+        <v>331.5056009378736</v>
       </c>
       <c r="W17" t="n">
-        <v>331.505600937874</v>
+        <v>331.5056009378736</v>
       </c>
       <c r="X17" t="n">
-        <v>331.505600937874</v>
+        <v>331.5056009378736</v>
       </c>
       <c r="Y17" t="n">
-        <v>331.505600937874</v>
+        <v>331.5056009378736</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>164.0785297571296</v>
+        <v>266.9112885883727</v>
       </c>
       <c r="C18" t="n">
-        <v>90.34364760912972</v>
+        <v>266.9112885883727</v>
       </c>
       <c r="D18" t="n">
-        <v>90.34364760912972</v>
+        <v>266.9112885883727</v>
       </c>
       <c r="E18" t="n">
-        <v>6.63011201875748</v>
+        <v>183.1977529980005</v>
       </c>
       <c r="F18" t="n">
-        <v>6.63011201875748</v>
+        <v>99.48421740762838</v>
       </c>
       <c r="G18" t="n">
-        <v>6.63011201875748</v>
+        <v>15.77068181725625</v>
       </c>
       <c r="H18" t="n">
-        <v>6.63011201875748</v>
+        <v>6.630112018757472</v>
       </c>
       <c r="I18" t="n">
-        <v>6.63011201875748</v>
+        <v>6.630112018757472</v>
       </c>
       <c r="J18" t="n">
-        <v>6.63011201875748</v>
+        <v>6.630112018757472</v>
       </c>
       <c r="K18" t="n">
-        <v>15.96813372817329</v>
+        <v>6.630112018757472</v>
       </c>
       <c r="L18" t="n">
-        <v>15.96813372817329</v>
+        <v>88.67774825088119</v>
       </c>
       <c r="M18" t="n">
-        <v>15.96813372817329</v>
+        <v>170.7253844830049</v>
       </c>
       <c r="N18" t="n">
-        <v>98.01576996029711</v>
+        <v>252.7730207151286</v>
       </c>
       <c r="O18" t="n">
-        <v>180.0634061924209</v>
+        <v>331.5056009378736</v>
       </c>
       <c r="P18" t="n">
-        <v>262.1110424245447</v>
+        <v>331.5056009378736</v>
       </c>
       <c r="Q18" t="n">
-        <v>331.505600937874</v>
+        <v>331.5056009378736</v>
       </c>
       <c r="R18" t="n">
-        <v>331.505600937874</v>
+        <v>266.9112885883727</v>
       </c>
       <c r="S18" t="n">
-        <v>331.505600937874</v>
+        <v>266.9112885883727</v>
       </c>
       <c r="T18" t="n">
-        <v>331.505600937874</v>
+        <v>266.9112885883727</v>
       </c>
       <c r="U18" t="n">
-        <v>331.505600937874</v>
+        <v>266.9112885883727</v>
       </c>
       <c r="V18" t="n">
-        <v>331.505600937874</v>
+        <v>266.9112885883727</v>
       </c>
       <c r="W18" t="n">
-        <v>331.505600937874</v>
+        <v>266.9112885883727</v>
       </c>
       <c r="X18" t="n">
-        <v>331.505600937874</v>
+        <v>266.9112885883727</v>
       </c>
       <c r="Y18" t="n">
-        <v>247.7920653475018</v>
+        <v>266.9112885883727</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.34364760912972</v>
+        <v>164.0785297571293</v>
       </c>
       <c r="C19" t="n">
-        <v>90.34364760912972</v>
+        <v>80.3649941667572</v>
       </c>
       <c r="D19" t="n">
-        <v>90.34364760912972</v>
+        <v>80.3649941667572</v>
       </c>
       <c r="E19" t="n">
-        <v>90.34364760912972</v>
+        <v>80.3649941667572</v>
       </c>
       <c r="F19" t="n">
-        <v>90.34364760912972</v>
+        <v>80.3649941667572</v>
       </c>
       <c r="G19" t="n">
-        <v>90.34364760912972</v>
+        <v>6.630112018757472</v>
       </c>
       <c r="H19" t="n">
-        <v>90.34364760912972</v>
+        <v>6.630112018757472</v>
       </c>
       <c r="I19" t="n">
-        <v>6.63011201875748</v>
+        <v>6.630112018757472</v>
       </c>
       <c r="J19" t="n">
-        <v>6.63011201875748</v>
+        <v>6.630112018757472</v>
       </c>
       <c r="K19" t="n">
-        <v>20.43068538850433</v>
+        <v>20.43068538850423</v>
       </c>
       <c r="L19" t="n">
-        <v>83.59218067358819</v>
+        <v>83.59218067358802</v>
       </c>
       <c r="M19" t="n">
-        <v>158.6275891431813</v>
+        <v>158.627589143181</v>
       </c>
       <c r="N19" t="n">
-        <v>238.1658100759884</v>
+        <v>238.1658100759881</v>
       </c>
       <c r="O19" t="n">
-        <v>298.3524569882586</v>
+        <v>298.3524569882583</v>
       </c>
       <c r="P19" t="n">
-        <v>331.505600937874</v>
+        <v>331.5056009378736</v>
       </c>
       <c r="Q19" t="n">
-        <v>281.048451114584</v>
+        <v>331.5056009378736</v>
       </c>
       <c r="R19" t="n">
-        <v>281.048451114584</v>
+        <v>331.5056009378736</v>
       </c>
       <c r="S19" t="n">
-        <v>257.7707187898742</v>
+        <v>247.7920653475015</v>
       </c>
       <c r="T19" t="n">
-        <v>257.7707187898742</v>
+        <v>247.7920653475015</v>
       </c>
       <c r="U19" t="n">
-        <v>174.0571831995019</v>
+        <v>247.7920653475015</v>
       </c>
       <c r="V19" t="n">
-        <v>90.34364760912972</v>
+        <v>247.7920653475015</v>
       </c>
       <c r="W19" t="n">
-        <v>90.34364760912972</v>
+        <v>247.7920653475015</v>
       </c>
       <c r="X19" t="n">
-        <v>90.34364760912972</v>
+        <v>164.0785297571293</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.34364760912972</v>
+        <v>164.0785297571293</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.38193160396884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>73.38193160396884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>73.38193160396884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>803.728261536269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>803.728261536269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>803.728261536269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>803.728261536269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>560.279484892169</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>316.8307082480689</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.38193160396884</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>438.8594575305575</v>
+        <v>177.8185153810585</v>
       </c>
       <c r="C21" t="n">
-        <v>315.208917695513</v>
+        <v>177.8185153810585</v>
       </c>
       <c r="D21" t="n">
-        <v>217.0769974803443</v>
+        <v>177.8185153810585</v>
       </c>
       <c r="E21" t="n">
-        <v>217.0769974803443</v>
+        <v>177.8185153810585</v>
       </c>
       <c r="F21" t="n">
-        <v>121.3449289533118</v>
+        <v>82.08644685402598</v>
       </c>
       <c r="G21" t="n">
-        <v>121.3449289533118</v>
+        <v>58.77828280697371</v>
       </c>
       <c r="H21" t="n">
-        <v>58.77828280697369</v>
+        <v>58.77828280697371</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5838,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>913.6901155096045</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>791.0752604063559</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>791.0752604063559</v>
+        <v>812.6730503154848</v>
       </c>
       <c r="U21" t="n">
-        <v>791.0752604063559</v>
+        <v>812.6730503154848</v>
       </c>
       <c r="V21" t="n">
-        <v>606.7256416206958</v>
+        <v>812.6730503154848</v>
       </c>
       <c r="W21" t="n">
-        <v>606.7256416206958</v>
+        <v>609.2381830333657</v>
       </c>
       <c r="X21" t="n">
-        <v>606.7256416206958</v>
+        <v>452.1891722739153</v>
       </c>
       <c r="Y21" t="n">
-        <v>556.272305104543</v>
+        <v>295.231362955044</v>
       </c>
     </row>
     <row r="22">
@@ -5911,49 +5911,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>47.02586610869422</v>
+        <v>47.02586610869419</v>
       </c>
       <c r="L22" t="n">
         <v>124.1315110225127</v>
       </c>
       <c r="M22" t="n">
-        <v>213.1110691208404</v>
+        <v>213.1110691208403</v>
       </c>
       <c r="N22" t="n">
-        <v>306.5934396823822</v>
+        <v>306.5934396823821</v>
       </c>
       <c r="O22" t="n">
-        <v>380.724236223387</v>
+        <v>380.7242362233869</v>
       </c>
       <c r="P22" t="n">
-        <v>427.821529801737</v>
+        <v>427.8215298017369</v>
       </c>
       <c r="Q22" t="n">
-        <v>427.821529801737</v>
+        <v>427.8215298017369</v>
       </c>
       <c r="R22" t="n">
-        <v>427.821529801737</v>
+        <v>427.8215298017369</v>
       </c>
       <c r="S22" t="n">
-        <v>427.821529801737</v>
+        <v>427.8215298017369</v>
       </c>
       <c r="T22" t="n">
-        <v>427.821529801737</v>
+        <v>427.8215298017369</v>
       </c>
       <c r="U22" t="n">
-        <v>427.821529801737</v>
+        <v>427.8215298017369</v>
       </c>
       <c r="V22" t="n">
-        <v>427.821529801737</v>
+        <v>427.8215298017369</v>
       </c>
       <c r="W22" t="n">
-        <v>189.206849210859</v>
+        <v>427.8215298017369</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>320.1172081918175</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>150.1271184943699</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6026,13 +6026,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>603.5732774690669</v>
+        <v>293.4266650628973</v>
       </c>
       <c r="C24" t="n">
-        <v>479.9227376340224</v>
+        <v>169.7761252278528</v>
       </c>
       <c r="D24" t="n">
-        <v>413.4402990110192</v>
+        <v>169.7761252278528</v>
       </c>
       <c r="E24" t="n">
-        <v>305.0053334516462</v>
+        <v>169.7761252278528</v>
       </c>
       <c r="F24" t="n">
-        <v>209.2732649246137</v>
+        <v>169.7761252278528</v>
       </c>
       <c r="G24" t="n">
-        <v>121.3449289533118</v>
+        <v>81.84778925655087</v>
       </c>
       <c r="H24" t="n">
-        <v>58.77828280697369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6072,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>841.4423004073876</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>690.0581952122362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>512.6370663947077</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>450.4756758223476</v>
       </c>
       <c r="W24" t="n">
-        <v>760.6222882285172</v>
+        <v>450.4756758223476</v>
       </c>
       <c r="X24" t="n">
-        <v>603.5732774690669</v>
+        <v>293.4266650628973</v>
       </c>
       <c r="Y24" t="n">
-        <v>603.5732774690669</v>
+        <v>293.4266650628973</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>214.4045908749814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>214.4045908749814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>214.4045908749814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>117.2939867386708</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>62.78085580218348</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>62.78085580218348</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>62.78085580218348</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>62.78085580218348</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>47.02586610869422</v>
+        <v>47.02586610869419</v>
       </c>
       <c r="L25" t="n">
         <v>124.1315110225127</v>
       </c>
       <c r="M25" t="n">
-        <v>213.1110691208404</v>
+        <v>213.1110691208403</v>
       </c>
       <c r="N25" t="n">
-        <v>306.5934396823822</v>
+        <v>306.5934396823821</v>
       </c>
       <c r="O25" t="n">
-        <v>380.724236223387</v>
+        <v>380.7242362233869</v>
       </c>
       <c r="P25" t="n">
-        <v>427.821529801737</v>
+        <v>427.8215298017369</v>
       </c>
       <c r="Q25" t="n">
-        <v>391.5916523269162</v>
+        <v>427.8215298017369</v>
       </c>
       <c r="R25" t="n">
-        <v>391.5916523269162</v>
+        <v>427.8215298017369</v>
       </c>
       <c r="S25" t="n">
-        <v>391.5916523269162</v>
+        <v>427.8215298017369</v>
       </c>
       <c r="T25" t="n">
-        <v>391.5916523269162</v>
+        <v>427.8215298017369</v>
       </c>
       <c r="U25" t="n">
-        <v>391.5916523269162</v>
+        <v>427.8215298017369</v>
       </c>
       <c r="V25" t="n">
-        <v>391.5916523269162</v>
+        <v>427.8215298017369</v>
       </c>
       <c r="W25" t="n">
-        <v>391.5916523269162</v>
+        <v>189.2068492108588</v>
       </c>
       <c r="X25" t="n">
-        <v>214.4045908749814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.4045908749814</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6266,10 +6266,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>204.4781504879655</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>204.4781504879655</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.679720955021</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.679720955021</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>918.0236061918288</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>799.7422417708044</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>652.6916272578773</v>
       </c>
       <c r="U27" t="n">
-        <v>790.9695173753322</v>
+        <v>479.6039891225731</v>
       </c>
       <c r="V27" t="n">
-        <v>610.9533892718964</v>
+        <v>299.5878610191372</v>
       </c>
       <c r="W27" t="n">
-        <v>411.8520126720016</v>
+        <v>204.4781504879655</v>
       </c>
       <c r="X27" t="n">
-        <v>259.1364925947757</v>
+        <v>204.4781504879655</v>
       </c>
       <c r="Y27" t="n">
-        <v>106.5121739581287</v>
+        <v>204.4781504879655</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>329.3568015216197</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>329.3568015216197</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>329.3568015216197</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>329.3568015216197</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>329.3568015216197</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>229.8956954138998</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>121.1658447266112</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
         <v>19.28114311021272</v>
@@ -6385,49 +6385,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>51.27312032634228</v>
+        <v>51.27312032634219</v>
       </c>
       <c r="L28" t="n">
-        <v>132.6260194578088</v>
+        <v>132.6260194578087</v>
       </c>
       <c r="M28" t="n">
-        <v>225.8528317737846</v>
+        <v>225.8528317737843</v>
       </c>
       <c r="N28" t="n">
-        <v>323.5824565529745</v>
+        <v>323.5824565529741</v>
       </c>
       <c r="O28" t="n">
-        <v>401.9605073116273</v>
+        <v>401.9605073116269</v>
       </c>
       <c r="P28" t="n">
-        <v>453.3050551076254</v>
+        <v>453.3050551076249</v>
       </c>
       <c r="Q28" t="n">
-        <v>453.3050551076254</v>
+        <v>453.3050551076249</v>
       </c>
       <c r="R28" t="n">
-        <v>329.3568015216197</v>
+        <v>453.3050551076249</v>
       </c>
       <c r="S28" t="n">
-        <v>329.3568015216197</v>
+        <v>453.3050551076249</v>
       </c>
       <c r="T28" t="n">
-        <v>329.3568015216197</v>
+        <v>453.3050551076249</v>
       </c>
       <c r="U28" t="n">
-        <v>329.3568015216197</v>
+        <v>453.1108410964466</v>
       </c>
       <c r="V28" t="n">
-        <v>329.3568015216197</v>
+        <v>253.5623330188665</v>
       </c>
       <c r="W28" t="n">
-        <v>329.3568015216197</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>329.3568015216197</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>329.3568015216197</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>830.8908419851984</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="C29" t="n">
-        <v>830.8908419851984</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="D29" t="n">
-        <v>830.8908419851984</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="E29" t="n">
-        <v>830.8908419851984</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="F29" t="n">
-        <v>587.4420653410984</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="G29" t="n">
-        <v>343.9932886969984</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="H29" t="n">
-        <v>116.486249971605</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K29" t="n">
         <v>122.2961490211351</v>
@@ -6497,16 +6497,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>748.3910699626491</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>511.0192164881184</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>490.2369584797062</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>210.1874114706287</v>
+        <v>210.1874114706286</v>
       </c>
       <c r="C30" t="n">
-        <v>151.1311839850852</v>
+        <v>151.131183985085</v>
       </c>
       <c r="D30" t="n">
-        <v>117.5935761194175</v>
+        <v>117.5935761194174</v>
       </c>
       <c r="E30" t="n">
-        <v>73.75292290954539</v>
+        <v>73.7529229095453</v>
       </c>
       <c r="F30" t="n">
-        <v>42.61516673201378</v>
+        <v>42.61516673201373</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,13 +6543,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>906.0366127568884</v>
+        <v>906.0366127568885</v>
       </c>
       <c r="T30" t="n">
-        <v>819.2468199112379</v>
+        <v>819.246819911238</v>
       </c>
       <c r="U30" t="n">
-        <v>706.4200034432104</v>
+        <v>706.4200034432106</v>
       </c>
       <c r="V30" t="n">
-        <v>586.6646970070512</v>
+        <v>586.664697007051</v>
       </c>
       <c r="W30" t="n">
-        <v>447.8241420744331</v>
+        <v>447.824142074433</v>
       </c>
       <c r="X30" t="n">
-        <v>355.3694436644837</v>
+        <v>355.3694436644836</v>
       </c>
       <c r="Y30" t="n">
-        <v>263.0059466951133</v>
+        <v>263.0059466951132</v>
       </c>
     </row>
     <row r="31">
@@ -6619,52 +6619,52 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>39.95596023455799</v>
+        <v>39.95596023455803</v>
       </c>
       <c r="K31" t="n">
-        <v>131.0095687667853</v>
+        <v>131.0095687667854</v>
       </c>
       <c r="L31" t="n">
-        <v>271.4240992143496</v>
+        <v>271.4240992143497</v>
       </c>
       <c r="M31" t="n">
-        <v>423.712542846423</v>
+        <v>423.7125428464232</v>
       </c>
       <c r="N31" t="n">
-        <v>580.5037989417107</v>
+        <v>580.5037989417109</v>
       </c>
       <c r="O31" t="n">
-        <v>717.9434810164613</v>
+        <v>717.9434810164615</v>
       </c>
       <c r="P31" t="n">
-        <v>828.3496601285572</v>
+        <v>828.3496601285574</v>
       </c>
       <c r="Q31" t="n">
-        <v>856.149642749231</v>
+        <v>856.1496427492314</v>
       </c>
       <c r="R31" t="n">
-        <v>792.4622108305018</v>
+        <v>856.1496427492314</v>
       </c>
       <c r="S31" t="n">
-        <v>681.5796206695476</v>
+        <v>745.2670525882772</v>
       </c>
       <c r="T31" t="n">
-        <v>566.7283523355537</v>
+        <v>630.4157842542834</v>
       </c>
       <c r="U31" t="n">
-        <v>392.9140133670049</v>
+        <v>456.6014452857347</v>
       </c>
       <c r="V31" t="n">
-        <v>253.6263269567015</v>
+        <v>456.6014452857347</v>
       </c>
       <c r="W31" t="n">
-        <v>79.60595871532431</v>
+        <v>282.5810770443575</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>169.9883279419237</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>64.59255059397705</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>546.1345371556968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>546.1345371556968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D32" t="n">
-        <v>303.2656403445297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E32" t="n">
-        <v>59.81686370042968</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="F32" t="n">
-        <v>59.81686370042968</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="G32" t="n">
-        <v>59.81686370042968</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="H32" t="n">
-        <v>59.81686370042968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>928.0710098909169</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>928.0710098909169</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>928.0710098909169</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>789.5833137997968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>789.5833137997968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>789.5833137997968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>789.5833137997968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>546.1345371556968</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>210.1874114706288</v>
+        <v>210.1874114706286</v>
       </c>
       <c r="C33" t="n">
-        <v>151.1311839850852</v>
+        <v>151.1311839850851</v>
       </c>
       <c r="D33" t="n">
-        <v>117.5935761194174</v>
+        <v>117.5935761194173</v>
       </c>
       <c r="E33" t="n">
-        <v>73.75292290954535</v>
+        <v>73.75292290954529</v>
       </c>
       <c r="F33" t="n">
-        <v>42.61516673201376</v>
+        <v>42.61516673201373</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,16 +6780,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>906.0366127568885</v>
+        <v>906.0366127568882</v>
       </c>
       <c r="T33" t="n">
-        <v>819.246819911238</v>
+        <v>819.2468199112377</v>
       </c>
       <c r="U33" t="n">
-        <v>706.4200034432106</v>
+        <v>706.4200034432102</v>
       </c>
       <c r="V33" t="n">
-        <v>586.6646970070514</v>
+        <v>586.664697007051</v>
       </c>
       <c r="W33" t="n">
-        <v>447.8241420744332</v>
+        <v>447.8241420744329</v>
       </c>
       <c r="X33" t="n">
-        <v>355.3694436644838</v>
+        <v>355.3694436644836</v>
       </c>
       <c r="Y33" t="n">
-        <v>263.0059466951134</v>
+        <v>263.0059466951132</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>315.9337644598127</v>
+        <v>315.9337644598126</v>
       </c>
       <c r="C34" t="n">
-        <v>262.3943833274892</v>
+        <v>262.3943833274891</v>
       </c>
       <c r="D34" t="n">
-        <v>227.674545710737</v>
+        <v>227.6745457107368</v>
       </c>
       <c r="E34" t="n">
-        <v>195.1582539239273</v>
+        <v>195.1582539239272</v>
       </c>
       <c r="F34" t="n">
-        <v>163.6651082216004</v>
+        <v>163.6651082216003</v>
       </c>
       <c r="G34" t="n">
         <v>109.3740520793467</v>
       </c>
       <c r="H34" t="n">
-        <v>60.90502305933462</v>
+        <v>60.90502305933459</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>39.95596023455801</v>
+        <v>39.95596023455803</v>
       </c>
       <c r="K34" t="n">
-        <v>131.0095687667853</v>
+        <v>131.0095687667854</v>
       </c>
       <c r="L34" t="n">
         <v>271.4240992143497</v>
@@ -6868,40 +6868,40 @@
         <v>423.7125428464232</v>
       </c>
       <c r="N34" t="n">
-        <v>580.5037989417108</v>
+        <v>580.5037989417109</v>
       </c>
       <c r="O34" t="n">
-        <v>717.9434810164614</v>
+        <v>717.9434810164615</v>
       </c>
       <c r="P34" t="n">
-        <v>828.3496601285573</v>
+        <v>828.3496601285574</v>
       </c>
       <c r="Q34" t="n">
-        <v>856.1496427492311</v>
+        <v>856.1496427492314</v>
       </c>
       <c r="R34" t="n">
-        <v>792.4622108305019</v>
+        <v>792.4622108305023</v>
       </c>
       <c r="S34" t="n">
-        <v>792.4622108305019</v>
+        <v>792.4622108305023</v>
       </c>
       <c r="T34" t="n">
-        <v>677.6109424965081</v>
+        <v>792.4622108305023</v>
       </c>
       <c r="U34" t="n">
-        <v>503.7966035279593</v>
+        <v>792.4622108305023</v>
       </c>
       <c r="V34" t="n">
-        <v>503.7966035279593</v>
+        <v>774.1943221862264</v>
       </c>
       <c r="W34" t="n">
-        <v>487.5812048424156</v>
+        <v>600.1739539448492</v>
       </c>
       <c r="X34" t="n">
-        <v>487.5812048424156</v>
+        <v>487.5812048424154</v>
       </c>
       <c r="Y34" t="n">
-        <v>382.1854274944689</v>
+        <v>382.1854274944688</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>811.342187071047</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="C35" t="n">
-        <v>811.342187071047</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="D35" t="n">
-        <v>567.893410426947</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="E35" t="n">
-        <v>324.4446337828469</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="F35" t="n">
-        <v>80.99585713874683</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6968,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>811.342187071047</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>811.342187071047</v>
+        <v>747.9130074722755</v>
       </c>
       <c r="W35" t="n">
-        <v>811.342187071047</v>
+        <v>504.4642308281754</v>
       </c>
       <c r="X35" t="n">
-        <v>811.342187071047</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="Y35" t="n">
-        <v>811.342187071047</v>
+        <v>261.0154541840753</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>281.3237732129746</v>
+        <v>112.4110518503505</v>
       </c>
       <c r="C36" t="n">
-        <v>208.0402733789619</v>
+        <v>112.4110518503505</v>
       </c>
       <c r="D36" t="n">
-        <v>160.2753931648249</v>
+        <v>64.64617163621348</v>
       </c>
       <c r="E36" t="n">
-        <v>102.2074676064837</v>
+        <v>64.64617163621348</v>
       </c>
       <c r="F36" t="n">
-        <v>56.84243908048293</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7017,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>923.6960536574314</v>
+        <v>891.8093404084193</v>
       </c>
       <c r="T36" t="n">
-        <v>822.6789884633117</v>
+        <v>806.8340943817748</v>
       </c>
       <c r="U36" t="n">
-        <v>695.624899646815</v>
+        <v>679.7800055652781</v>
       </c>
       <c r="V36" t="n">
-        <v>561.6423208621866</v>
+        <v>545.7974267806497</v>
       </c>
       <c r="W36" t="n">
-        <v>561.6423208621866</v>
+        <v>392.7295994995624</v>
       </c>
       <c r="X36" t="n">
-        <v>454.9603501037681</v>
+        <v>286.0476287411439</v>
       </c>
       <c r="Y36" t="n">
-        <v>348.3695807859284</v>
+        <v>179.4568594233042</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81.97744447869398</v>
+        <v>369.8042528483008</v>
       </c>
       <c r="C37" t="n">
-        <v>81.97744447869398</v>
+        <v>302.0375993675082</v>
       </c>
       <c r="D37" t="n">
-        <v>81.97744447869398</v>
+        <v>253.0904894022867</v>
       </c>
       <c r="E37" t="n">
-        <v>81.97744447869398</v>
+        <v>206.3469252670079</v>
       </c>
       <c r="F37" t="n">
-        <v>81.97744447869398</v>
+        <v>206.3469252670079</v>
       </c>
       <c r="G37" t="n">
-        <v>81.97744447869398</v>
+        <v>137.8285967762851</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>75.13229540780378</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7117,28 +7117,28 @@
         <v>744.5964457193541</v>
       </c>
       <c r="R37" t="n">
-        <v>666.6817414521557</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="S37" t="n">
-        <v>666.6817414521557</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="T37" t="n">
-        <v>666.6817414521557</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="U37" t="n">
-        <v>562.4144097679109</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="V37" t="n">
-        <v>408.8994510091383</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="W37" t="n">
-        <v>408.8994510091383</v>
+        <v>696.7262593787451</v>
       </c>
       <c r="X37" t="n">
-        <v>282.0794295582352</v>
+        <v>569.9062379278421</v>
       </c>
       <c r="Y37" t="n">
-        <v>162.4563798618194</v>
+        <v>450.2831882314262</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>861.5759907321129</v>
+      </c>
+      <c r="C38" t="n">
+        <v>861.5759907321129</v>
+      </c>
+      <c r="D38" t="n">
+        <v>861.5759907321129</v>
+      </c>
+      <c r="E38" t="n">
         <v>644.0062961027915</v>
       </c>
-      <c r="C38" t="n">
+      <c r="F38" t="n">
         <v>426.43660147347</v>
       </c>
-      <c r="D38" t="n">
-        <v>208.8669068441485</v>
-      </c>
-      <c r="E38" t="n">
-        <v>17.23151981464226</v>
-      </c>
-      <c r="F38" t="n">
-        <v>17.23151981464226</v>
-      </c>
       <c r="G38" t="n">
-        <v>17.23151981464226</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="H38" t="n">
         <v>17.23151981464226</v>
@@ -7184,7 +7184,7 @@
         <v>513.5624350164212</v>
       </c>
       <c r="N38" t="n">
-        <v>719.4169572236606</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O38" t="n">
         <v>771.915935440062</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>221.206224359063</v>
+        <v>138.279899862792</v>
       </c>
       <c r="C39" t="n">
-        <v>147.9227245250502</v>
+        <v>64.99640002877925</v>
       </c>
       <c r="D39" t="n">
-        <v>100.1578443109132</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
-        <v>100.1578443109132</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F39" t="n">
-        <v>54.79281578491246</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G39" t="n">
         <v>17.23151981464226</v>
@@ -7254,10 +7254,10 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>17.23151981464226</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L39" t="n">
-        <v>17.23151981464226</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="M39" t="n">
         <v>183.0578391930369</v>
@@ -7278,25 +7278,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>861.5759907321129</v>
+        <v>789.3281756298961</v>
       </c>
       <c r="T39" t="n">
-        <v>861.5759907321129</v>
+        <v>688.3111104357764</v>
       </c>
       <c r="U39" t="n">
-        <v>788.5751780739906</v>
+        <v>561.2570216192797</v>
       </c>
       <c r="V39" t="n">
-        <v>654.5925992893623</v>
+        <v>427.2744428346513</v>
       </c>
       <c r="W39" t="n">
-        <v>501.5247720082749</v>
+        <v>274.206615553564</v>
       </c>
       <c r="X39" t="n">
-        <v>394.8428012498564</v>
+        <v>167.5246447951455</v>
       </c>
       <c r="Y39" t="n">
-        <v>288.2520319320167</v>
+        <v>138.279899862792</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.23151981464226</v>
+        <v>204.2973019714374</v>
       </c>
       <c r="C40" t="n">
-        <v>17.23151981464226</v>
+        <v>204.2973019714374</v>
       </c>
       <c r="D40" t="n">
-        <v>17.23151981464226</v>
+        <v>204.2973019714374</v>
       </c>
       <c r="E40" t="n">
-        <v>17.23151981464226</v>
+        <v>204.2973019714374</v>
       </c>
       <c r="F40" t="n">
-        <v>17.23151981464226</v>
+        <v>204.2973019714374</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23151981464226</v>
+        <v>135.7789734807146</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>73.08267211223333</v>
       </c>
       <c r="I40" t="n">
         <v>17.23151981464226</v>
@@ -7354,28 +7354,28 @@
         <v>742.5468224237836</v>
       </c>
       <c r="R40" t="n">
-        <v>742.5468224237836</v>
+        <v>664.6321181565853</v>
       </c>
       <c r="S40" t="n">
-        <v>617.4369599143603</v>
+        <v>539.522255647162</v>
       </c>
       <c r="T40" t="n">
-        <v>488.3584192318973</v>
+        <v>410.443714964699</v>
       </c>
       <c r="U40" t="n">
-        <v>300.3168079148794</v>
+        <v>323.9203516678533</v>
       </c>
       <c r="V40" t="n">
-        <v>146.8018491561068</v>
+        <v>323.9203516678533</v>
       </c>
       <c r="W40" t="n">
-        <v>17.23151981464226</v>
+        <v>323.9203516678533</v>
       </c>
       <c r="X40" t="n">
-        <v>17.23151981464226</v>
+        <v>323.9203516678533</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.23151981464226</v>
+        <v>204.2973019714374</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>632.5515545727623</v>
+        <v>12.65103109145525</v>
       </c>
       <c r="C41" t="n">
-        <v>472.8163135190344</v>
+        <v>12.65103109145525</v>
       </c>
       <c r="D41" t="n">
-        <v>472.8163135190344</v>
+        <v>12.65103109145525</v>
       </c>
       <c r="E41" t="n">
-        <v>332.121513198911</v>
+        <v>12.65103109145525</v>
       </c>
       <c r="F41" t="n">
-        <v>172.3862721451831</v>
+        <v>12.65103109145525</v>
       </c>
       <c r="G41" t="n">
-        <v>12.65103109145524</v>
+        <v>12.65103109145525</v>
       </c>
       <c r="H41" t="n">
-        <v>12.65103109145524</v>
+        <v>12.65103109145525</v>
       </c>
       <c r="I41" t="n">
-        <v>12.65103109145524</v>
+        <v>12.65103109145525</v>
       </c>
       <c r="J41" t="n">
-        <v>12.65103109145524</v>
+        <v>12.65103109145525</v>
       </c>
       <c r="K41" t="n">
-        <v>12.65103109145524</v>
+        <v>115.6660370023776</v>
       </c>
       <c r="L41" t="n">
-        <v>169.2075408482139</v>
+        <v>272.2225467591363</v>
       </c>
       <c r="M41" t="n">
-        <v>325.7640506049726</v>
+        <v>272.2225467591363</v>
       </c>
       <c r="N41" t="n">
-        <v>393.6965491380632</v>
+        <v>393.6965491380635</v>
       </c>
       <c r="O41" t="n">
-        <v>542.8914992807113</v>
+        <v>542.8914992807115</v>
       </c>
       <c r="P41" t="n">
-        <v>632.5515545727623</v>
+        <v>632.5515545727625</v>
       </c>
       <c r="Q41" t="n">
-        <v>632.5515545727623</v>
+        <v>632.5515545727625</v>
       </c>
       <c r="R41" t="n">
-        <v>632.5515545727623</v>
+        <v>567.9130305541227</v>
       </c>
       <c r="S41" t="n">
-        <v>632.5515545727623</v>
+        <v>567.9130305541227</v>
       </c>
       <c r="T41" t="n">
-        <v>632.5515545727623</v>
+        <v>491.856754252639</v>
       </c>
       <c r="U41" t="n">
-        <v>632.5515545727623</v>
+        <v>332.1215131989111</v>
       </c>
       <c r="V41" t="n">
-        <v>632.5515545727623</v>
+        <v>332.1215131989111</v>
       </c>
       <c r="W41" t="n">
-        <v>632.5515545727623</v>
+        <v>172.3862721451832</v>
       </c>
       <c r="X41" t="n">
-        <v>632.5515545727623</v>
+        <v>12.65103109145525</v>
       </c>
       <c r="Y41" t="n">
-        <v>632.5515545727623</v>
+        <v>12.65103109145525</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>218.09123100741</v>
+        <v>140.68567046715</v>
       </c>
       <c r="C42" t="n">
-        <v>130.3826251229459</v>
+        <v>140.68567046715</v>
       </c>
       <c r="D42" t="n">
-        <v>68.1926388583575</v>
+        <v>140.68567046715</v>
       </c>
       <c r="E42" t="n">
-        <v>68.1926388583575</v>
+        <v>68.19263885835738</v>
       </c>
       <c r="F42" t="n">
-        <v>68.1926388583575</v>
+        <v>68.19263885835738</v>
       </c>
       <c r="G42" t="n">
-        <v>16.20623683763588</v>
+        <v>16.20623683763583</v>
       </c>
       <c r="H42" t="n">
-        <v>16.20623683763588</v>
+        <v>16.20623683763583</v>
       </c>
       <c r="I42" t="n">
-        <v>12.65103109145524</v>
+        <v>12.65103109145525</v>
       </c>
       <c r="J42" t="n">
-        <v>12.65103109145524</v>
+        <v>12.65103109145525</v>
       </c>
       <c r="K42" t="n">
-        <v>138.0085911492926</v>
+        <v>12.65103109145525</v>
       </c>
       <c r="L42" t="n">
-        <v>294.5651009060513</v>
+        <v>169.207540848214</v>
       </c>
       <c r="M42" t="n">
-        <v>294.5651009060513</v>
+        <v>169.207540848214</v>
       </c>
       <c r="N42" t="n">
-        <v>319.4385350592449</v>
+        <v>325.7640506049727</v>
       </c>
       <c r="O42" t="n">
-        <v>475.9950448160036</v>
+        <v>406.6004863026744</v>
       </c>
       <c r="P42" t="n">
-        <v>632.5515545727623</v>
+        <v>563.1569960594331</v>
       </c>
       <c r="Q42" t="n">
-        <v>632.5515545727623</v>
+        <v>632.5515545727625</v>
       </c>
       <c r="R42" t="n">
-        <v>632.5515545727623</v>
+        <v>632.5515545727625</v>
       </c>
       <c r="S42" t="n">
-        <v>545.878633420094</v>
+        <v>632.5515545727625</v>
       </c>
       <c r="T42" t="n">
-        <v>545.878633420094</v>
+        <v>517.1093833281915</v>
       </c>
       <c r="U42" t="n">
-        <v>545.878633420094</v>
+        <v>517.1093833281915</v>
       </c>
       <c r="V42" t="n">
-        <v>545.878633420094</v>
+        <v>368.7016984931117</v>
       </c>
       <c r="W42" t="n">
-        <v>386.1433923663662</v>
+        <v>208.9664574393838</v>
       </c>
       <c r="X42" t="n">
-        <v>339.1071063757011</v>
+        <v>208.9664574393838</v>
       </c>
       <c r="Y42" t="n">
-        <v>218.09123100741</v>
+        <v>208.9664574393838</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>165.870723980672</v>
+        <v>82.92728943949767</v>
       </c>
       <c r="C43" t="n">
-        <v>165.870723980672</v>
+        <v>82.92728943949767</v>
       </c>
       <c r="D43" t="n">
-        <v>165.870723980672</v>
+        <v>82.92728943949767</v>
       </c>
       <c r="E43" t="n">
-        <v>165.870723980672</v>
+        <v>82.92728943949767</v>
       </c>
       <c r="F43" t="n">
-        <v>165.870723980672</v>
+        <v>82.92728943949767</v>
       </c>
       <c r="G43" t="n">
-        <v>82.92728943949771</v>
+        <v>82.92728943949767</v>
       </c>
       <c r="H43" t="n">
-        <v>82.92728943949771</v>
+        <v>82.92728943949767</v>
       </c>
       <c r="I43" t="n">
-        <v>12.65103109145524</v>
+        <v>12.65103109145525</v>
       </c>
       <c r="J43" t="n">
-        <v>12.65103109145524</v>
+        <v>12.65103109145525</v>
       </c>
       <c r="K43" t="n">
         <v>75.62244355490054</v>
@@ -7576,43 +7576,43 @@
         <v>187.9547779336829</v>
       </c>
       <c r="M43" t="n">
-        <v>312.1610254969743</v>
+        <v>312.1610254969744</v>
       </c>
       <c r="N43" t="n">
-        <v>440.8700855234799</v>
+        <v>440.87008552348</v>
       </c>
       <c r="O43" t="n">
-        <v>550.2275715294484</v>
+        <v>550.2275715294486</v>
       </c>
       <c r="P43" t="n">
-        <v>632.5515545727623</v>
+        <v>632.5515545727625</v>
       </c>
       <c r="Q43" t="n">
-        <v>632.2636110485217</v>
+        <v>632.263611048522</v>
       </c>
       <c r="R43" t="n">
-        <v>632.2636110485217</v>
+        <v>543.642899048308</v>
       </c>
       <c r="S43" t="n">
-        <v>632.2636110485217</v>
+        <v>543.642899048308</v>
       </c>
       <c r="T43" t="n">
-        <v>632.2636110485217</v>
+        <v>543.642899048308</v>
       </c>
       <c r="U43" t="n">
-        <v>472.5283699947939</v>
+        <v>383.90765799458</v>
       </c>
       <c r="V43" t="n">
-        <v>325.6059650343998</v>
+        <v>383.90765799458</v>
       </c>
       <c r="W43" t="n">
-        <v>165.870723980672</v>
+        <v>224.1724169408521</v>
       </c>
       <c r="X43" t="n">
-        <v>165.870723980672</v>
+        <v>82.92728943949767</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.870723980672</v>
+        <v>82.92728943949767</v>
       </c>
     </row>
     <row r="44">
@@ -8930,19 +8930,19 @@
         <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
-        <v>260.3515428840269</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>255.7185026163176</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P14" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M15" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>168.2165356390753</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>299.6177098558342</v>
+        <v>302.966251279449</v>
       </c>
       <c r="L17" t="n">
-        <v>318.6428152044558</v>
+        <v>318.6428152044556</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>309.8740920381263</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>312.9746116561552</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>314.1093959897381</v>
+        <v>314.1093959897379</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>147.2737841353851</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>221.4307800143426</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>225.0104341564867</v>
       </c>
       <c r="N18" t="n">
-        <v>214.2181123178018</v>
+        <v>214.2181123178017</v>
       </c>
       <c r="O18" t="n">
-        <v>225.472644678913</v>
+        <v>222.1241032552979</v>
       </c>
       <c r="P18" t="n">
-        <v>216.8508076487988</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,22 +9720,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M30" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,7 +10440,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10832,10 +10832,10 @@
         <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>339.6742254965835</v>
       </c>
       <c r="O38" t="n">
-        <v>283.1274823473447</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>309.6353666274674</v>
+        <v>183.0115685892478</v>
       </c>
       <c r="N39" t="n">
         <v>346.7357097663615</v>
@@ -11060,16 +11060,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>393.9043036131778</v>
       </c>
       <c r="M41" t="n">
-        <v>388.4841218704633</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>298.0317489835512</v>
+        <v>352.1140761005577</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>296.6922684230648</v>
@@ -11148,16 +11148,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>156.4663930461552</v>
+        <v>289.4796007265239</v>
       </c>
       <c r="O42" t="n">
-        <v>300.734133087635</v>
+        <v>224.2492097956583</v>
       </c>
       <c r="P42" t="n">
-        <v>292.1122960575208</v>
+        <v>292.1122960575209</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23495,7 +23495,7 @@
         <v>346.5243767368434</v>
       </c>
       <c r="C14" t="n">
-        <v>329.0634268443703</v>
+        <v>329.0634268443704</v>
       </c>
       <c r="D14" t="n">
         <v>318.4735766940457</v>
@@ -23504,13 +23504,13 @@
         <v>345.7209051456246</v>
       </c>
       <c r="F14" t="n">
-        <v>345.0462896204434</v>
+        <v>370.6665808150742</v>
       </c>
       <c r="G14" t="n">
-        <v>353.472981393867</v>
+        <v>379.0932725884978</v>
       </c>
       <c r="H14" t="n">
-        <v>277.6450459944991</v>
+        <v>303.2653371891299</v>
       </c>
       <c r="I14" t="n">
         <v>174.2664246437687</v>
@@ -23540,19 +23540,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>113.6596530145124</v>
+        <v>113.6596530145125</v>
       </c>
       <c r="S14" t="n">
-        <v>172.8106046596081</v>
+        <v>150.2442521753773</v>
       </c>
       <c r="T14" t="n">
-        <v>164.3200321532633</v>
+        <v>161.2660934428633</v>
       </c>
       <c r="U14" t="n">
-        <v>215.1361879811992</v>
+        <v>189.5158967865685</v>
       </c>
       <c r="V14" t="n">
-        <v>291.5427935434976</v>
+        <v>265.9225023488669</v>
       </c>
       <c r="W14" t="n">
         <v>313.0315037907758</v>
@@ -23561,7 +23561,7 @@
         <v>333.5216357518318</v>
       </c>
       <c r="Y14" t="n">
-        <v>350.0284737294163</v>
+        <v>350.0284737294164</v>
       </c>
     </row>
     <row r="15">
@@ -23577,22 +23577,22 @@
         <v>136.4990340616785</v>
       </c>
       <c r="D15" t="n">
-        <v>111.2356006380015</v>
+        <v>111.2356006380016</v>
       </c>
       <c r="E15" t="n">
-        <v>95.81532433413287</v>
+        <v>95.81532433413292</v>
       </c>
       <c r="F15" t="n">
-        <v>83.2394562721158</v>
+        <v>83.23945627211586</v>
       </c>
       <c r="G15" t="n">
-        <v>101.1340522365734</v>
+        <v>75.51376104194262</v>
       </c>
       <c r="H15" t="n">
-        <v>50.40568811522838</v>
+        <v>53.45962682562843</v>
       </c>
       <c r="I15" t="n">
-        <v>30.62081544054699</v>
+        <v>53.18716792477788</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>63.94836922600588</v>
+        <v>63.94836922600594</v>
       </c>
       <c r="S15" t="n">
         <v>135.4737061772006</v>
@@ -23631,16 +23631,16 @@
         <v>189.7319171543376</v>
       </c>
       <c r="V15" t="n">
-        <v>196.591122222788</v>
+        <v>196.5911222227881</v>
       </c>
       <c r="W15" t="n">
         <v>215.4855182342824</v>
       </c>
       <c r="X15" t="n">
-        <v>169.5635202768402</v>
+        <v>169.5635202768403</v>
       </c>
       <c r="Y15" t="n">
-        <v>169.4732308506671</v>
+        <v>169.4732308506672</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>143.6225152553</v>
+        <v>143.6225152553001</v>
       </c>
       <c r="C16" t="n">
         <v>131.0373561719906</v>
       </c>
       <c r="D16" t="n">
-        <v>89.83965560734427</v>
+        <v>112.4060080915752</v>
       </c>
       <c r="E16" t="n">
-        <v>110.2244977199319</v>
+        <v>110.224497719932</v>
       </c>
       <c r="F16" t="n">
         <v>109.211583096294</v>
       </c>
       <c r="G16" t="n">
-        <v>106.1612232371907</v>
+        <v>109.2151619475907</v>
       </c>
       <c r="H16" t="n">
-        <v>100.3974163861715</v>
+        <v>100.3974163861716</v>
       </c>
       <c r="I16" t="n">
-        <v>93.62071880599021</v>
+        <v>93.62071880599026</v>
       </c>
       <c r="J16" t="n">
-        <v>57.14971519003552</v>
+        <v>31.52942399540475</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.95257832505713</v>
+        <v>49.95257832505719</v>
       </c>
       <c r="R16" t="n">
-        <v>141.0839264505322</v>
+        <v>141.0839264505323</v>
       </c>
       <c r="S16" t="n">
-        <v>187.807133110335</v>
+        <v>187.8071331103351</v>
       </c>
       <c r="T16" t="n">
-        <v>191.7361245016442</v>
+        <v>191.7361245016443</v>
       </c>
       <c r="U16" t="n">
-        <v>250.1095644298536</v>
+        <v>250.1095644298537</v>
       </c>
       <c r="V16" t="n">
-        <v>215.9281783971907</v>
+        <v>215.9281783971908</v>
       </c>
       <c r="W16" t="n">
-        <v>250.3135334099537</v>
+        <v>250.3135334099538</v>
       </c>
       <c r="X16" t="n">
-        <v>189.5001904623999</v>
+        <v>189.5001904624</v>
       </c>
       <c r="Y16" t="n">
-        <v>182.3751884254575</v>
+        <v>182.3751884254576</v>
       </c>
     </row>
     <row r="17">
@@ -23729,25 +23729,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>346.5243767368434</v>
+        <v>263.6479765023749</v>
       </c>
       <c r="C17" t="n">
-        <v>329.0634268443703</v>
+        <v>329.0634268443704</v>
       </c>
       <c r="D17" t="n">
         <v>318.4735766940457</v>
       </c>
       <c r="E17" t="n">
-        <v>262.844504911156</v>
+        <v>345.7209051456246</v>
       </c>
       <c r="F17" t="n">
-        <v>287.7901805806057</v>
+        <v>287.7901805806058</v>
       </c>
       <c r="G17" t="n">
-        <v>296.2168723540293</v>
+        <v>296.2168723540294</v>
       </c>
       <c r="H17" t="n">
-        <v>230.2678038626101</v>
+        <v>230.2678038626102</v>
       </c>
       <c r="I17" t="n">
         <v>174.2664246437687</v>
@@ -23777,19 +23777,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>113.6596530145124</v>
+        <v>113.6596530145125</v>
       </c>
       <c r="S17" t="n">
         <v>172.8106046596081</v>
       </c>
       <c r="T17" t="n">
-        <v>186.8863846374941</v>
+        <v>186.8863846374942</v>
       </c>
       <c r="U17" t="n">
-        <v>215.1361879811992</v>
+        <v>215.1361879811993</v>
       </c>
       <c r="V17" t="n">
-        <v>291.5427935434976</v>
+        <v>291.5427935434977</v>
       </c>
       <c r="W17" t="n">
         <v>313.0315037907758</v>
@@ -23798,7 +23798,7 @@
         <v>333.5216357518318</v>
       </c>
       <c r="Y17" t="n">
-        <v>350.0284737294163</v>
+        <v>350.0284737294164</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>47.44731848876158</v>
+        <v>130.3237187232301</v>
       </c>
       <c r="C18" t="n">
-        <v>63.50150073515864</v>
+        <v>136.4990340616785</v>
       </c>
       <c r="D18" t="n">
-        <v>111.2356006380015</v>
+        <v>111.2356006380016</v>
       </c>
       <c r="E18" t="n">
-        <v>38.55921529429519</v>
+        <v>38.55921529429534</v>
       </c>
       <c r="F18" t="n">
-        <v>108.8597474667466</v>
+        <v>25.98334723227828</v>
       </c>
       <c r="G18" t="n">
-        <v>101.1340522365734</v>
+        <v>18.25765200210503</v>
       </c>
       <c r="H18" t="n">
-        <v>76.02597930985921</v>
+        <v>66.97681520934549</v>
       </c>
       <c r="I18" t="n">
-        <v>53.18716792477782</v>
+        <v>53.18716792477788</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>63.94836922600588</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>135.4737061772006</v>
@@ -23868,16 +23868,16 @@
         <v>189.7319171543376</v>
       </c>
       <c r="V18" t="n">
-        <v>196.591122222788</v>
+        <v>196.5911222227881</v>
       </c>
       <c r="W18" t="n">
         <v>215.4855182342824</v>
       </c>
       <c r="X18" t="n">
-        <v>169.5635202768402</v>
+        <v>169.5635202768403</v>
       </c>
       <c r="Y18" t="n">
-        <v>86.5968306161986</v>
+        <v>169.4732308506672</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>143.6225152553</v>
+        <v>143.6225152553001</v>
       </c>
       <c r="C19" t="n">
-        <v>131.0373561719906</v>
+        <v>48.16095593752223</v>
       </c>
       <c r="D19" t="n">
-        <v>112.4060080915751</v>
+        <v>112.4060080915752</v>
       </c>
       <c r="E19" t="n">
-        <v>110.2244977199319</v>
+        <v>110.224497719932</v>
       </c>
       <c r="F19" t="n">
         <v>109.211583096294</v>
       </c>
       <c r="G19" t="n">
-        <v>131.7815144318215</v>
+        <v>58.78398110530183</v>
       </c>
       <c r="H19" t="n">
-        <v>126.0177075808023</v>
+        <v>126.0177075808024</v>
       </c>
       <c r="I19" t="n">
-        <v>36.36460976615253</v>
+        <v>119.2410100006211</v>
       </c>
       <c r="J19" t="n">
-        <v>57.14971519003552</v>
+        <v>57.14971519003558</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>49.95257832505719</v>
       </c>
       <c r="R19" t="n">
-        <v>141.0839264505322</v>
+        <v>141.0839264505323</v>
       </c>
       <c r="S19" t="n">
-        <v>164.7621781088723</v>
+        <v>104.9307328758667</v>
       </c>
       <c r="T19" t="n">
-        <v>191.7361245016442</v>
+        <v>191.7361245016443</v>
       </c>
       <c r="U19" t="n">
-        <v>167.2331641953851</v>
+        <v>250.1095644298537</v>
       </c>
       <c r="V19" t="n">
-        <v>133.0517781627223</v>
+        <v>215.9281783971908</v>
       </c>
       <c r="W19" t="n">
-        <v>250.3135334099537</v>
+        <v>250.3135334099538</v>
       </c>
       <c r="X19" t="n">
-        <v>189.5001904623999</v>
+        <v>106.6237902279316</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.3751884254575</v>
+        <v>182.3751884254576</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.4393771118588</v>
+        <v>120.1539914684168</v>
       </c>
       <c r="C20" t="n">
-        <v>314.9784272193858</v>
+        <v>73.96413834172677</v>
       </c>
       <c r="D20" t="n">
-        <v>304.3885770690612</v>
+        <v>304.3885770690613</v>
       </c>
       <c r="E20" t="n">
-        <v>278.0761249118215</v>
+        <v>331.6359055206401</v>
       </c>
       <c r="F20" t="n">
-        <v>356.5815811900897</v>
+        <v>356.5815811900898</v>
       </c>
       <c r="G20" t="n">
-        <v>365.0082729635133</v>
+        <v>365.0082729635134</v>
       </c>
       <c r="H20" t="n">
-        <v>289.1803375641454</v>
+        <v>289.1803375641455</v>
       </c>
       <c r="I20" t="n">
         <v>160.1814250187842</v>
@@ -24014,13 +24014,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>99.57465338952795</v>
+        <v>99.57465338952798</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>158.7256050346236</v>
       </c>
       <c r="T20" t="n">
-        <v>172.8013850125096</v>
+        <v>172.8013850125097</v>
       </c>
       <c r="U20" t="n">
         <v>201.0511883562148</v>
@@ -24029,10 +24029,10 @@
         <v>277.4577939185132</v>
       </c>
       <c r="W20" t="n">
-        <v>57.93221528813223</v>
+        <v>298.9465041657913</v>
       </c>
       <c r="X20" t="n">
-        <v>78.42234724918825</v>
+        <v>78.42234724918831</v>
       </c>
       <c r="Y20" t="n">
         <v>94.9291852267728</v>
@@ -24048,10 +24048,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>122.414034436694</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>97.15060101301705</v>
       </c>
       <c r="E21" t="n">
         <v>107.3506159037792</v>
@@ -24060,10 +24060,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>87.04905261158891</v>
+        <v>63.97397020500719</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>61.94097968487476</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>49.86336960102143</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>121.3887065522161</v>
       </c>
       <c r="T21" t="n">
-        <v>149.8702641431999</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>175.6469175293531</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>182.5061225978036</v>
       </c>
       <c r="W21" t="n">
-        <v>201.4005186092979</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>155.4785206518557</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>105.4394280746913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>129.5375156303156</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>116.9523565470061</v>
       </c>
       <c r="D22" t="n">
-        <v>98.32100846659063</v>
+        <v>98.32100846659065</v>
       </c>
       <c r="E22" t="n">
-        <v>96.13949809494744</v>
+        <v>96.13949809494747</v>
       </c>
       <c r="F22" t="n">
-        <v>95.12658347130952</v>
+        <v>95.12658347130954</v>
       </c>
       <c r="G22" t="n">
-        <v>117.696514806837</v>
+        <v>117.6965148068371</v>
       </c>
       <c r="H22" t="n">
-        <v>111.9327079558178</v>
+        <v>111.9327079558179</v>
       </c>
       <c r="I22" t="n">
         <v>105.1560103756366</v>
       </c>
       <c r="J22" t="n">
-        <v>43.06471556505105</v>
+        <v>43.06471556505107</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24169,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.86757870007266</v>
+        <v>35.86757870007268</v>
       </c>
       <c r="R22" t="n">
         <v>126.9989268255478</v>
       </c>
       <c r="S22" t="n">
-        <v>173.7221334853505</v>
+        <v>173.7221334853506</v>
       </c>
       <c r="T22" t="n">
         <v>177.6511248766598</v>
@@ -24187,13 +24187,13 @@
         <v>201.8431787722063</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>236.2285337849693</v>
       </c>
       <c r="X22" t="n">
-        <v>7.188741797775663</v>
+        <v>68.78791244359523</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.2901888004731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,25 +24203,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332.4393771118588</v>
+        <v>332.4393771118589</v>
       </c>
       <c r="C23" t="n">
-        <v>73.96413834172677</v>
+        <v>314.9784272193858</v>
       </c>
       <c r="D23" t="n">
-        <v>304.3885770690612</v>
+        <v>92.10319142561929</v>
       </c>
       <c r="E23" t="n">
-        <v>331.6359055206401</v>
+        <v>90.62161664298105</v>
       </c>
       <c r="F23" t="n">
-        <v>356.5815811900897</v>
+        <v>115.5672923124307</v>
       </c>
       <c r="G23" t="n">
-        <v>365.0082729635133</v>
+        <v>123.9939840858543</v>
       </c>
       <c r="H23" t="n">
-        <v>76.89495192070331</v>
+        <v>289.1803375641455</v>
       </c>
       <c r="I23" t="n">
         <v>160.1814250187842</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>99.57465338952795</v>
+        <v>99.57465338952798</v>
       </c>
       <c r="S23" t="n">
         <v>158.7256050346236</v>
       </c>
       <c r="T23" t="n">
-        <v>172.8013850125096</v>
+        <v>172.8013850125097</v>
       </c>
       <c r="U23" t="n">
         <v>201.0511883562148</v>
@@ -24266,10 +24266,10 @@
         <v>277.4577939185132</v>
       </c>
       <c r="W23" t="n">
-        <v>57.93221528813223</v>
+        <v>298.9465041657913</v>
       </c>
       <c r="X23" t="n">
-        <v>78.42234724918825</v>
+        <v>319.4366361268474</v>
       </c>
       <c r="Y23" t="n">
         <v>335.9434741044319</v>
@@ -24288,13 +24288,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>31.33298677624387</v>
+        <v>97.15060101301705</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>107.3506159037792</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>94.77474784176218</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24303,7 +24303,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>39.10216829979338</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.8633696010214</v>
+        <v>49.86336960102143</v>
       </c>
       <c r="S24" t="n">
-        <v>121.3887065522161</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>149.8702641431999</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>175.6469175293531</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>182.5061225978035</v>
+        <v>120.9663459311671</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>201.4005186092979</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>155.3882312256826</v>
+        <v>155.3882312256827</v>
       </c>
     </row>
     <row r="25">
@@ -24367,25 +24367,25 @@
         <v>116.9523565470061</v>
       </c>
       <c r="D25" t="n">
-        <v>98.32100846659063</v>
+        <v>98.32100846659065</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>96.13949809494747</v>
       </c>
       <c r="F25" t="n">
-        <v>41.15858384418705</v>
+        <v>95.12658347130954</v>
       </c>
       <c r="G25" t="n">
-        <v>117.696514806837</v>
+        <v>117.6965148068371</v>
       </c>
       <c r="H25" t="n">
-        <v>111.9327079558178</v>
+        <v>111.9327079558179</v>
       </c>
       <c r="I25" t="n">
         <v>105.1560103756366</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>43.06471556505107</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,13 +24406,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>35.86757870007268</v>
       </c>
       <c r="R25" t="n">
         <v>126.9989268255478</v>
       </c>
       <c r="S25" t="n">
-        <v>173.7221334853505</v>
+        <v>173.7221334853506</v>
       </c>
       <c r="T25" t="n">
         <v>177.6511248766598</v>
@@ -24424,10 +24424,10 @@
         <v>201.8431787722063</v>
       </c>
       <c r="W25" t="n">
-        <v>236.2285337849693</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>7.188741797775833</v>
       </c>
       <c r="Y25" t="n">
         <v>168.2901888004731</v>
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>328.1492213364568</v>
+        <v>87.13493245879778</v>
       </c>
       <c r="C26" t="n">
         <v>310.6882714439838</v>
       </c>
       <c r="D26" t="n">
-        <v>300.0984212936592</v>
+        <v>59.08413241600016</v>
       </c>
       <c r="E26" t="n">
-        <v>86.33146086757893</v>
+        <v>86.33146086757898</v>
       </c>
       <c r="F26" t="n">
-        <v>352.2914254146876</v>
+        <v>352.2914254146877</v>
       </c>
       <c r="G26" t="n">
-        <v>119.7038283104522</v>
+        <v>360.7181171881113</v>
       </c>
       <c r="H26" t="n">
-        <v>284.8901817887433</v>
+        <v>72.60479614530129</v>
       </c>
       <c r="I26" t="n">
-        <v>155.8912692433821</v>
+        <v>155.8912692433822</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>95.28449761412587</v>
+        <v>95.28449761412595</v>
       </c>
       <c r="S26" t="n">
-        <v>154.4354492592215</v>
+        <v>154.4354492592216</v>
       </c>
       <c r="T26" t="n">
         <v>168.5112292371076</v>
       </c>
       <c r="U26" t="n">
-        <v>196.7610325808127</v>
+        <v>196.7610325808128</v>
       </c>
       <c r="V26" t="n">
-        <v>273.1676381431111</v>
+        <v>273.1676381431112</v>
       </c>
       <c r="W26" t="n">
-        <v>294.6563483903892</v>
+        <v>294.6563483903893</v>
       </c>
       <c r="X26" t="n">
-        <v>74.13219147378618</v>
+        <v>315.1464803514453</v>
       </c>
       <c r="Y26" t="n">
-        <v>119.3679326855877</v>
+        <v>331.6533183290298</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25.5898427834067</v>
+        <v>111.9485633228436</v>
       </c>
       <c r="C27" t="n">
-        <v>118.1238786612919</v>
+        <v>118.123878661292</v>
       </c>
       <c r="D27" t="n">
-        <v>92.86044523761494</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>103.0604601283771</v>
+        <v>103.0604601283772</v>
       </c>
       <c r="F27" t="n">
-        <v>90.48459206636007</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>82.75889683618682</v>
+        <v>82.75889683618691</v>
       </c>
       <c r="H27" t="n">
-        <v>57.65082390947265</v>
+        <v>57.65082390947273</v>
       </c>
       <c r="I27" t="n">
-        <v>34.81201252439126</v>
+        <v>34.81201252439135</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.57321382561932</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.098550776814</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>145.5801083677978</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24582,13 +24582,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>102.9517494080358</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>151.1883648764538</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>151.0980754502806</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125.2473598549135</v>
+        <v>125.2473598549136</v>
       </c>
       <c r="C28" t="n">
-        <v>112.662200771604</v>
+        <v>112.6622007716041</v>
       </c>
       <c r="D28" t="n">
-        <v>94.03085269118854</v>
+        <v>94.03085269118863</v>
       </c>
       <c r="E28" t="n">
-        <v>91.84934231954536</v>
+        <v>91.84934231954544</v>
       </c>
       <c r="F28" t="n">
-        <v>90.83642769590743</v>
+        <v>90.83642769590752</v>
       </c>
       <c r="G28" t="n">
-        <v>14.93986398479231</v>
+        <v>113.406359031435</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>107.6425521804158</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>100.8658546002346</v>
       </c>
       <c r="J28" t="n">
-        <v>38.77455978964896</v>
+        <v>38.77455978964905</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,25 +24643,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.57742292467057</v>
+        <v>31.57742292467066</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.7087710501458</v>
       </c>
       <c r="S28" t="n">
         <v>169.4319777099485</v>
       </c>
       <c r="T28" t="n">
-        <v>173.3609691012577</v>
+        <v>173.3609691012578</v>
       </c>
       <c r="U28" t="n">
-        <v>231.7344090294671</v>
+        <v>231.5421371584006</v>
       </c>
       <c r="V28" t="n">
-        <v>197.5530229968042</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>231.9383780095672</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>171.1250350620134</v>
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>136.6563574956696</v>
+        <v>268.4910078858529</v>
       </c>
       <c r="C29" t="n">
-        <v>251.03005799338</v>
+        <v>251.0300579933799</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4402078430554</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E29" t="n">
-        <v>267.6875362946342</v>
+        <v>26.67324741697507</v>
       </c>
       <c r="F29" t="n">
-        <v>51.61892308642479</v>
+        <v>292.6332119640838</v>
       </c>
       <c r="G29" t="n">
-        <v>60.0456148598484</v>
+        <v>301.0599037375074</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>96.23305579277827</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>35.62628416352209</v>
+        <v>35.62628416352204</v>
       </c>
       <c r="S29" t="n">
-        <v>94.77723580861775</v>
+        <v>94.7772358086177</v>
       </c>
       <c r="T29" t="n">
-        <v>108.8530157865038</v>
+        <v>108.8530157865037</v>
       </c>
       <c r="U29" t="n">
-        <v>137.1028191302089</v>
+        <v>137.1028191302088</v>
       </c>
       <c r="V29" t="n">
-        <v>213.5094246925073</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>234.9981349397854</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>255.4882669008414</v>
+        <v>234.9138314725133</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.995104878426</v>
+        <v>271.9951048784259</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.5891464043097</v>
+        <v>20.73085299538297</v>
       </c>
       <c r="C31" t="n">
-        <v>53.00398732100024</v>
+        <v>53.0039873210002</v>
       </c>
       <c r="D31" t="n">
-        <v>34.37263924058476</v>
+        <v>34.37263924058472</v>
       </c>
       <c r="E31" t="n">
-        <v>32.19112886894158</v>
+        <v>32.19112886894153</v>
       </c>
       <c r="F31" t="n">
-        <v>31.17821424530365</v>
+        <v>31.17821424530361</v>
       </c>
       <c r="G31" t="n">
-        <v>53.74814558083116</v>
+        <v>53.74814558083112</v>
       </c>
       <c r="H31" t="n">
-        <v>47.98433872981198</v>
+        <v>47.98433872981194</v>
       </c>
       <c r="I31" t="n">
-        <v>41.20764114963069</v>
+        <v>41.20764114963065</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>63.05055759954185</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>137.8948095462003</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>51.7452541623491</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>104.3418195744672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>268.491007885853</v>
+        <v>268.4910078858529</v>
       </c>
       <c r="C32" t="n">
-        <v>251.03005799338</v>
+        <v>251.0300579933799</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E32" t="n">
-        <v>26.67324741697513</v>
+        <v>39.61983011167257</v>
       </c>
       <c r="F32" t="n">
-        <v>292.6332119640838</v>
+        <v>51.61892308642473</v>
       </c>
       <c r="G32" t="n">
-        <v>301.0599037375075</v>
+        <v>60.04561485984834</v>
       </c>
       <c r="H32" t="n">
-        <v>225.2319683381396</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>56.10269240846352</v>
+        <v>96.23305579277827</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24962,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>35.62628416352204</v>
       </c>
       <c r="S32" t="n">
-        <v>94.77723580861773</v>
+        <v>94.7772358086177</v>
       </c>
       <c r="T32" t="n">
         <v>108.8530157865037</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>137.1028191302088</v>
       </c>
       <c r="V32" t="n">
         <v>213.5094246925073</v>
@@ -24983,7 +24983,7 @@
         <v>255.4882669008414</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.98081600076694</v>
+        <v>271.9951048784259</v>
       </c>
     </row>
     <row r="33">
@@ -25126,19 +25126,19 @@
         <v>109.7737642593446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>172.0761955788632</v>
       </c>
       <c r="V34" t="n">
-        <v>137.8948095462004</v>
+        <v>119.8095997883672</v>
       </c>
       <c r="W34" t="n">
-        <v>156.2269198602751</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>111.4668216114095</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25157,19 +25157,19 @@
         <v>265.1150576183644</v>
       </c>
       <c r="D35" t="n">
-        <v>13.51091859038075</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E35" t="n">
-        <v>40.75824704195958</v>
+        <v>281.7725359196186</v>
       </c>
       <c r="F35" t="n">
-        <v>65.70392271140923</v>
+        <v>306.7182115890683</v>
       </c>
       <c r="G35" t="n">
-        <v>254.0473364742431</v>
+        <v>315.1449033624919</v>
       </c>
       <c r="H35" t="n">
-        <v>239.316967963124</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>110.3180554177628</v>
@@ -25208,16 +25208,16 @@
         <v>122.9380154114882</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V35" t="n">
-        <v>227.5944243174918</v>
+        <v>13.61171775951462</v>
       </c>
       <c r="W35" t="n">
-        <v>249.0831345647699</v>
+        <v>8.068845687110809</v>
       </c>
       <c r="X35" t="n">
-        <v>269.5732665258259</v>
+        <v>28.55897764816683</v>
       </c>
       <c r="Y35" t="n">
         <v>286.0801045034104</v>
@@ -25233,19 +25233,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H36" t="n">
         <v>12.07761008385333</v>
@@ -25281,10 +25281,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>31.56784611652196</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>15.88140097580039</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25293,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>151.5371490082765</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>67.0889869459847</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>48.45763886556922</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>46.27612849392604</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>45.26321387028811</v>
       </c>
       <c r="G37" t="n">
-        <v>67.83314520581563</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>55.29264077461515</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S37" t="n">
         <v>123.8587638843291</v>
@@ -25366,13 +25366,13 @@
         <v>127.7877552756384</v>
       </c>
       <c r="U37" t="n">
-        <v>82.93653683644537</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3651641839479</v>
+        <v>138.973679706745</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>67.1820098278092</v>
+        <v>282.5760075108374</v>
       </c>
       <c r="C38" t="n">
-        <v>49.72105993533617</v>
+        <v>265.1150576183644</v>
       </c>
       <c r="D38" t="n">
-        <v>39.13120978501158</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E38" t="n">
-        <v>92.05350276040744</v>
+        <v>66.3785382365904</v>
       </c>
       <c r="F38" t="n">
-        <v>306.7182115890683</v>
+        <v>91.32421390604006</v>
       </c>
       <c r="G38" t="n">
-        <v>315.1449033624919</v>
+        <v>125.4258702032807</v>
       </c>
       <c r="H38" t="n">
-        <v>239.316967963124</v>
+        <v>23.92297028009577</v>
       </c>
       <c r="I38" t="n">
         <v>110.3180554177628</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25479,10 +25479,10 @@
         <v>57.48724630275781</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H39" t="n">
         <v>12.07761008385333</v>
@@ -25518,13 +25518,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>71.52533695119469</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>100.0068945421785</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>53.51274339679061</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>76.57256414163125</v>
       </c>
     </row>
     <row r="40">
@@ -25561,13 +25561,13 @@
         <v>45.26321387028811</v>
       </c>
       <c r="G40" t="n">
-        <v>67.83314520581563</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>62.06933835479644</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>55.29264077461515</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,19 +25603,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>100.5030655399705</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W40" t="n">
-        <v>58.09053813589796</v>
+        <v>186.3651641839479</v>
       </c>
       <c r="X40" t="n">
         <v>125.551821236394</v>
       </c>
       <c r="Y40" t="n">
-        <v>118.4268191994517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>296.8568625007844</v>
+        <v>296.8568625007842</v>
       </c>
       <c r="C41" t="n">
-        <v>121.2580239651207</v>
+        <v>279.3959126083113</v>
       </c>
       <c r="D41" t="n">
-        <v>268.8060624579867</v>
+        <v>268.8060624579866</v>
       </c>
       <c r="E41" t="n">
-        <v>156.7655385926434</v>
+        <v>296.0533909095655</v>
       </c>
       <c r="F41" t="n">
-        <v>162.8611779358247</v>
+        <v>320.9990665790151</v>
       </c>
       <c r="G41" t="n">
-        <v>171.2878697092483</v>
+        <v>329.4257583524387</v>
       </c>
       <c r="H41" t="n">
-        <v>253.5978229530709</v>
+        <v>253.5978229530708</v>
       </c>
       <c r="I41" t="n">
-        <v>124.5989104077097</v>
+        <v>124.5989104077096</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,25 +25673,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.99213877845344</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.1430904235491</v>
+        <v>123.143090423549</v>
       </c>
       <c r="T41" t="n">
-        <v>137.2188704014351</v>
+        <v>61.92315686296625</v>
       </c>
       <c r="U41" t="n">
-        <v>165.4686737451403</v>
+        <v>7.330785101949573</v>
       </c>
       <c r="V41" t="n">
-        <v>241.8752793074387</v>
+        <v>241.8752793074386</v>
       </c>
       <c r="W41" t="n">
-        <v>263.3639895547168</v>
+        <v>105.2261009115261</v>
       </c>
       <c r="X41" t="n">
-        <v>283.8541215157728</v>
+        <v>125.7162328725821</v>
       </c>
       <c r="Y41" t="n">
         <v>300.3609594933573</v>
@@ -25704,25 +25704,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>80.6562044871711</v>
+        <v>13.05822538465954</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>86.83151982561944</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>61.56808640194245</v>
       </c>
       <c r="E42" t="n">
-        <v>71.7681012927047</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>59.19223323068763</v>
+        <v>59.19223323068758</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>26.35846507380022</v>
+        <v>26.35846507380016</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.28085498994689</v>
+        <v>14.28085498994683</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>85.80619194114152</v>
       </c>
       <c r="T42" t="n">
-        <v>114.2877495321254</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>140.0644029182786</v>
+        <v>140.0644029182785</v>
       </c>
       <c r="V42" t="n">
-        <v>146.923607986729</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>7.680115355032797</v>
+        <v>7.680115355032683</v>
       </c>
       <c r="X42" t="n">
-        <v>73.33008291002275</v>
+        <v>119.8960060407812</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>119.8057166146081</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25783,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.95500101924105</v>
+        <v>93.955001019241</v>
       </c>
       <c r="C43" t="n">
-        <v>81.36984193593159</v>
+        <v>81.36984193593153</v>
       </c>
       <c r="D43" t="n">
-        <v>62.73849385551611</v>
+        <v>62.73849385551605</v>
       </c>
       <c r="E43" t="n">
-        <v>60.55698348387293</v>
+        <v>60.55698348387287</v>
       </c>
       <c r="F43" t="n">
-        <v>59.544068860235</v>
+        <v>59.54406886023494</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>82.11400019576246</v>
       </c>
       <c r="H43" t="n">
-        <v>76.35019334474333</v>
+        <v>76.35019334474327</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>7.48220095397653</v>
+        <v>7.482200953976474</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>91.41641221447324</v>
+        <v>3.681907334261339</v>
       </c>
       <c r="S43" t="n">
         <v>138.139618874276</v>
@@ -25840,16 +25840,16 @@
         <v>142.0686102655852</v>
       </c>
       <c r="U43" t="n">
-        <v>42.30416155060408</v>
+        <v>42.30416155060396</v>
       </c>
       <c r="V43" t="n">
-        <v>20.80748325034168</v>
+        <v>166.2606641611317</v>
       </c>
       <c r="W43" t="n">
-        <v>42.50813053070419</v>
+        <v>42.50813053070408</v>
       </c>
       <c r="X43" t="n">
-        <v>139.8326762263409</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>132.7076741893985</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355723.1855439305</v>
+        <v>355723.1855439303</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>466140.0438753378</v>
+        <v>466140.0438753377</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>474535.7893209532</v>
+        <v>474535.7893209531</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>589922.3039968113</v>
+        <v>589922.3039968115</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>492353.0483173362</v>
+        <v>492353.0483173365</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491121</v>
+        <v>798794.430249112</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491125</v>
+        <v>798794.4302491127</v>
       </c>
       <c r="D2" t="n">
-        <v>798794.4302491121</v>
+        <v>798794.4302491123</v>
       </c>
       <c r="E2" t="n">
         <v>234740.9065329396</v>
       </c>
       <c r="F2" t="n">
-        <v>310276.6011128005</v>
+        <v>310276.6011128002</v>
       </c>
       <c r="G2" t="n">
-        <v>341906.7010711631</v>
+        <v>341906.7010711627</v>
       </c>
       <c r="H2" t="n">
-        <v>449583.8508166939</v>
+        <v>449583.8508166937</v>
       </c>
       <c r="I2" t="n">
-        <v>449583.8508166939</v>
+        <v>449583.8508166937</v>
       </c>
       <c r="J2" t="n">
-        <v>460146.2402482741</v>
+        <v>460146.2402482738</v>
       </c>
       <c r="K2" t="n">
-        <v>605309.9200017718</v>
+        <v>605309.9200017717</v>
       </c>
       <c r="L2" t="n">
-        <v>605309.9200017717</v>
+        <v>605309.9200017714</v>
       </c>
       <c r="M2" t="n">
-        <v>571893.2167461386</v>
+        <v>571893.2167461388</v>
       </c>
       <c r="N2" t="n">
         <v>560066.3482053354</v>
       </c>
       <c r="O2" t="n">
-        <v>498930.7166946872</v>
+        <v>498930.7166946877</v>
       </c>
       <c r="P2" t="n">
         <v>209639.4407863205</v>
@@ -26375,25 +26375,25 @@
         <v>7992.559371635843</v>
       </c>
       <c r="F3" t="n">
-        <v>28315.89212450675</v>
+        <v>28315.89212450671</v>
       </c>
       <c r="G3" t="n">
-        <v>15693.04064618391</v>
+        <v>15693.04064618389</v>
       </c>
       <c r="H3" t="n">
-        <v>53935.02529691818</v>
+        <v>53935.02529691823</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11424.68399195751</v>
+        <v>11424.68399195746</v>
       </c>
       <c r="K3" t="n">
-        <v>68701.58333015699</v>
+        <v>68701.58333015704</v>
       </c>
       <c r="L3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415532.5557256226</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>85334.42219187052</v>
+        <v>84574.2650792069</v>
       </c>
       <c r="F4" t="n">
-        <v>126155.9019235305</v>
+        <v>125343.3820211386</v>
       </c>
       <c r="G4" t="n">
-        <v>138197.7607408218</v>
+        <v>137284.534263468</v>
       </c>
       <c r="H4" t="n">
-        <v>183736.0273306473</v>
+        <v>182552.7275690057</v>
       </c>
       <c r="I4" t="n">
-        <v>183736.0273306473</v>
+        <v>182552.7275690057</v>
       </c>
       <c r="J4" t="n">
-        <v>189927.2161990787</v>
+        <v>188743.9164374371</v>
       </c>
       <c r="K4" t="n">
-        <v>275031.9162557055</v>
+        <v>273848.6164940641</v>
       </c>
       <c r="L4" t="n">
-        <v>275031.9162557055</v>
+        <v>273848.6164940641</v>
       </c>
       <c r="M4" t="n">
-        <v>255434.9341710357</v>
+        <v>254251.6344093943</v>
       </c>
       <c r="N4" t="n">
-        <v>251350.2803855135</v>
+        <v>250210.7358317271</v>
       </c>
       <c r="O4" t="n">
-        <v>221872.6745502304</v>
+        <v>220830.9139339091</v>
       </c>
       <c r="P4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
     </row>
     <row r="5">
@@ -26479,22 +26479,22 @@
         <v>839.9080922675672</v>
       </c>
       <c r="F5" t="n">
-        <v>4601.807211551022</v>
+        <v>4601.807211551017</v>
       </c>
       <c r="G5" t="n">
-        <v>8082.978641173152</v>
+        <v>8082.978641173142</v>
       </c>
       <c r="H5" t="n">
-        <v>18881.87410415196</v>
+        <v>18881.87410415195</v>
       </c>
       <c r="I5" t="n">
-        <v>18881.87410415196</v>
+        <v>18881.87410415195</v>
       </c>
       <c r="J5" t="n">
-        <v>19242.54321003424</v>
+        <v>19242.54321003423</v>
       </c>
       <c r="K5" t="n">
-        <v>24257.94955661304</v>
+        <v>24257.94955661305</v>
       </c>
       <c r="L5" t="n">
         <v>24257.94955661305</v>
@@ -26506,7 +26506,7 @@
         <v>21516.12401850667</v>
       </c>
       <c r="O5" t="n">
-        <v>16834.3753907347</v>
+        <v>16834.37539073471</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>349634.2745234896</v>
+        <v>350394.4316361531</v>
       </c>
       <c r="C6" t="n">
-        <v>349634.27452349</v>
+        <v>350394.4316361538</v>
       </c>
       <c r="D6" t="n">
-        <v>349634.2745234896</v>
+        <v>350394.4316361534</v>
       </c>
       <c r="E6" t="n">
-        <v>140574.0168771657</v>
+        <v>141334.1739898293</v>
       </c>
       <c r="F6" t="n">
-        <v>151202.9998532122</v>
+        <v>152015.5197556039</v>
       </c>
       <c r="G6" t="n">
-        <v>179932.9210429843</v>
+        <v>180846.1475203377</v>
       </c>
       <c r="H6" t="n">
-        <v>193030.9240849765</v>
+        <v>194214.2238466177</v>
       </c>
       <c r="I6" t="n">
-        <v>246965.9493818947</v>
+        <v>248149.249143536</v>
       </c>
       <c r="J6" t="n">
-        <v>239551.7968472037</v>
+        <v>240735.0966088451</v>
       </c>
       <c r="K6" t="n">
-        <v>237318.4708592962</v>
+        <v>238501.7706209375</v>
       </c>
       <c r="L6" t="n">
-        <v>306020.0541894531</v>
+        <v>307203.3539510943</v>
       </c>
       <c r="M6" t="n">
-        <v>293384.4448519627</v>
+        <v>294567.7446136043</v>
       </c>
       <c r="N6" t="n">
-        <v>287199.9438013153</v>
+        <v>288339.4883551017</v>
       </c>
       <c r="O6" t="n">
-        <v>260223.6667537221</v>
+        <v>261265.4273700439</v>
       </c>
       <c r="P6" t="n">
-        <v>138999.4700782167</v>
+        <v>139759.6271908803</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="G2" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="H2" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="I2" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="J2" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="K2" t="n">
         <v>114.2428337776276</v>
@@ -26722,7 +26722,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="O2" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26802,7 +26802,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
-        <v>82.87640023446851</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26917,25 +26917,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>26.21876571209245</v>
+        <v>26.21876571209239</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>14.08499962498448</v>
+        <v>14.0849996249845</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>14.28085498994689</v>
+        <v>14.28085498994683</v>
       </c>
       <c r="K2" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27024,10 +27024,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
-        <v>57.25610903983767</v>
+        <v>57.25610903983758</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1378886431905</v>
+        <v>158.1378886431906</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>26.21876571209245</v>
+        <v>26.21876571209239</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>14.08499962498448</v>
+        <v>14.0849996249845</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14.28085498994689</v>
+        <v>14.28085498994683</v>
       </c>
       <c r="P2" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
     </row>
     <row r="3">
@@ -27270,10 +27270,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
-        <v>57.25610903983767</v>
+        <v>57.25610903983758</v>
       </c>
       <c r="P4" t="n">
-        <v>158.1378886431905</v>
+        <v>158.1378886431906</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="C14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="D14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="E14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="F14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="G14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="H14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="I14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="S14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="T14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="U14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="V14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="W14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="X14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="Y14" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="C15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="D15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="E15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="F15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="G15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="H15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="I15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="S15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="T15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="U15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="V15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="W15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="X15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="Y15" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="C16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="D16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="E16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="F16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="G16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="H16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="I16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="J16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28527,31 +28527,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="R16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="S16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="T16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="U16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="V16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="W16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="X16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="C17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="D17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="E17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="F17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="G17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="H17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="I17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="S17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="T17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="U17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="V17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="W17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="X17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="C18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="D18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="E18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="F18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="G18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="H18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="I18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="S18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="T18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="U18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="V18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="W18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="X18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="Y18" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="C19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="D19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="E19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="F19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="G19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="H19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="I19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="J19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="K19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="L19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="M19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="N19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="O19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="P19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="R19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="S19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="T19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="U19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="V19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="W19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="X19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
       <c r="Y19" t="n">
-        <v>36.20946492663725</v>
+        <v>36.2094649266372</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="C20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="D20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="E20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="F20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="G20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="H20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="I20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="S20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="T20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="U20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="V20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="W20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="X20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="C21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="D21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="E21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="F21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="G21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="H21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="I21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="S21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="T21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="U21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="V21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="W21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="X21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="Y21" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="C22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="D22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="E22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="F22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="G22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="H22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="I22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="J22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="K22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="L22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="M22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="N22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="O22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="P22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="R22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="S22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="T22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="U22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="V22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="W22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="X22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="C23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="D23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="E23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="F23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="G23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="H23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="I23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="S23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="T23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="U23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="V23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="W23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="X23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="C24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="D24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="E24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="F24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="G24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="H24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="I24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="S24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="T24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="U24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="V24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="W24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="X24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="Y24" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="C25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="D25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="E25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="F25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="G25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="H25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="I25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="J25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="K25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="L25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="M25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="N25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="O25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="P25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="R25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="S25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="T25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="U25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="V25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="W25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="X25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.29446455162173</v>
+        <v>50.2944645516217</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="C26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="D26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="E26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="F26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="G26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="H26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="I26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="S26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="T26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="U26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="V26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="W26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="X26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="Y26" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="C27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="D27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="E27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="F27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="G27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="H27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="I27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="S27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="T27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="U27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="V27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="W27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="X27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="Y27" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="C28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="D28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="E28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="F28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="G28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="H28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="I28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="J28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="K28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="L28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="M28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="N28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="O28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="P28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="R28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="S28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="T28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="U28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="V28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="W28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="X28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
       <c r="Y28" t="n">
-        <v>54.58462032702381</v>
+        <v>54.58462032702373</v>
       </c>
     </row>
     <row r="29">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="C41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="D41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="E41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="F41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="G41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="H41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="I41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="S41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="T41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="U41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="V41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="W41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="X41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="Y41" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="C42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="D42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="E42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="F42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="G42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="H42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="I42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="S42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="T42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="U42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="V42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="W42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="X42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="Y42" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="C43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="D43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="E43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="F43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="G43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="H43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="I43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="J43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="K43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="L43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="M43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="N43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="O43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="P43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="R43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="S43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="T43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="U43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="V43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="W43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="X43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.87697916269624</v>
+        <v>85.8769791626963</v>
       </c>
     </row>
     <row r="44">
@@ -35650,19 +35650,19 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="M14" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>25.62029119463083</v>
-      </c>
       <c r="P14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="O15" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>79.52785881085363</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="L17" t="n">
-        <v>82.87640023446851</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>79.52785881085352</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>82.87640023446851</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>82.87640023446851</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>9.432345161026067</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="N18" t="n">
-        <v>82.87640023446851</v>
+        <v>82.87640023446841</v>
       </c>
       <c r="O18" t="n">
-        <v>82.87640023446851</v>
+        <v>79.52785881085352</v>
       </c>
       <c r="P18" t="n">
-        <v>82.87640023446851</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>13.9399731007544</v>
+        <v>13.93997310075434</v>
       </c>
       <c r="L19" t="n">
-        <v>63.79949018695339</v>
+        <v>63.79949018695334</v>
       </c>
       <c r="M19" t="n">
-        <v>75.79334188847784</v>
+        <v>75.79334188847778</v>
       </c>
       <c r="N19" t="n">
-        <v>80.34163730586585</v>
+        <v>80.34163730586579</v>
       </c>
       <c r="O19" t="n">
-        <v>60.79459284067693</v>
+        <v>60.79459284067687</v>
       </c>
       <c r="P19" t="n">
-        <v>33.48802419153074</v>
+        <v>33.48802419153068</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36206,10 +36206,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>28.02497272573888</v>
+        <v>28.02497272573885</v>
       </c>
       <c r="L22" t="n">
-        <v>77.88448981193787</v>
+        <v>77.88448981193784</v>
       </c>
       <c r="M22" t="n">
-        <v>89.87834151346232</v>
+        <v>89.87834151346229</v>
       </c>
       <c r="N22" t="n">
-        <v>94.42663693085032</v>
+        <v>94.42663693085029</v>
       </c>
       <c r="O22" t="n">
-        <v>74.8795924656614</v>
+        <v>74.87959246566137</v>
       </c>
       <c r="P22" t="n">
-        <v>47.57302381651522</v>
+        <v>47.57302381651519</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>28.02497272573888</v>
+        <v>28.02497272573885</v>
       </c>
       <c r="L25" t="n">
-        <v>77.88448981193787</v>
+        <v>77.88448981193784</v>
       </c>
       <c r="M25" t="n">
-        <v>89.87834151346232</v>
+        <v>89.87834151346229</v>
       </c>
       <c r="N25" t="n">
-        <v>94.42663693085032</v>
+        <v>94.42663693085029</v>
       </c>
       <c r="O25" t="n">
-        <v>74.8795924656614</v>
+        <v>74.87959246566137</v>
       </c>
       <c r="P25" t="n">
-        <v>47.57302381651522</v>
+        <v>47.57302381651519</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>32.31512850114096</v>
+        <v>32.31512850114088</v>
       </c>
       <c r="L28" t="n">
-        <v>82.17464558733995</v>
+        <v>82.17464558733987</v>
       </c>
       <c r="M28" t="n">
-        <v>94.1684972888644</v>
+        <v>94.16849728886432</v>
       </c>
       <c r="N28" t="n">
-        <v>98.71679270625241</v>
+        <v>98.71679270625232</v>
       </c>
       <c r="O28" t="n">
-        <v>79.16974824106349</v>
+        <v>79.1697482410634</v>
       </c>
       <c r="P28" t="n">
-        <v>51.8631795919173</v>
+        <v>51.86317959191722</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M30" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.88365366095482</v>
+        <v>20.88365366095486</v>
       </c>
       <c r="K31" t="n">
-        <v>91.97334195174474</v>
+        <v>91.97334195174479</v>
       </c>
       <c r="L31" t="n">
-        <v>141.8328590379437</v>
+        <v>141.8328590379438</v>
       </c>
       <c r="M31" t="n">
         <v>153.8267107394682</v>
@@ -37008,7 +37008,7 @@
         <v>111.5213930425211</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.08079052593321</v>
+        <v>28.08079052593325</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37160,7 +37160,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>240.0046611659691</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.88365366095483</v>
+        <v>20.88365366095486</v>
       </c>
       <c r="K34" t="n">
-        <v>91.97334195174476</v>
+        <v>91.97334195174479</v>
       </c>
       <c r="L34" t="n">
         <v>141.8328590379438</v>
@@ -37245,7 +37245,7 @@
         <v>111.5213930425211</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.08079052593322</v>
+        <v>28.08079052593325</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,13 +37312,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37552,10 +37552,10 @@
         <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>110.2611618999926</v>
       </c>
       <c r="O38" t="n">
-        <v>53.02927092565796</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>167.5013327054491</v>
+        <v>40.87753466722953</v>
       </c>
       <c r="N39" t="n">
         <v>215.3939976830282</v>
@@ -37780,16 +37780,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>158.1378886431906</v>
       </c>
       <c r="M41" t="n">
-        <v>158.1378886431906</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>68.61868538696027</v>
+        <v>122.7010125039668</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>158.1378886431906</v>
@@ -37868,16 +37868,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>25.12468096282189</v>
+        <v>158.1378886431906</v>
       </c>
       <c r="O42" t="n">
-        <v>158.1378886431906</v>
+        <v>81.65296535121388</v>
       </c>
       <c r="P42" t="n">
         <v>158.1378886431906</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>63.60748733681339</v>
+        <v>63.60748733681345</v>
       </c>
       <c r="L43" t="n">
         <v>113.4670044230124</v>
       </c>
       <c r="M43" t="n">
-        <v>125.4608561245368</v>
+        <v>125.4608561245369</v>
       </c>
       <c r="N43" t="n">
-        <v>130.0091515419248</v>
+        <v>130.0091515419249</v>
       </c>
       <c r="O43" t="n">
-        <v>110.4621070767359</v>
+        <v>110.462107076736</v>
       </c>
       <c r="P43" t="n">
-        <v>83.15553842758973</v>
+        <v>83.15553842758979</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2159940.3154244</v>
+        <v>2105168.845951433</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2991110.189384289</v>
+        <v>2991464.741516111</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11031397.56869702</v>
+        <v>11028297.27000034</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5859754.735343557</v>
+        <v>5860148.603761374</v>
       </c>
     </row>
     <row r="11">
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>20.60776234416312</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I11" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.958590140067713</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="U12" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X12" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="R13" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="T13" t="n">
-        <v>22.56635248423083</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1612,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>22.34270410921874</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H14" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J14" t="n">
-        <v>1.958590140067713</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C15" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>27.59002526031614</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>104.0586068378896</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>95.59850805933044</v>
+        <v>96.03260467322917</v>
       </c>
       <c r="I17" t="n">
-        <v>103.8877519420777</v>
+        <v>104.0586068378896</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>99.79357579332925</v>
+        <v>99.6808230674736</v>
       </c>
       <c r="S17" t="n">
-        <v>103.8877519420777</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>50.34702758082572</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>97.36952341681832</v>
+        <v>97.25677069096267</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>104.0586068378896</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>62.15990208867603</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.32109070359465</v>
+        <v>39.20833797773899</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.0822920048227</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>104.0586068378896</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>59.24831907200112</v>
       </c>
       <c r="U18" t="n">
-        <v>103.8877519420777</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.85215298226781</v>
+        <v>104.0586068378896</v>
       </c>
       <c r="C19" t="n">
-        <v>103.8877519420777</v>
+        <v>104.0586068378896</v>
       </c>
       <c r="D19" t="n">
-        <v>98.53993087039193</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>35.97374837801829</v>
       </c>
       <c r="R19" t="n">
-        <v>103.8877519420777</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>104.0586068378896</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>55.68107252479486</v>
       </c>
     </row>
     <row r="20">
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>120.3651210545464</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>120.3651210545464</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>88.91962176624554</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>17.09797685859891</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>120.1942661587345</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>120.1942661587345</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>120.1942661587345</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>105.8671096326133</v>
+        <v>120.3651210545464</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>105.6964402008189</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>110.8464276547893</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>9.518507935739576</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>120.3651210545464</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>120.1942661587345</v>
+        <v>120.3651210545464</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>120.3651210545464</v>
       </c>
       <c r="Y21" t="n">
-        <v>120.1942661587345</v>
+        <v>106.0175986248444</v>
       </c>
     </row>
     <row r="22">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.9952367328888</v>
+        <v>61.5606278070014</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>87.66597684330821</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>107.1542359094103</v>
+        <v>107.0414831835546</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>94.50097875235414</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.649521379662181</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>116.456647928121</v>
+        <v>116.3438952022653</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>120.1942661587345</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U23" t="n">
-        <v>161.9490200564214</v>
+        <v>18.42527926482897</v>
       </c>
       <c r="V23" t="n">
-        <v>238.3556256187198</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>52.99502884595981</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>23.29208448227337</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>110.7680958434065</v>
+        <v>8.883107236972883</v>
       </c>
       <c r="U24" t="n">
         <v>136.5447492295597</v>
@@ -2462,7 +2462,7 @@
         <v>162.2983503095045</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y24" t="n">
         <v>116.2860629258893</v>
@@ -2484,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>57.03732979515409</v>
+        <v>0.4403173418860655</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G25" t="n">
-        <v>55.03233708725011</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V25" t="n">
         <v>162.7410104724129</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C27" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>82.28653825242274</v>
       </c>
       <c r="T27" t="n">
-        <v>110.7680958434065</v>
+        <v>100.9956941105182</v>
       </c>
       <c r="U27" t="n">
         <v>136.5447492295597</v>
@@ -2702,7 +2702,7 @@
         <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
-        <v>89.5771445533244</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="28">
@@ -2715,28 +2715,28 @@
         <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D28" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>78.59434650704368</v>
+        <v>3.898577586743739</v>
       </c>
       <c r="H28" t="n">
         <v>72.8305396560245</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.947979644039369</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>50.33636558702055</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>78.89776435456365</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>71.2714921552892</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
         <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>81.40223971400061</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>110.7680958434065</v>
@@ -2933,7 +2933,7 @@
         <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>162.2983503095045</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>116.3763523520624</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>77.85018824721276</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>14.7258004565522</v>
       </c>
       <c r="U31" t="n">
         <v>196.9223965050758</v>
@@ -3012,7 +3012,7 @@
         <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
-        <v>56.134646073088</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>227.5944243174918</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>225.7052502036094</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>162.5741018549355</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>66.37534949722421</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>72.55066483567261</v>
@@ -3116,7 +3116,7 @@
         <v>47.28723141199562</v>
       </c>
       <c r="E33" t="n">
-        <v>57.48724630275781</v>
+        <v>12.28293762637839</v>
       </c>
       <c r="F33" t="n">
         <v>44.91137824074075</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>71.52533695119469</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>100.0068945421785</v>
       </c>
       <c r="U33" t="n">
-        <v>75.32130580031537</v>
+        <v>125.7835479283317</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>132.6427529967821</v>
       </c>
       <c r="W33" t="n">
         <v>151.5371490082765</v>
@@ -3195,19 +3195,19 @@
         <v>48.45763886556922</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F34" t="n">
         <v>45.26321387028811</v>
       </c>
       <c r="G34" t="n">
-        <v>67.83314520581563</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>62.06933835479644</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>186.3651641839479</v>
+        <v>122.6698180913401</v>
       </c>
       <c r="X34" t="n">
-        <v>42.88369692790211</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.4268191994517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="E35" t="n">
-        <v>189.7190331592112</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>70.09559642438091</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>83.31186613690066</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E36" t="n">
         <v>68.24844760398587</v>
       </c>
       <c r="F36" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H36" t="n">
         <v>22.83881138508139</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>17.14186417184233</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>133.7320051544507</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W36" t="n">
         <v>162.2983503095045</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.89272044819319</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>7.419621357694062</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>66.05384207584321</v>
       </c>
       <c r="J37" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U37" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>213.4242636173429</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>100.7994113929656</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.0323744921012</v>
+        <v>88.91962176624554</v>
       </c>
       <c r="S38" t="n">
-        <v>98.95171690205437</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>95.95670957137902</v>
+        <v>111.7590028134116</v>
       </c>
       <c r="D39" t="n">
-        <v>86.60832211559027</v>
+        <v>86.49556938973461</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>84.11971621847974</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>76.39402098830649</v>
       </c>
       <c r="H39" t="n">
-        <v>51.39870078744798</v>
+        <v>30.92035528101405</v>
       </c>
       <c r="I39" t="n">
-        <v>28.55988940236659</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>110.8464276547893</v>
+        <v>110.7336749289337</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>165.1046386319263</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>190.7454869860155</v>
       </c>
       <c r="X39" t="n">
-        <v>144.936241754429</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>144.8459523282559</v>
+        <v>144.7331996024002</v>
       </c>
     </row>
     <row r="40">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>118.8824840070332</v>
       </c>
       <c r="C40" t="n">
-        <v>106.4100776495793</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>85.48446647166503</v>
       </c>
       <c r="F40" t="n">
-        <v>84.58430457388276</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>107.0414831835546</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>116.456647928121</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>155.7045281262308</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>158.9988779572338</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.1265369355814</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>120.78105373286</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>136.9556820397694</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>136.9556820397694</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>136.9556820397694</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>137.1265369355814</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>137.1265369355814</v>
+        <v>120.6305647406289</v>
       </c>
     </row>
     <row r="42">
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>106.7990362208973</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>94.2231681588802</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>86.49747292870696</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>61.38940000199278</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>38.5505886169114</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,19 +3872,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>120.6305647406289</v>
       </c>
       <c r="U42" t="n">
-        <v>137.1265369355814</v>
+        <v>136.9556820397694</v>
       </c>
       <c r="V42" t="n">
-        <v>7.5744616766341</v>
+        <v>136.9556820397694</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>136.9556820397694</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>112.7175666530801</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>116.2880241382685</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>95.58791841206549</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>111.3811282729359</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.5131358821691</v>
+        <v>42.40038315631343</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.31599901719071</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>122.9004207234035</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>136.9556820397694</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>106.4182760108288</v>
+        <v>120.6491678231126</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>120.6491678231126</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>120.6491678231126</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>106.2677870185976</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>120.8200227189246</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>120.8200227189246</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>120.8200227189246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>115.574386689508</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>120.6491678231126</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4067,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>94.2231681588802</v>
+        <v>62.1435309599184</v>
       </c>
       <c r="G45" t="n">
-        <v>86.49747292870696</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>38.5505886169114</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.19903719228379</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>120.6491678231126</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>120.8200227189246</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>120.8200227189246</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>7.96706902525483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>117.0321823980994</v>
       </c>
       <c r="H46" t="n">
-        <v>61.45412617716091</v>
+        <v>66.18862779932044</v>
       </c>
       <c r="I46" t="n">
-        <v>104.6044306927546</v>
+        <v>104.4916779668989</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>120.8200227189246</v>
+        <v>120.6491678231126</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8200227189246</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C11" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D11" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E11" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F11" t="n">
-        <v>27.92870531034908</v>
+        <v>81.6652432187626</v>
       </c>
       <c r="G11" t="n">
-        <v>27.92870531034908</v>
+        <v>55.78616120398398</v>
       </c>
       <c r="H11" t="n">
-        <v>27.92870531034908</v>
+        <v>29.90707918920536</v>
       </c>
       <c r="I11" t="n">
-        <v>2.049623295570466</v>
+        <v>4.027997174426742</v>
       </c>
       <c r="J11" t="n">
         <v>2.049623295570466</v>
@@ -5047,10 +5047,10 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>27.41371157825499</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M11" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N11" t="n">
         <v>77.1170764958388</v>
@@ -5065,28 +5065,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S11" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T11" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U11" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V11" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W11" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X11" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.92870531034908</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="12">
@@ -5129,37 +5129,37 @@
         <v>27.41371157825499</v>
       </c>
       <c r="M12" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N12" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O12" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P12" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q12" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T12" t="n">
         <v>76.6020827637447</v>
       </c>
       <c r="U12" t="n">
-        <v>50.72300074896609</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V12" t="n">
         <v>50.72300074896609</v>
       </c>
       <c r="W12" t="n">
-        <v>50.72300074896609</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X12" t="n">
         <v>27.92870531034908</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H13" t="n">
         <v>2.049623295570466</v>
@@ -5223,28 +5223,28 @@
         <v>76.6020827637447</v>
       </c>
       <c r="R13" t="n">
+        <v>76.6020827637447</v>
+      </c>
+      <c r="S13" t="n">
         <v>50.72300074896609</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>24.84391873418747</v>
       </c>
-      <c r="T13" t="n">
-        <v>2.049623295570466</v>
-      </c>
       <c r="U13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.62267627294912</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C14" t="n">
-        <v>54.62267627294912</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D14" t="n">
-        <v>32.05428828383928</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E14" t="n">
-        <v>32.05428828383928</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F14" t="n">
-        <v>32.05428828383928</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G14" t="n">
-        <v>32.05428828383928</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H14" t="n">
-        <v>4.185575899681568</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I14" t="n">
-        <v>4.185575899681568</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J14" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L14" t="n">
-        <v>29.52132702853827</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M14" t="n">
-        <v>56.83545203625125</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N14" t="n">
-        <v>56.83545203625125</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O14" t="n">
-        <v>84.14957704396423</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P14" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T14" t="n">
-        <v>54.62267627294912</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U14" t="n">
-        <v>54.62267627294912</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V14" t="n">
-        <v>54.62267627294912</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W14" t="n">
-        <v>54.62267627294912</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X14" t="n">
-        <v>54.62267627294912</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y14" t="n">
-        <v>54.62267627294912</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.7539638887914</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C15" t="n">
-        <v>2.207202020825291</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D15" t="n">
-        <v>2.207202020825291</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E15" t="n">
-        <v>2.207202020825291</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F15" t="n">
-        <v>2.207202020825291</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G15" t="n">
-        <v>2.207202020825291</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H15" t="n">
-        <v>2.207202020825291</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I15" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J15" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>29.52132702853827</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L15" t="n">
-        <v>56.83545203625125</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M15" t="n">
-        <v>83.04597603355158</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N15" t="n">
-        <v>110.3601010412646</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O15" t="n">
-        <v>110.3601010412646</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P15" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>54.62267627294912</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U15" t="n">
-        <v>54.62267627294912</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V15" t="n">
-        <v>54.62267627294912</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W15" t="n">
-        <v>54.62267627294912</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X15" t="n">
-        <v>54.62267627294912</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y15" t="n">
-        <v>26.7539638887914</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.49138865710684</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C16" t="n">
-        <v>82.49138865710684</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D16" t="n">
-        <v>82.49138865710684</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E16" t="n">
-        <v>82.49138865710684</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F16" t="n">
-        <v>82.49138865710684</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G16" t="n">
-        <v>82.49138865710684</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H16" t="n">
-        <v>57.94462678914073</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="I16" t="n">
-        <v>30.07591440498301</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="J16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L16" t="n">
-        <v>29.52132702853827</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M16" t="n">
-        <v>56.83545203625125</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>84.14957704396423</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
-        <v>108.4888536788635</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.49138865710684</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R16" t="n">
-        <v>82.49138865710684</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="S16" t="n">
-        <v>82.49138865710684</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T16" t="n">
-        <v>82.49138865710684</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U16" t="n">
-        <v>82.49138865710684</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V16" t="n">
-        <v>82.49138865710684</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W16" t="n">
-        <v>82.49138865710684</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X16" t="n">
-        <v>82.49138865710684</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y16" t="n">
-        <v>82.49138865710684</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>209.8122928840613</v>
+        <v>315.5467272834033</v>
       </c>
       <c r="C17" t="n">
-        <v>209.8122928840613</v>
+        <v>315.5467272834033</v>
       </c>
       <c r="D17" t="n">
-        <v>209.8122928840613</v>
+        <v>315.5467272834033</v>
       </c>
       <c r="E17" t="n">
-        <v>209.8122928840613</v>
+        <v>315.5467272834033</v>
       </c>
       <c r="F17" t="n">
-        <v>209.8122928840613</v>
+        <v>210.4370234067471</v>
       </c>
       <c r="G17" t="n">
-        <v>209.8122928840613</v>
+        <v>210.4370234067471</v>
       </c>
       <c r="H17" t="n">
-        <v>113.2481433291821</v>
+        <v>113.4343924236874</v>
       </c>
       <c r="I17" t="n">
-        <v>8.311020155366217</v>
+        <v>8.324688547031169</v>
       </c>
       <c r="J17" t="n">
-        <v>8.311020155366217</v>
+        <v>8.324688547031169</v>
       </c>
       <c r="K17" t="n">
-        <v>111.1598945780231</v>
+        <v>8.324688547031169</v>
       </c>
       <c r="L17" t="n">
-        <v>214.00876900068</v>
+        <v>111.3427093165419</v>
       </c>
       <c r="M17" t="n">
-        <v>316.857643423337</v>
+        <v>120.5383305204861</v>
       </c>
       <c r="N17" t="n">
-        <v>316.857643423337</v>
+        <v>223.5563512899968</v>
       </c>
       <c r="O17" t="n">
-        <v>325.8909524762598</v>
+        <v>326.5743720595075</v>
       </c>
       <c r="P17" t="n">
-        <v>415.5510077683108</v>
+        <v>416.2344273515585</v>
       </c>
       <c r="Q17" t="n">
-        <v>415.5510077683108</v>
+        <v>416.2344273515585</v>
       </c>
       <c r="R17" t="n">
-        <v>314.7494160578772</v>
+        <v>315.5467272834033</v>
       </c>
       <c r="S17" t="n">
-        <v>209.8122928840613</v>
+        <v>315.5467272834033</v>
       </c>
       <c r="T17" t="n">
-        <v>209.8122928840613</v>
+        <v>315.5467272834033</v>
       </c>
       <c r="U17" t="n">
-        <v>209.8122928840613</v>
+        <v>315.5467272834033</v>
       </c>
       <c r="V17" t="n">
-        <v>209.8122928840613</v>
+        <v>315.5467272834033</v>
       </c>
       <c r="W17" t="n">
-        <v>209.8122928840613</v>
+        <v>315.5467272834033</v>
       </c>
       <c r="X17" t="n">
-        <v>209.8122928840613</v>
+        <v>315.5467272834033</v>
       </c>
       <c r="Y17" t="n">
-        <v>209.8122928840613</v>
+        <v>315.5467272834033</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>260.0257108522498</v>
+        <v>251.277936533487</v>
       </c>
       <c r="C18" t="n">
-        <v>209.1701274372743</v>
+        <v>251.277936533487</v>
       </c>
       <c r="D18" t="n">
-        <v>110.8170734808922</v>
+        <v>153.0387742193833</v>
       </c>
       <c r="E18" t="n">
-        <v>110.8170734808922</v>
+        <v>47.92907034272712</v>
       </c>
       <c r="F18" t="n">
-        <v>110.8170734808922</v>
+        <v>47.92907034272712</v>
       </c>
       <c r="G18" t="n">
-        <v>110.8170734808922</v>
+        <v>47.92907034272712</v>
       </c>
       <c r="H18" t="n">
-        <v>48.02929359334061</v>
+        <v>47.92907034272712</v>
       </c>
       <c r="I18" t="n">
-        <v>8.311020155366217</v>
+        <v>8.324688547031169</v>
       </c>
       <c r="J18" t="n">
-        <v>8.311020155366217</v>
+        <v>8.324688547031169</v>
       </c>
       <c r="K18" t="n">
-        <v>111.1598945780231</v>
+        <v>8.324688547031169</v>
       </c>
       <c r="L18" t="n">
-        <v>214.00876900068</v>
+        <v>8.324688547031169</v>
       </c>
       <c r="M18" t="n">
-        <v>316.857643423337</v>
+        <v>111.3427093165419</v>
       </c>
       <c r="N18" t="n">
-        <v>316.857643423337</v>
+        <v>140.8038272992077</v>
       </c>
       <c r="O18" t="n">
-        <v>346.1564492549815</v>
+        <v>243.8218480687185</v>
       </c>
       <c r="P18" t="n">
-        <v>346.1564492549815</v>
+        <v>346.8398688382292</v>
       </c>
       <c r="Q18" t="n">
-        <v>415.5510077683108</v>
+        <v>416.2344273515585</v>
       </c>
       <c r="R18" t="n">
-        <v>364.9628340260657</v>
+        <v>416.2344273515585</v>
       </c>
       <c r="S18" t="n">
-        <v>364.9628340260657</v>
+        <v>311.1247234749023</v>
       </c>
       <c r="T18" t="n">
-        <v>364.9628340260657</v>
+        <v>251.277936533487</v>
       </c>
       <c r="U18" t="n">
-        <v>260.0257108522498</v>
+        <v>251.277936533487</v>
       </c>
       <c r="V18" t="n">
-        <v>260.0257108522498</v>
+        <v>251.277936533487</v>
       </c>
       <c r="W18" t="n">
-        <v>260.0257108522498</v>
+        <v>251.277936533487</v>
       </c>
       <c r="X18" t="n">
-        <v>260.0257108522498</v>
+        <v>251.277936533487</v>
       </c>
       <c r="Y18" t="n">
-        <v>260.0257108522498</v>
+        <v>251.277936533487</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>212.7834270366487</v>
+        <v>113.4343924236874</v>
       </c>
       <c r="C19" t="n">
-        <v>107.8463038628328</v>
+        <v>8.324688547031169</v>
       </c>
       <c r="D19" t="n">
-        <v>8.311020155366217</v>
+        <v>8.324688547031169</v>
       </c>
       <c r="E19" t="n">
-        <v>8.311020155366217</v>
+        <v>8.324688547031169</v>
       </c>
       <c r="F19" t="n">
-        <v>8.311020155366217</v>
+        <v>8.324688547031169</v>
       </c>
       <c r="G19" t="n">
-        <v>8.311020155366217</v>
+        <v>8.324688547031169</v>
       </c>
       <c r="H19" t="n">
-        <v>8.311020155366217</v>
+        <v>8.324688547031169</v>
       </c>
       <c r="I19" t="n">
-        <v>8.311020155366217</v>
+        <v>8.324688547031169</v>
       </c>
       <c r="J19" t="n">
-        <v>8.311020155366217</v>
+        <v>8.324688547031169</v>
       </c>
       <c r="K19" t="n">
-        <v>35.83900997408443</v>
+        <v>35.96430356434652</v>
       </c>
       <c r="L19" t="n">
-        <v>112.7279217081396</v>
+        <v>112.9648404969988</v>
       </c>
       <c r="M19" t="n">
-        <v>201.490746626704</v>
+        <v>201.8392906141603</v>
       </c>
       <c r="N19" t="n">
-        <v>294.7563840084825</v>
+        <v>295.2165531945359</v>
       </c>
       <c r="O19" t="n">
-        <v>368.670447369724</v>
+        <v>369.2422417543746</v>
       </c>
       <c r="P19" t="n">
-        <v>415.5510077683108</v>
+        <v>416.2344273515585</v>
       </c>
       <c r="Q19" t="n">
-        <v>415.5510077683108</v>
+        <v>379.8973077778026</v>
       </c>
       <c r="R19" t="n">
-        <v>310.6138845944949</v>
+        <v>379.8973077778026</v>
       </c>
       <c r="S19" t="n">
-        <v>310.6138845944949</v>
+        <v>379.8973077778026</v>
       </c>
       <c r="T19" t="n">
-        <v>310.6138845944949</v>
+        <v>379.8973077778026</v>
       </c>
       <c r="U19" t="n">
-        <v>310.6138845944949</v>
+        <v>379.8973077778026</v>
       </c>
       <c r="V19" t="n">
-        <v>310.6138845944949</v>
+        <v>274.7876039011464</v>
       </c>
       <c r="W19" t="n">
-        <v>310.6138845944949</v>
+        <v>274.7876039011464</v>
       </c>
       <c r="X19" t="n">
-        <v>310.6138845944949</v>
+        <v>274.7876039011464</v>
       </c>
       <c r="Y19" t="n">
-        <v>310.6138845944949</v>
+        <v>218.5440963003435</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.61554129269876</v>
+        <v>252.7910704006191</v>
       </c>
       <c r="C20" t="n">
-        <v>9.61554129269876</v>
+        <v>252.7910704006191</v>
       </c>
       <c r="D20" t="n">
-        <v>9.61554129269876</v>
+        <v>252.7910704006191</v>
       </c>
       <c r="E20" t="n">
-        <v>9.61554129269876</v>
+        <v>252.7910704006191</v>
       </c>
       <c r="F20" t="n">
-        <v>9.61554129269876</v>
+        <v>131.2101400424914</v>
       </c>
       <c r="G20" t="n">
-        <v>9.61554129269876</v>
+        <v>9.629209684363714</v>
       </c>
       <c r="H20" t="n">
-        <v>9.61554129269876</v>
+        <v>9.629209684363714</v>
       </c>
       <c r="I20" t="n">
-        <v>9.61554129269876</v>
+        <v>9.629209684363714</v>
       </c>
       <c r="J20" t="n">
-        <v>9.61554129269876</v>
+        <v>9.629209684363714</v>
       </c>
       <c r="K20" t="n">
-        <v>34.14003885144558</v>
+        <v>112.6442155952861</v>
       </c>
       <c r="L20" t="n">
-        <v>34.14003885144558</v>
+        <v>231.805685439287</v>
       </c>
       <c r="M20" t="n">
-        <v>153.1323623485927</v>
+        <v>350.967155283288</v>
       </c>
       <c r="N20" t="n">
-        <v>272.1246858457399</v>
+        <v>350.967155283288</v>
       </c>
       <c r="O20" t="n">
-        <v>391.117009342887</v>
+        <v>470.128625127289</v>
       </c>
       <c r="P20" t="n">
-        <v>480.777064634938</v>
+        <v>481.4604842181857</v>
       </c>
       <c r="Q20" t="n">
-        <v>480.777064634938</v>
+        <v>481.4604842181857</v>
       </c>
       <c r="R20" t="n">
-        <v>480.777064634938</v>
+        <v>391.6426844543013</v>
       </c>
       <c r="S20" t="n">
-        <v>480.777064634938</v>
+        <v>391.6426844543013</v>
       </c>
       <c r="T20" t="n">
-        <v>480.777064634938</v>
+        <v>374.3720007587468</v>
       </c>
       <c r="U20" t="n">
-        <v>480.777064634938</v>
+        <v>374.3720007587468</v>
       </c>
       <c r="V20" t="n">
-        <v>359.3687149796506</v>
+        <v>374.3720007587468</v>
       </c>
       <c r="W20" t="n">
-        <v>237.9603653243632</v>
+        <v>374.3720007587468</v>
       </c>
       <c r="X20" t="n">
-        <v>116.5520156690758</v>
+        <v>374.3720007587468</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.61554129269876</v>
+        <v>252.7910704006191</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.61554129269876</v>
+        <v>9.629209684363714</v>
       </c>
       <c r="C21" t="n">
-        <v>9.61554129269876</v>
+        <v>9.629209684363714</v>
       </c>
       <c r="D21" t="n">
-        <v>9.61554129269876</v>
+        <v>9.629209684363714</v>
       </c>
       <c r="E21" t="n">
-        <v>9.61554129269876</v>
+        <v>9.629209684363714</v>
       </c>
       <c r="F21" t="n">
-        <v>9.61554129269876</v>
+        <v>9.629209684363714</v>
       </c>
       <c r="G21" t="n">
-        <v>9.61554129269876</v>
+        <v>9.629209684363714</v>
       </c>
       <c r="H21" t="n">
-        <v>9.61554129269876</v>
+        <v>9.629209684363714</v>
       </c>
       <c r="I21" t="n">
-        <v>9.61554129269876</v>
+        <v>9.629209684363714</v>
       </c>
       <c r="J21" t="n">
-        <v>9.61554129269876</v>
+        <v>9.629209684363714</v>
       </c>
       <c r="K21" t="n">
-        <v>128.6078647898459</v>
+        <v>128.7906795283647</v>
       </c>
       <c r="L21" t="n">
-        <v>247.600188286993</v>
+        <v>247.9521493723656</v>
       </c>
       <c r="M21" t="n">
-        <v>366.5925117841402</v>
+        <v>362.2990143741847</v>
       </c>
       <c r="N21" t="n">
-        <v>480.777064634938</v>
+        <v>362.2990143741847</v>
       </c>
       <c r="O21" t="n">
-        <v>480.777064634938</v>
+        <v>481.4604842181857</v>
       </c>
       <c r="P21" t="n">
-        <v>480.777064634938</v>
+        <v>481.4604842181857</v>
       </c>
       <c r="Q21" t="n">
-        <v>480.777064634938</v>
+        <v>481.4604842181857</v>
       </c>
       <c r="R21" t="n">
-        <v>480.777064634938</v>
+        <v>481.4604842181857</v>
       </c>
       <c r="S21" t="n">
-        <v>368.8109760947467</v>
+        <v>481.4604842181857</v>
       </c>
       <c r="T21" t="n">
-        <v>359.1963216142017</v>
+        <v>481.4604842181857</v>
       </c>
       <c r="U21" t="n">
-        <v>359.1963216142017</v>
+        <v>359.879553860058</v>
       </c>
       <c r="V21" t="n">
-        <v>359.1963216142017</v>
+        <v>359.879553860058</v>
       </c>
       <c r="W21" t="n">
-        <v>237.7879719589143</v>
+        <v>238.2986235019303</v>
       </c>
       <c r="X21" t="n">
-        <v>237.7879719589143</v>
+        <v>116.7176931438025</v>
       </c>
       <c r="Y21" t="n">
-        <v>116.3796223036269</v>
+        <v>9.629209684363714</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>117.852143221396</v>
+        <v>301.7589458249869</v>
       </c>
       <c r="C22" t="n">
-        <v>117.852143221396</v>
+        <v>301.7589458249869</v>
       </c>
       <c r="D22" t="n">
-        <v>117.852143221396</v>
+        <v>213.2074540640695</v>
       </c>
       <c r="E22" t="n">
-        <v>117.852143221396</v>
+        <v>213.2074540640695</v>
       </c>
       <c r="F22" t="n">
-        <v>117.852143221396</v>
+        <v>213.2074540640695</v>
       </c>
       <c r="G22" t="n">
-        <v>9.61554129269876</v>
+        <v>105.0847437776507</v>
       </c>
       <c r="H22" t="n">
-        <v>9.61554129269876</v>
+        <v>105.0847437776507</v>
       </c>
       <c r="I22" t="n">
-        <v>9.61554129269876</v>
+        <v>9.629209684363714</v>
       </c>
       <c r="J22" t="n">
-        <v>9.61554129269876</v>
+        <v>9.629209684363714</v>
       </c>
       <c r="K22" t="n">
-        <v>47.79712039963275</v>
+        <v>47.92241398989484</v>
       </c>
       <c r="L22" t="n">
-        <v>135.3396214219037</v>
+        <v>135.5765402107629</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7560356286838</v>
+        <v>235.1045796161403</v>
       </c>
       <c r="N22" t="n">
-        <v>338.6752622986781</v>
+        <v>339.1354314847316</v>
       </c>
       <c r="O22" t="n">
-        <v>423.2429149481354</v>
+        <v>423.814709332786</v>
       </c>
       <c r="P22" t="n">
-        <v>480.777064634938</v>
+        <v>481.4604842181857</v>
       </c>
       <c r="Q22" t="n">
-        <v>477.090679402956</v>
+        <v>481.4604842181857</v>
       </c>
       <c r="R22" t="n">
-        <v>359.4577016977832</v>
+        <v>363.9413981552914</v>
       </c>
       <c r="S22" t="n">
-        <v>359.4577016977832</v>
+        <v>363.9413981552914</v>
       </c>
       <c r="T22" t="n">
-        <v>238.0493520424959</v>
+        <v>363.9413981552914</v>
       </c>
       <c r="U22" t="n">
-        <v>238.0493520424959</v>
+        <v>363.9413981552914</v>
       </c>
       <c r="V22" t="n">
-        <v>238.0493520424959</v>
+        <v>363.9413981552914</v>
       </c>
       <c r="W22" t="n">
-        <v>238.0493520424959</v>
+        <v>363.9413981552914</v>
       </c>
       <c r="X22" t="n">
-        <v>238.0493520424959</v>
+        <v>363.9413981552914</v>
       </c>
       <c r="Y22" t="n">
-        <v>238.0493520424959</v>
+        <v>363.9413981552914</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>628.4809759125451</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>628.4809759125451</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>628.4809759125451</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>385.032199268445</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>385.032199268445</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>385.032199268445</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>141.5834226243449</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>782.1420829605706</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>647.092369109342</v>
       </c>
       <c r="U23" t="n">
-        <v>800.4722867667762</v>
+        <v>628.4809759125451</v>
       </c>
       <c r="V23" t="n">
-        <v>559.709028566049</v>
+        <v>628.4809759125451</v>
       </c>
       <c r="W23" t="n">
-        <v>559.709028566049</v>
+        <v>628.4809759125451</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>628.4809759125451</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>628.4809759125451</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>126.9619013113986</v>
+        <v>195.4418755606854</v>
       </c>
       <c r="C24" t="n">
-        <v>42.80850117311512</v>
+        <v>111.2884754224019</v>
       </c>
       <c r="D24" t="n">
-        <v>42.80850117311512</v>
+        <v>111.2884754224019</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6077,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>880.9394401041486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>769.0524746057582</v>
+        <v>955.0843199177343</v>
       </c>
       <c r="U24" t="n">
-        <v>631.1284854849908</v>
+        <v>817.1603307969669</v>
       </c>
       <c r="V24" t="n">
-        <v>486.2760063960916</v>
+        <v>672.3078517080678</v>
       </c>
       <c r="W24" t="n">
-        <v>322.3382788107335</v>
+        <v>508.3701241227096</v>
       </c>
       <c r="X24" t="n">
-        <v>322.3382788107335</v>
+        <v>390.8182530600203</v>
       </c>
       <c r="Y24" t="n">
-        <v>204.8776091886231</v>
+        <v>273.3575834379099</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.482826829813</v>
+        <v>299.994282521901</v>
       </c>
       <c r="C25" t="n">
-        <v>132.482826829813</v>
+        <v>299.994282521901</v>
       </c>
       <c r="D25" t="n">
-        <v>132.482826829813</v>
+        <v>299.994282521901</v>
       </c>
       <c r="E25" t="n">
-        <v>74.86936239026335</v>
+        <v>299.5495175300969</v>
       </c>
       <c r="F25" t="n">
-        <v>74.86936239026335</v>
+        <v>242.95919917503</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>163.5709703800364</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>90.00476870728434</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>23.28371610542252</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
@@ -6171,28 +6171,28 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R25" t="n">
-        <v>574.5060486347639</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="S25" t="n">
-        <v>574.5060486347639</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="T25" t="n">
-        <v>434.5576076480302</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="U25" t="n">
-        <v>434.5576076480302</v>
+        <v>464.3791415849444</v>
       </c>
       <c r="V25" t="n">
-        <v>270.1727485849868</v>
+        <v>299.994282521901</v>
       </c>
       <c r="W25" t="n">
-        <v>270.1727485849868</v>
+        <v>299.994282521901</v>
       </c>
       <c r="X25" t="n">
-        <v>132.482826829813</v>
+        <v>299.994282521901</v>
       </c>
       <c r="Y25" t="n">
-        <v>132.482826829813</v>
+        <v>299.994282521901</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
         <v>262.7299197543128</v>
@@ -6214,7 +6214,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6268,10 +6268,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>103.4345432484962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
         <v>19.28114311021272</v>
@@ -6311,46 +6311,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>870.0695397998778</v>
+        <v>880.9394401041486</v>
       </c>
       <c r="T27" t="n">
-        <v>758.1825743014874</v>
+        <v>778.9235874672615</v>
       </c>
       <c r="U27" t="n">
-        <v>620.25858518072</v>
+        <v>640.9995983464942</v>
       </c>
       <c r="V27" t="n">
-        <v>475.4061060918208</v>
+        <v>496.147119257595</v>
       </c>
       <c r="W27" t="n">
-        <v>311.4683785064627</v>
+        <v>332.2093916722369</v>
       </c>
       <c r="X27" t="n">
-        <v>193.9165074437734</v>
+        <v>214.6575206095476</v>
       </c>
       <c r="Y27" t="n">
-        <v>103.4345432484962</v>
+        <v>97.19685098743723</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>232.0525838474506</v>
+        <v>303.7589457629764</v>
       </c>
       <c r="C28" t="n">
-        <v>232.0525838474506</v>
+        <v>225.122391977913</v>
       </c>
       <c r="D28" t="n">
-        <v>172.2355735779584</v>
+        <v>225.122391977913</v>
       </c>
       <c r="E28" t="n">
-        <v>172.2355735779584</v>
+        <v>167.5089275383634</v>
       </c>
       <c r="F28" t="n">
-        <v>172.2355735779584</v>
+        <v>167.5089275383634</v>
       </c>
       <c r="G28" t="n">
-        <v>92.84734478296475</v>
+        <v>163.5709703800364</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>90.00476870728434</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>23.28371610542252</v>
       </c>
       <c r="J28" t="n">
         <v>19.28114311021272</v>
@@ -6411,25 +6411,25 @@
         <v>663.2906532062331</v>
       </c>
       <c r="S28" t="n">
-        <v>527.3108903925389</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="T28" t="n">
-        <v>527.3108903925389</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="U28" t="n">
-        <v>328.3993787712502</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="V28" t="n">
-        <v>328.3993787712502</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="W28" t="n">
-        <v>328.3993787712502</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="X28" t="n">
-        <v>328.3993787712502</v>
+        <v>525.6007314510592</v>
       </c>
       <c r="Y28" t="n">
-        <v>323.4014195348468</v>
+        <v>395.1077814503726</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>557.023510122676</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="C29" t="n">
-        <v>557.023510122676</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>464.7269107377012</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>221.2781340936011</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>141.5834226243449</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>843.2254012330299</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="U29" t="n">
-        <v>800.4722867667762</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="V29" t="n">
-        <v>800.4722867667762</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="W29" t="n">
-        <v>800.4722867667762</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="X29" t="n">
-        <v>800.4722867667762</v>
+        <v>708.1756873818013</v>
       </c>
       <c r="Y29" t="n">
-        <v>800.4722867667762</v>
+        <v>708.1756873818013</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.21896897282471</v>
+        <v>251.519874596045</v>
       </c>
       <c r="C30" t="n">
-        <v>88.21896897282471</v>
+        <v>251.519874596045</v>
       </c>
       <c r="D30" t="n">
-        <v>88.21896897282471</v>
+        <v>192.8850940776372</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>123.9472682150252</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>67.7123393847537</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
         <v>725.4530095217538</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>953.1872552063654</v>
       </c>
       <c r="S30" t="n">
-        <v>881.8326709510396</v>
+        <v>953.1872552063654</v>
       </c>
       <c r="T30" t="n">
-        <v>769.9457054526492</v>
+        <v>841.300289707975</v>
       </c>
       <c r="U30" t="n">
-        <v>632.0217163318819</v>
+        <v>703.3763005872077</v>
       </c>
       <c r="V30" t="n">
-        <v>487.1692372429826</v>
+        <v>558.5238214983085</v>
       </c>
       <c r="W30" t="n">
-        <v>323.2315096576244</v>
+        <v>558.5238214983085</v>
       </c>
       <c r="X30" t="n">
-        <v>205.6796385949351</v>
+        <v>440.9719504356192</v>
       </c>
       <c r="Y30" t="n">
-        <v>88.21896897282471</v>
+        <v>323.5112808135088</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>154.508015250343</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="C31" t="n">
-        <v>75.87146146527957</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="D31" t="n">
-        <v>75.87146146527957</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="E31" t="n">
-        <v>75.87146146527957</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
@@ -6645,28 +6645,28 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R31" t="n">
-        <v>574.5060486347639</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="S31" t="n">
-        <v>574.5060486347639</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="T31" t="n">
-        <v>574.5060486347639</v>
+        <v>648.4161072905238</v>
       </c>
       <c r="U31" t="n">
-        <v>375.5945370134752</v>
+        <v>449.5045956692351</v>
       </c>
       <c r="V31" t="n">
-        <v>211.2096779504319</v>
+        <v>285.1197366061917</v>
       </c>
       <c r="W31" t="n">
-        <v>154.508015250343</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="X31" t="n">
-        <v>154.508015250343</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="Y31" t="n">
-        <v>154.508015250343</v>
+        <v>86.00219571207455</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>913.8437375424478</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>913.8437375424478</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>913.8437375424478</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>913.8437375424478</v>
       </c>
       <c r="V32" t="n">
-        <v>734.1637976141799</v>
+        <v>913.8437375424478</v>
       </c>
       <c r="W32" t="n">
-        <v>490.7150209700798</v>
+        <v>913.8437375424478</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>913.8437375424478</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>281.3237732129746</v>
+        <v>235.662855358046</v>
       </c>
       <c r="C33" t="n">
-        <v>208.0402733789619</v>
+        <v>162.3793555240332</v>
       </c>
       <c r="D33" t="n">
-        <v>160.2753931648249</v>
+        <v>114.6144753098962</v>
       </c>
       <c r="E33" t="n">
         <v>102.2074676064837</v>
@@ -6782,10 +6782,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M33" t="n">
         <v>304.2053859195205</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>891.8093404084193</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.7922752142996</v>
+        <v>863.0400903165165</v>
       </c>
       <c r="U33" t="n">
-        <v>714.710148143274</v>
+        <v>735.9860015000198</v>
       </c>
       <c r="V33" t="n">
-        <v>714.710148143274</v>
+        <v>602.0034227153915</v>
       </c>
       <c r="W33" t="n">
-        <v>561.6423208621866</v>
+        <v>448.9355954343041</v>
       </c>
       <c r="X33" t="n">
-        <v>454.9603501037681</v>
+        <v>342.2536246758856</v>
       </c>
       <c r="Y33" t="n">
-        <v>348.3695807859284</v>
+        <v>235.662855358046</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>312.929954466227</v>
+        <v>284.3100410398928</v>
       </c>
       <c r="C34" t="n">
-        <v>245.1633009854344</v>
+        <v>216.5433875591001</v>
       </c>
       <c r="D34" t="n">
-        <v>196.2161910202129</v>
+        <v>167.5962775938787</v>
       </c>
       <c r="E34" t="n">
-        <v>196.2161910202129</v>
+        <v>120.8527134585999</v>
       </c>
       <c r="F34" t="n">
-        <v>150.4957729694169</v>
+        <v>75.13229540780378</v>
       </c>
       <c r="G34" t="n">
-        <v>81.97744447869398</v>
+        <v>75.13229540780378</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>75.13229540780378</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
@@ -6888,22 +6888,22 @@
         <v>744.5964457193541</v>
       </c>
       <c r="T34" t="n">
-        <v>744.5964457193541</v>
+        <v>615.5179050368911</v>
       </c>
       <c r="U34" t="n">
-        <v>744.5964457193541</v>
+        <v>615.5179050368911</v>
       </c>
       <c r="V34" t="n">
-        <v>744.5964457193541</v>
+        <v>615.5179050368911</v>
       </c>
       <c r="W34" t="n">
-        <v>556.3488051295077</v>
+        <v>491.6089978739212</v>
       </c>
       <c r="X34" t="n">
-        <v>513.0319395457682</v>
+        <v>364.7889764230182</v>
       </c>
       <c r="Y34" t="n">
-        <v>393.4088898493524</v>
+        <v>364.7889764230182</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>644.0062961027915</v>
+        <v>740.7442364545066</v>
       </c>
       <c r="C35" t="n">
-        <v>426.43660147347</v>
+        <v>740.7442364545066</v>
       </c>
       <c r="D35" t="n">
-        <v>208.8669068441485</v>
+        <v>523.1745418251851</v>
       </c>
       <c r="E35" t="n">
-        <v>17.23151981464226</v>
+        <v>305.6048471958636</v>
       </c>
       <c r="F35" t="n">
-        <v>17.23151981464226</v>
+        <v>305.6048471958636</v>
       </c>
       <c r="G35" t="n">
-        <v>17.23151981464226</v>
+        <v>305.6048471958636</v>
       </c>
       <c r="H35" t="n">
-        <v>17.23151981464226</v>
+        <v>88.03515256654217</v>
       </c>
       <c r="I35" t="n">
         <v>17.23151981464226</v>
@@ -6943,16 +6943,16 @@
         <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>203.6264053839766</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>416.8664630901746</v>
+        <v>506.5265183822256</v>
       </c>
       <c r="N35" t="n">
-        <v>622.7209852974139</v>
+        <v>712.3810405894649</v>
       </c>
       <c r="O35" t="n">
-        <v>771.915935440062</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P35" t="n">
         <v>861.5759907321129</v>
@@ -6964,25 +6964,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>861.5759907321129</v>
+        <v>740.7442364545066</v>
       </c>
       <c r="T35" t="n">
-        <v>861.5759907321129</v>
+        <v>740.7442364545066</v>
       </c>
       <c r="U35" t="n">
-        <v>861.5759907321129</v>
+        <v>740.7442364545066</v>
       </c>
       <c r="V35" t="n">
-        <v>861.5759907321129</v>
+        <v>740.7442364545066</v>
       </c>
       <c r="W35" t="n">
-        <v>861.5759907321129</v>
+        <v>740.7442364545066</v>
       </c>
       <c r="X35" t="n">
-        <v>861.5759907321129</v>
+        <v>740.7442364545066</v>
       </c>
       <c r="Y35" t="n">
-        <v>861.5759907321129</v>
+        <v>740.7442364545066</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>249.6271810953864</v>
+        <v>300.4582290580636</v>
       </c>
       <c r="C36" t="n">
-        <v>165.4737809571029</v>
+        <v>216.3048289197801</v>
       </c>
       <c r="D36" t="n">
-        <v>165.4737809571029</v>
+        <v>157.6700484013724</v>
       </c>
       <c r="E36" t="n">
-        <v>96.53595509449093</v>
+        <v>88.7322225387604</v>
       </c>
       <c r="F36" t="n">
-        <v>40.30102626421942</v>
+        <v>88.7322225387604</v>
       </c>
       <c r="G36" t="n">
         <v>40.30102626421942</v>
@@ -7019,19 +7019,19 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>17.23151981464226</v>
+        <v>39.21234000016818</v>
       </c>
       <c r="L36" t="n">
-        <v>230.4715775208402</v>
+        <v>39.21234000016818</v>
       </c>
       <c r="M36" t="n">
-        <v>443.7116352270382</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="N36" t="n">
-        <v>648.335933025915</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O36" t="n">
-        <v>861.5759907321129</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P36" t="n">
         <v>861.5759907321129</v>
@@ -7043,25 +7043,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S36" t="n">
-        <v>861.5759907321129</v>
+        <v>844.2609764171207</v>
       </c>
       <c r="T36" t="n">
-        <v>861.5759907321129</v>
+        <v>844.2609764171207</v>
       </c>
       <c r="U36" t="n">
-        <v>861.5759907321129</v>
+        <v>844.2609764171207</v>
       </c>
       <c r="V36" t="n">
-        <v>726.4931572427688</v>
+        <v>699.4084973282215</v>
       </c>
       <c r="W36" t="n">
-        <v>562.5554296574106</v>
+        <v>535.4707697428634</v>
       </c>
       <c r="X36" t="n">
-        <v>445.0035585947213</v>
+        <v>417.918898680174</v>
       </c>
       <c r="Y36" t="n">
-        <v>327.5428889726109</v>
+        <v>300.4582290580636</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>240.9095758794595</v>
+        <v>302.0150343517731</v>
       </c>
       <c r="C37" t="n">
-        <v>240.9095758794595</v>
+        <v>302.0150343517731</v>
       </c>
       <c r="D37" t="n">
-        <v>240.9095758794595</v>
+        <v>294.5204673237993</v>
       </c>
       <c r="E37" t="n">
-        <v>240.9095758794595</v>
+        <v>236.9070028842497</v>
       </c>
       <c r="F37" t="n">
-        <v>240.9095758794595</v>
+        <v>236.9070028842497</v>
       </c>
       <c r="G37" t="n">
-        <v>161.5213470844659</v>
+        <v>157.5187740892561</v>
       </c>
       <c r="H37" t="n">
-        <v>87.95514541171389</v>
+        <v>83.95257241650408</v>
       </c>
       <c r="I37" t="n">
-        <v>21.23409280985205</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J37" t="n">
         <v>17.23151981464226</v>
@@ -7119,28 +7119,28 @@
         <v>661.2410299106626</v>
       </c>
       <c r="R37" t="n">
-        <v>661.2410299106626</v>
+        <v>572.4564253391935</v>
       </c>
       <c r="S37" t="n">
-        <v>661.2410299106626</v>
+        <v>572.4564253391935</v>
       </c>
       <c r="T37" t="n">
-        <v>661.2410299106626</v>
+        <v>432.5079843524597</v>
       </c>
       <c r="U37" t="n">
-        <v>462.3295182893739</v>
+        <v>432.5079843524597</v>
       </c>
       <c r="V37" t="n">
-        <v>462.3295182893739</v>
+        <v>432.5079843524597</v>
       </c>
       <c r="W37" t="n">
-        <v>462.3295182893739</v>
+        <v>432.5079843524597</v>
       </c>
       <c r="X37" t="n">
-        <v>324.6395965342001</v>
+        <v>432.5079843524597</v>
       </c>
       <c r="Y37" t="n">
-        <v>324.6395965342001</v>
+        <v>302.0150343517731</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>663.8141338692145</v>
+        <v>336.6188017095856</v>
       </c>
       <c r="C38" t="n">
-        <v>448.2340696092722</v>
+        <v>336.6188017095856</v>
       </c>
       <c r="D38" t="n">
-        <v>232.6540053493298</v>
+        <v>336.6188017095856</v>
       </c>
       <c r="E38" t="n">
-        <v>17.07394108938743</v>
+        <v>119.0491070802641</v>
       </c>
       <c r="F38" t="n">
-        <v>17.07394108938743</v>
+        <v>119.0491070802641</v>
       </c>
       <c r="G38" t="n">
-        <v>17.07394108938743</v>
+        <v>119.0491070802641</v>
       </c>
       <c r="H38" t="n">
-        <v>17.07394108938743</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I38" t="n">
-        <v>17.07394108938743</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J38" t="n">
-        <v>17.07394108938743</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>120.0889470003098</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L38" t="n">
-        <v>300.1647985849684</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M38" t="n">
-        <v>511.4548195661379</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N38" t="n">
-        <v>717.3093417733771</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O38" t="n">
-        <v>764.0369991773207</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P38" t="n">
-        <v>853.6970544693717</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>853.6970544693717</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>763.7653630632088</v>
+        <v>771.7581909682285</v>
       </c>
       <c r="S38" t="n">
-        <v>663.8141338692145</v>
+        <v>771.7581909682285</v>
       </c>
       <c r="T38" t="n">
-        <v>663.8141338692145</v>
+        <v>771.7581909682285</v>
       </c>
       <c r="U38" t="n">
-        <v>663.8141338692145</v>
+        <v>771.7581909682285</v>
       </c>
       <c r="V38" t="n">
-        <v>663.8141338692145</v>
+        <v>771.7581909682285</v>
       </c>
       <c r="W38" t="n">
-        <v>663.8141338692145</v>
+        <v>554.188496338907</v>
       </c>
       <c r="X38" t="n">
-        <v>663.8141338692145</v>
+        <v>336.6188017095856</v>
       </c>
       <c r="Y38" t="n">
-        <v>663.8141338692145</v>
+        <v>336.6188017095856</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>282.2493167225024</v>
+        <v>410.8564336438812</v>
       </c>
       <c r="C39" t="n">
-        <v>185.3233474584832</v>
+        <v>297.9685520141725</v>
       </c>
       <c r="D39" t="n">
-        <v>97.84019380637184</v>
+        <v>210.5992900043395</v>
       </c>
       <c r="E39" t="n">
-        <v>97.84019380637184</v>
+        <v>210.5992900043395</v>
       </c>
       <c r="F39" t="n">
-        <v>97.84019380637184</v>
+        <v>125.6298796826428</v>
       </c>
       <c r="G39" t="n">
-        <v>97.84019380637184</v>
+        <v>48.46420191667666</v>
       </c>
       <c r="H39" t="n">
-        <v>45.92231422309106</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I39" t="n">
-        <v>17.07394108938743</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J39" t="n">
-        <v>17.07394108938743</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>142.4315011472248</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>150.4324330125338</v>
+        <v>221.8558176135191</v>
       </c>
       <c r="M39" t="n">
-        <v>361.7224539937033</v>
+        <v>435.095875319717</v>
       </c>
       <c r="N39" t="n">
-        <v>573.0124749748728</v>
+        <v>648.335933025915</v>
       </c>
       <c r="O39" t="n">
-        <v>784.3024959560423</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P39" t="n">
-        <v>784.3024959560423</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q39" t="n">
-        <v>853.6970544693717</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>853.6970544693717</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>741.7309659291805</v>
+        <v>749.7237938342001</v>
       </c>
       <c r="T39" t="n">
-        <v>741.7309659291805</v>
+        <v>749.7237938342001</v>
       </c>
       <c r="U39" t="n">
-        <v>574.9586036747094</v>
+        <v>749.7237938342001</v>
       </c>
       <c r="V39" t="n">
-        <v>574.9586036747094</v>
+        <v>749.7237938342001</v>
       </c>
       <c r="W39" t="n">
-        <v>574.9586036747094</v>
+        <v>557.0515847574168</v>
       </c>
       <c r="X39" t="n">
-        <v>428.5583594783164</v>
+        <v>557.0515847574168</v>
       </c>
       <c r="Y39" t="n">
-        <v>282.2493167225024</v>
+        <v>410.8564336438812</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>209.9975594969249</v>
+        <v>211.7021760320359</v>
       </c>
       <c r="C40" t="n">
-        <v>102.5126325781579</v>
+        <v>211.7021760320359</v>
       </c>
       <c r="D40" t="n">
-        <v>102.5126325781579</v>
+        <v>211.7021760320359</v>
       </c>
       <c r="E40" t="n">
-        <v>102.5126325781579</v>
+        <v>125.3542301010611</v>
       </c>
       <c r="F40" t="n">
-        <v>17.07394108938743</v>
+        <v>125.3542301010611</v>
       </c>
       <c r="G40" t="n">
-        <v>17.07394108938743</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H40" t="n">
-        <v>17.07394108938743</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I40" t="n">
-        <v>17.07394108938743</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J40" t="n">
-        <v>17.07394108938743</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K40" t="n">
-        <v>55.25552019632141</v>
+        <v>55.52472412017335</v>
       </c>
       <c r="L40" t="n">
-        <v>142.7980212185924</v>
+        <v>143.1788503410414</v>
       </c>
       <c r="M40" t="n">
-        <v>242.2144354253726</v>
+        <v>242.7068897464187</v>
       </c>
       <c r="N40" t="n">
-        <v>346.1336620953669</v>
+        <v>346.7377416150101</v>
       </c>
       <c r="O40" t="n">
-        <v>430.7013147448242</v>
+        <v>431.4170194630645</v>
       </c>
       <c r="P40" t="n">
-        <v>488.2354644316267</v>
+        <v>489.0627943484641</v>
       </c>
       <c r="Q40" t="n">
-        <v>488.2354644316267</v>
+        <v>489.0627943484641</v>
       </c>
       <c r="R40" t="n">
-        <v>370.602486726454</v>
+        <v>489.0627943484641</v>
       </c>
       <c r="S40" t="n">
-        <v>370.602486726454</v>
+        <v>489.0627943484641</v>
       </c>
       <c r="T40" t="n">
-        <v>370.602486726454</v>
+        <v>331.7854932108572</v>
       </c>
       <c r="U40" t="n">
-        <v>370.602486726454</v>
+        <v>331.7854932108572</v>
       </c>
       <c r="V40" t="n">
-        <v>370.602486726454</v>
+        <v>331.7854932108572</v>
       </c>
       <c r="W40" t="n">
-        <v>370.602486726454</v>
+        <v>331.7854932108572</v>
       </c>
       <c r="X40" t="n">
-        <v>209.9975594969249</v>
+        <v>331.7854932108572</v>
       </c>
       <c r="Y40" t="n">
-        <v>209.9975594969249</v>
+        <v>331.7854932108572</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132.9711873314728</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="C41" t="n">
-        <v>132.9711873314728</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="D41" t="n">
-        <v>132.9711873314728</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="E41" t="n">
-        <v>132.9711873314728</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="F41" t="n">
-        <v>132.9711873314728</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="G41" t="n">
-        <v>10.97012295484651</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="H41" t="n">
-        <v>10.97012295484651</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="I41" t="n">
-        <v>10.97012295484651</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="J41" t="n">
-        <v>10.97012295484651</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="K41" t="n">
-        <v>10.97012295484651</v>
+        <v>113.9714604741039</v>
       </c>
       <c r="L41" t="n">
-        <v>146.725394521072</v>
+        <v>186.9904224282833</v>
       </c>
       <c r="M41" t="n">
-        <v>282.4806660872975</v>
+        <v>322.576547647655</v>
       </c>
       <c r="N41" t="n">
-        <v>418.2359376535231</v>
+        <v>458.1626728670268</v>
       </c>
       <c r="O41" t="n">
-        <v>458.8460924502745</v>
+        <v>458.1626728670268</v>
       </c>
       <c r="P41" t="n">
-        <v>548.5061477423254</v>
+        <v>547.8227281590778</v>
       </c>
       <c r="Q41" t="n">
-        <v>548.5061477423254</v>
+        <v>547.8227281590778</v>
       </c>
       <c r="R41" t="n">
-        <v>548.5061477423254</v>
+        <v>547.8227281590778</v>
       </c>
       <c r="S41" t="n">
-        <v>548.5061477423254</v>
+        <v>409.4836553916339</v>
       </c>
       <c r="T41" t="n">
-        <v>548.5061477423254</v>
+        <v>271.14458262419</v>
       </c>
       <c r="U41" t="n">
-        <v>548.5061477423254</v>
+        <v>132.8055098567461</v>
       </c>
       <c r="V41" t="n">
-        <v>548.5061477423254</v>
+        <v>132.8055098567461</v>
       </c>
       <c r="W41" t="n">
-        <v>548.5061477423254</v>
+        <v>132.8055098567461</v>
       </c>
       <c r="X41" t="n">
-        <v>409.9944942720412</v>
+        <v>132.8055098567461</v>
       </c>
       <c r="Y41" t="n">
-        <v>271.482840801757</v>
+        <v>10.95645456318156</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>402.3435228815017</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="C42" t="n">
-        <v>402.3435228815017</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="D42" t="n">
-        <v>402.3435228815017</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="E42" t="n">
-        <v>294.465708516959</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="F42" t="n">
-        <v>199.2907911847568</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="G42" t="n">
-        <v>111.9196064082851</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="H42" t="n">
-        <v>49.91011145677722</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="I42" t="n">
-        <v>10.97012295484651</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="J42" t="n">
-        <v>10.97012295484651</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="K42" t="n">
-        <v>10.97012295484651</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="L42" t="n">
-        <v>10.97012295484651</v>
+        <v>146.5425797825533</v>
       </c>
       <c r="M42" t="n">
-        <v>146.725394521072</v>
+        <v>282.128705001925</v>
       </c>
       <c r="N42" t="n">
-        <v>282.4806660872975</v>
+        <v>417.7148302212968</v>
       </c>
       <c r="O42" t="n">
-        <v>418.2359376535231</v>
+        <v>547.8227281590778</v>
       </c>
       <c r="P42" t="n">
-        <v>479.1115892289961</v>
+        <v>547.8227281590778</v>
       </c>
       <c r="Q42" t="n">
-        <v>548.5061477423254</v>
+        <v>547.8227281590778</v>
       </c>
       <c r="R42" t="n">
-        <v>548.5061477423254</v>
+        <v>547.8227281590778</v>
       </c>
       <c r="S42" t="n">
-        <v>548.5061477423254</v>
+        <v>547.8227281590778</v>
       </c>
       <c r="T42" t="n">
-        <v>548.5061477423254</v>
+        <v>425.9736728655132</v>
       </c>
       <c r="U42" t="n">
-        <v>409.9944942720412</v>
+        <v>287.6346000980693</v>
       </c>
       <c r="V42" t="n">
-        <v>402.3435228815017</v>
+        <v>149.2955273306254</v>
       </c>
       <c r="W42" t="n">
-        <v>402.3435228815017</v>
+        <v>149.2955273306254</v>
       </c>
       <c r="X42" t="n">
-        <v>402.3435228815017</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="Y42" t="n">
-        <v>402.3435228815017</v>
+        <v>10.95645456318156</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>262.97232756815</v>
+        <v>171.2477750627593</v>
       </c>
       <c r="C43" t="n">
-        <v>262.97232756815</v>
+        <v>53.78512441804361</v>
       </c>
       <c r="D43" t="n">
-        <v>262.97232756815</v>
+        <v>53.78512441804361</v>
       </c>
       <c r="E43" t="n">
-        <v>166.4188746266697</v>
+        <v>53.78512441804361</v>
       </c>
       <c r="F43" t="n">
-        <v>166.4188746266697</v>
+        <v>53.78512441804361</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4188746266697</v>
+        <v>53.78512441804361</v>
       </c>
       <c r="H43" t="n">
-        <v>53.91268445198701</v>
+        <v>53.78512441804361</v>
       </c>
       <c r="I43" t="n">
-        <v>53.91268445198701</v>
+        <v>53.78512441804361</v>
       </c>
       <c r="J43" t="n">
-        <v>10.97012295484651</v>
+        <v>10.95645456318156</v>
       </c>
       <c r="K43" t="n">
-        <v>39.26090983938113</v>
+        <v>39.35886664631328</v>
       </c>
       <c r="L43" t="n">
-        <v>116.9126186392527</v>
+        <v>117.122200644782</v>
       </c>
       <c r="M43" t="n">
-        <v>206.4382406236336</v>
+        <v>206.7594478277599</v>
       </c>
       <c r="N43" t="n">
-        <v>300.4666750712285</v>
+        <v>300.899507473952</v>
       </c>
       <c r="O43" t="n">
-        <v>375.1435354982864</v>
+        <v>375.687993099607</v>
       </c>
       <c r="P43" t="n">
-        <v>422.7868929626896</v>
+        <v>423.4429757626073</v>
       </c>
       <c r="Q43" t="n">
-        <v>387.114166682699</v>
+        <v>423.4429757626073</v>
       </c>
       <c r="R43" t="n">
-        <v>387.114166682699</v>
+        <v>423.4429757626073</v>
       </c>
       <c r="S43" t="n">
-        <v>262.97232756815</v>
+        <v>423.4429757626073</v>
       </c>
       <c r="T43" t="n">
-        <v>262.97232756815</v>
+        <v>423.4429757626073</v>
       </c>
       <c r="U43" t="n">
-        <v>262.97232756815</v>
+        <v>423.4429757626073</v>
       </c>
       <c r="V43" t="n">
-        <v>262.97232756815</v>
+        <v>423.4429757626073</v>
       </c>
       <c r="W43" t="n">
-        <v>262.97232756815</v>
+        <v>423.4429757626073</v>
       </c>
       <c r="X43" t="n">
-        <v>262.97232756815</v>
+        <v>423.4429757626073</v>
       </c>
       <c r="Y43" t="n">
-        <v>262.97232756815</v>
+        <v>285.1039029951634</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.665601817513968</v>
+        <v>253.3876259977937</v>
       </c>
       <c r="C44" t="n">
-        <v>9.665601817513968</v>
+        <v>131.5197797118213</v>
       </c>
       <c r="D44" t="n">
-        <v>9.665601817513968</v>
+        <v>9.651933425849009</v>
       </c>
       <c r="E44" t="n">
-        <v>9.665601817513968</v>
+        <v>9.651933425849009</v>
       </c>
       <c r="F44" t="n">
-        <v>9.665601817513968</v>
+        <v>9.651933425849009</v>
       </c>
       <c r="G44" t="n">
-        <v>9.665601817513968</v>
+        <v>9.651933425849009</v>
       </c>
       <c r="H44" t="n">
-        <v>9.665601817513968</v>
+        <v>9.651933425849009</v>
       </c>
       <c r="I44" t="n">
-        <v>9.665601817513968</v>
+        <v>9.651933425849009</v>
       </c>
       <c r="J44" t="n">
-        <v>9.665601817513968</v>
+        <v>9.651933425849009</v>
       </c>
       <c r="K44" t="n">
-        <v>112.6806077284363</v>
+        <v>112.6669393367714</v>
       </c>
       <c r="L44" t="n">
-        <v>154.3963906001768</v>
+        <v>232.1096154816528</v>
       </c>
       <c r="M44" t="n">
-        <v>154.3963906001768</v>
+        <v>243.7113190026875</v>
       </c>
       <c r="N44" t="n">
-        <v>274.0082130919121</v>
+        <v>363.153995147569</v>
       </c>
       <c r="O44" t="n">
-        <v>393.6200355836475</v>
+        <v>482.5966712924505</v>
       </c>
       <c r="P44" t="n">
-        <v>483.2800908756984</v>
+        <v>482.5966712924505</v>
       </c>
       <c r="Q44" t="n">
-        <v>483.2800908756984</v>
+        <v>482.5966712924505</v>
       </c>
       <c r="R44" t="n">
-        <v>483.2800908756984</v>
+        <v>482.5966712924505</v>
       </c>
       <c r="S44" t="n">
-        <v>483.2800908756984</v>
+        <v>375.255472283766</v>
       </c>
       <c r="T44" t="n">
-        <v>483.2800908756984</v>
+        <v>375.255472283766</v>
       </c>
       <c r="U44" t="n">
-        <v>361.2396638868857</v>
+        <v>375.255472283766</v>
       </c>
       <c r="V44" t="n">
-        <v>361.2396638868857</v>
+        <v>375.255472283766</v>
       </c>
       <c r="W44" t="n">
-        <v>239.199236898073</v>
+        <v>375.255472283766</v>
       </c>
       <c r="X44" t="n">
-        <v>239.199236898073</v>
+        <v>375.255472283766</v>
       </c>
       <c r="Y44" t="n">
-        <v>117.1588099092602</v>
+        <v>375.255472283766</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>231.1516924281186</v>
+        <v>194.2910231056783</v>
       </c>
       <c r="C45" t="n">
-        <v>231.1516924281186</v>
+        <v>72.42317681970599</v>
       </c>
       <c r="D45" t="n">
-        <v>231.1516924281186</v>
+        <v>72.42317681970599</v>
       </c>
       <c r="E45" t="n">
-        <v>231.1516924281186</v>
+        <v>72.42317681970599</v>
       </c>
       <c r="F45" t="n">
-        <v>135.9767750959164</v>
+        <v>9.651933425849009</v>
       </c>
       <c r="G45" t="n">
-        <v>48.60559031944467</v>
+        <v>9.651933425849009</v>
       </c>
       <c r="H45" t="n">
-        <v>48.60559031944467</v>
+        <v>9.651933425849009</v>
       </c>
       <c r="I45" t="n">
-        <v>9.665601817513968</v>
+        <v>9.651933425849009</v>
       </c>
       <c r="J45" t="n">
-        <v>9.665601817513968</v>
+        <v>9.651933425849009</v>
       </c>
       <c r="K45" t="n">
-        <v>129.2774243092493</v>
+        <v>129.0946095707305</v>
       </c>
       <c r="L45" t="n">
-        <v>248.8892468009847</v>
+        <v>248.537285715612</v>
       </c>
       <c r="M45" t="n">
-        <v>363.6682683839631</v>
+        <v>367.9799618604935</v>
       </c>
       <c r="N45" t="n">
-        <v>483.2800908756984</v>
+        <v>482.5966712924505</v>
       </c>
       <c r="O45" t="n">
-        <v>483.2800908756984</v>
+        <v>482.5966712924505</v>
       </c>
       <c r="P45" t="n">
-        <v>483.2800908756984</v>
+        <v>482.5966712924505</v>
       </c>
       <c r="Q45" t="n">
-        <v>483.2800908756984</v>
+        <v>482.5966712924505</v>
       </c>
       <c r="R45" t="n">
-        <v>483.2800908756984</v>
+        <v>432.9006741285274</v>
       </c>
       <c r="S45" t="n">
-        <v>483.2800908756984</v>
+        <v>311.0328278425551</v>
       </c>
       <c r="T45" t="n">
-        <v>483.2800908756984</v>
+        <v>311.0328278425551</v>
       </c>
       <c r="U45" t="n">
-        <v>361.2396638868857</v>
+        <v>311.0328278425551</v>
       </c>
       <c r="V45" t="n">
-        <v>361.2396638868857</v>
+        <v>311.0328278425551</v>
       </c>
       <c r="W45" t="n">
-        <v>239.199236898073</v>
+        <v>311.0328278425551</v>
       </c>
       <c r="X45" t="n">
-        <v>239.199236898073</v>
+        <v>311.0328278425551</v>
       </c>
       <c r="Y45" t="n">
-        <v>231.1516924281186</v>
+        <v>311.0328278425551</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>239.199236898073</v>
+        <v>300.2706083393024</v>
       </c>
       <c r="C46" t="n">
-        <v>239.199236898073</v>
+        <v>300.2706083393024</v>
       </c>
       <c r="D46" t="n">
-        <v>239.199236898073</v>
+        <v>300.2706083393024</v>
       </c>
       <c r="E46" t="n">
-        <v>239.199236898073</v>
+        <v>300.2706083393024</v>
       </c>
       <c r="F46" t="n">
-        <v>239.199236898073</v>
+        <v>300.2706083393024</v>
       </c>
       <c r="G46" t="n">
-        <v>239.199236898073</v>
+        <v>182.0562826846565</v>
       </c>
       <c r="H46" t="n">
-        <v>177.1243619716478</v>
+        <v>115.1990828873631</v>
       </c>
       <c r="I46" t="n">
-        <v>71.46332086785526</v>
+        <v>9.651933425849009</v>
       </c>
       <c r="J46" t="n">
-        <v>71.46332086785526</v>
+        <v>9.651933425849009</v>
       </c>
       <c r="K46" t="n">
-        <v>99.75410775238987</v>
+        <v>38.05434550898073</v>
       </c>
       <c r="L46" t="n">
-        <v>177.4058165522615</v>
+        <v>115.8176795074495</v>
       </c>
       <c r="M46" t="n">
-        <v>266.9314385366423</v>
+        <v>205.4549266904274</v>
       </c>
       <c r="N46" t="n">
-        <v>360.9598729842373</v>
+        <v>299.5949863366194</v>
       </c>
       <c r="O46" t="n">
-        <v>435.6367334112952</v>
+        <v>374.3834719622744</v>
       </c>
       <c r="P46" t="n">
-        <v>483.2800908756984</v>
+        <v>422.1384546252747</v>
       </c>
       <c r="Q46" t="n">
-        <v>483.2800908756984</v>
+        <v>422.1384546252747</v>
       </c>
       <c r="R46" t="n">
-        <v>361.2396638868857</v>
+        <v>300.2706083393024</v>
       </c>
       <c r="S46" t="n">
-        <v>361.2396638868857</v>
+        <v>300.2706083393024</v>
       </c>
       <c r="T46" t="n">
-        <v>361.2396638868857</v>
+        <v>300.2706083393024</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2396638868857</v>
+        <v>300.2706083393024</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2396638868857</v>
+        <v>300.2706083393024</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2396638868857</v>
+        <v>300.2706083393024</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2396638868857</v>
+        <v>300.2706083393024</v>
       </c>
       <c r="Y46" t="n">
-        <v>239.199236898073</v>
+        <v>300.2706083393024</v>
       </c>
     </row>
   </sheetData>
@@ -8695,13 +8695,13 @@
         <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
         <v>254.9313611413124</v>
       </c>
       <c r="N11" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
@@ -8777,10 +8777,10 @@
         <v>164.174670974505</v>
       </c>
       <c r="M12" t="n">
-        <v>166.719161836058</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8789,7 +8789,7 @@
         <v>159.5946986089611</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,19 +8932,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>257.9362584875889</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O14" t="n">
-        <v>257.6882366820029</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
-        <v>257.7082725202194</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>168.6093106869681</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N15" t="n">
-        <v>158.9317373436494</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>158.5595353283699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9090,13 +9090,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M16" t="n">
-        <v>166.5158092079212</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N16" t="n">
-        <v>155.2755697255493</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9166,19 +9166,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>323.9776029870583</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>339.654166912065</v>
+        <v>339.8250218078769</v>
       </c>
       <c r="M17" t="n">
-        <v>334.2339851693504</v>
+        <v>239.634739493883</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>333.4716704344805</v>
       </c>
       <c r="O17" t="n">
-        <v>239.2227660205987</v>
+        <v>334.1568182595763</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>241.7291909164367</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>242.4421317219519</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>246.021785864096</v>
+        <v>246.1926407599079</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>161.1004171163291</v>
       </c>
       <c r="O18" t="n">
-        <v>172.1909978097419</v>
+        <v>246.6548512823341</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>238.0330142522199</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>244.8620708012905</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>356.1315360245337</v>
       </c>
       <c r="M20" t="n">
-        <v>350.5404993860072</v>
+        <v>350.7113542818191</v>
       </c>
       <c r="N20" t="n">
-        <v>349.6073297553254</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>350.2924775804212</v>
+        <v>350.4633324762332</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>242.6793180693066</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9482,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>258.0357051330935</v>
+        <v>258.2065600289054</v>
       </c>
       <c r="L21" t="n">
-        <v>258.7486459386087</v>
+        <v>258.9195008344206</v>
       </c>
       <c r="M21" t="n">
-        <v>262.3283000807528</v>
+        <v>257.6359177622396</v>
       </c>
       <c r="N21" t="n">
-        <v>246.6796442558563</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>262.9613654989909</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,7 +9959,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7352039419416</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9971,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10591,10 +10591,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>319.9885156350499</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>445.740230910301</v>
+        <v>438.6332444111135</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>160.0442876466074</v>
       </c>
       <c r="L36" t="n">
-        <v>353.9483774629024</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>338.0329219811887</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O36" t="n">
         <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10825,19 +10825,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>443.7704968446156</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>277.2978653650641</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>146.6361291387722</v>
+        <v>345.2455896777295</v>
       </c>
       <c r="M39" t="n">
-        <v>355.5582975393612</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>344.7659757006762</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
-        <v>356.0205080617874</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>372.8929519055686</v>
+        <v>309.5229421964311</v>
       </c>
       <c r="M41" t="n">
-        <v>367.4727701628541</v>
+        <v>367.3019152670422</v>
       </c>
       <c r="N41" t="n">
-        <v>366.5396005321722</v>
+        <v>366.3687456363604</v>
       </c>
       <c r="O41" t="n">
-        <v>271.1185698022437</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11144,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>275.5100618196436</v>
       </c>
       <c r="M42" t="n">
-        <v>279.2605708575996</v>
+        <v>279.0897159617878</v>
       </c>
       <c r="N42" t="n">
-        <v>268.4682490189147</v>
+        <v>268.2973941231028</v>
       </c>
       <c r="O42" t="n">
-        <v>279.7227813800258</v>
+        <v>274.0183635735161</v>
       </c>
       <c r="P42" t="n">
-        <v>195.4649645612727</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,19 +11302,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>277.9035693858867</v>
+        <v>356.4155827930999</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>242.0651256727623</v>
       </c>
       <c r="N44" t="n">
-        <v>350.2330863155155</v>
+        <v>350.0622314197036</v>
       </c>
       <c r="O44" t="n">
-        <v>350.9182341406113</v>
+        <v>350.7473792447993</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>258.6614616932836</v>
+        <v>258.4906067974716</v>
       </c>
       <c r="L45" t="n">
-        <v>259.3744024987988</v>
+        <v>259.2035476029868</v>
       </c>
       <c r="M45" t="n">
-        <v>258.0724395613905</v>
+        <v>262.783201745131</v>
       </c>
       <c r="N45" t="n">
-        <v>252.1617348022579</v>
+        <v>247.1161660550071</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -23269,19 +23269,19 @@
         <v>371.939670857717</v>
       </c>
       <c r="F11" t="n">
-        <v>396.8853465271666</v>
+        <v>376.2775841830035</v>
       </c>
       <c r="G11" t="n">
-        <v>405.3120383005902</v>
+        <v>379.6917471059594</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4841029012223</v>
+        <v>303.8638117065915</v>
       </c>
       <c r="I11" t="n">
         <v>174.8648991612303</v>
       </c>
       <c r="J11" t="n">
-        <v>1.958590140067713</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>114.2581275319741</v>
+        <v>139.8784187266049</v>
       </c>
       <c r="S11" t="n">
-        <v>173.4090791770697</v>
+        <v>199.0293703717005</v>
       </c>
       <c r="T11" t="n">
-        <v>190.5387978653557</v>
+        <v>213.1051503495866</v>
       </c>
       <c r="U11" t="n">
         <v>241.3549536932917</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>90.16713493809833</v>
+        <v>64.54684374346749</v>
       </c>
       <c r="S12" t="n">
         <v>161.692471889293</v>
       </c>
       <c r="T12" t="n">
-        <v>164.553738285646</v>
+        <v>190.1740294802768</v>
       </c>
       <c r="U12" t="n">
-        <v>190.3303916717992</v>
+        <v>215.95068286643</v>
       </c>
       <c r="V12" t="n">
-        <v>222.8098879348805</v>
+        <v>197.1895967402496</v>
       </c>
       <c r="W12" t="n">
-        <v>241.7042839463748</v>
+        <v>219.137931462144</v>
       </c>
       <c r="X12" t="n">
-        <v>173.2159335047018</v>
+        <v>195.7822859889327</v>
       </c>
       <c r="Y12" t="n">
         <v>195.6919965627596</v>
@@ -23433,7 +23433,7 @@
         <v>158.000280143914</v>
       </c>
       <c r="H13" t="n">
-        <v>152.2364732928948</v>
+        <v>129.6701208086639</v>
       </c>
       <c r="I13" t="n">
         <v>145.4597757127135</v>
@@ -23463,13 +23463,13 @@
         <v>50.55105284251875</v>
       </c>
       <c r="R13" t="n">
-        <v>141.6824009679939</v>
+        <v>167.3026921626247</v>
       </c>
       <c r="S13" t="n">
         <v>188.4056076277966</v>
       </c>
       <c r="T13" t="n">
-        <v>195.3885377295059</v>
+        <v>192.3345990191059</v>
       </c>
       <c r="U13" t="n">
         <v>276.3283301419461</v>
@@ -23500,25 +23500,25 @@
         <v>355.2821925564627</v>
       </c>
       <c r="D14" t="n">
-        <v>322.3496382969194</v>
+        <v>344.6923424061382</v>
       </c>
       <c r="E14" t="n">
         <v>371.939670857717</v>
       </c>
       <c r="F14" t="n">
-        <v>396.8853465271666</v>
+        <v>374.3189940429358</v>
       </c>
       <c r="G14" t="n">
-        <v>405.3120383005902</v>
+        <v>379.6917471059594</v>
       </c>
       <c r="H14" t="n">
-        <v>301.8940776409062</v>
+        <v>303.8638117065915</v>
       </c>
       <c r="I14" t="n">
-        <v>200.4851903558611</v>
+        <v>174.8648991612303</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.958590140067713</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.2883934662887</v>
+        <v>139.8784187266049</v>
       </c>
       <c r="S14" t="n">
         <v>199.0293703717005</v>
       </c>
       <c r="T14" t="n">
-        <v>185.5151250892704</v>
+        <v>213.1051503495866</v>
       </c>
       <c r="U14" t="n">
         <v>241.3549536932917</v>
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>156.5424844353225</v>
+        <v>130.9221932406917</v>
       </c>
       <c r="C15" t="n">
-        <v>138.4165055244845</v>
+        <v>162.7177997737709</v>
       </c>
       <c r="D15" t="n">
         <v>137.4543663500939</v>
       </c>
       <c r="E15" t="n">
-        <v>147.6543812408561</v>
+        <v>122.0340900462253</v>
       </c>
       <c r="F15" t="n">
         <v>135.0785131788391</v>
@@ -23594,7 +23594,7 @@
         <v>102.2447450219517</v>
       </c>
       <c r="I15" t="n">
-        <v>79.40593363687027</v>
+        <v>53.78564244223944</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>90.16713493809833</v>
       </c>
       <c r="S15" t="n">
-        <v>134.1024466289769</v>
+        <v>161.692471889293</v>
       </c>
       <c r="T15" t="n">
-        <v>162.5840042199607</v>
+        <v>190.1740294802768</v>
       </c>
       <c r="U15" t="n">
-        <v>215.95068286643</v>
+        <v>193.3843303821992</v>
       </c>
       <c r="V15" t="n">
         <v>222.8098879348805</v>
@@ -23642,7 +23642,7 @@
         <v>195.7822859889327</v>
       </c>
       <c r="Y15" t="n">
-        <v>168.1019713024434</v>
+        <v>195.6919965627596</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>169.8412809673925</v>
+        <v>144.2209897727617</v>
       </c>
       <c r="C16" t="n">
         <v>157.256121884083</v>
@@ -23670,13 +23670,13 @@
         <v>158.000280143914</v>
       </c>
       <c r="H16" t="n">
-        <v>127.9351790436083</v>
+        <v>152.2364732928948</v>
       </c>
       <c r="I16" t="n">
-        <v>117.8697504523973</v>
+        <v>145.4597757127135</v>
       </c>
       <c r="J16" t="n">
-        <v>55.77845564181183</v>
+        <v>60.80212841789714</v>
       </c>
       <c r="K16" t="n">
         <v>12.27879261133805</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.58131877683344</v>
+        <v>50.55105284251875</v>
       </c>
       <c r="R16" t="n">
-        <v>167.3026921626247</v>
+        <v>141.6824009679939</v>
       </c>
       <c r="S16" t="n">
         <v>214.0258988224275</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.6582995156601</v>
+        <v>332.5455467898045</v>
       </c>
       <c r="C17" t="n">
-        <v>315.1973496231871</v>
+        <v>315.0845968973314</v>
       </c>
       <c r="D17" t="n">
-        <v>304.6074994728625</v>
+        <v>304.4947467470068</v>
       </c>
       <c r="E17" t="n">
-        <v>331.8548279244413</v>
+        <v>331.7420751985857</v>
       </c>
       <c r="F17" t="n">
-        <v>356.800503593891</v>
+        <v>252.6291440301457</v>
       </c>
       <c r="G17" t="n">
-        <v>365.2271953673146</v>
+        <v>365.1144426414589</v>
       </c>
       <c r="H17" t="n">
-        <v>193.8007519086163</v>
+        <v>193.2539025688619</v>
       </c>
       <c r="I17" t="n">
-        <v>56.51259548050777</v>
+        <v>56.22898785884021</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>55.05677549634723</v>
+        <v>158.8317747125693</v>
       </c>
       <c r="T17" t="n">
-        <v>173.0203074163109</v>
+        <v>172.9075546904553</v>
       </c>
       <c r="U17" t="n">
-        <v>201.2701107600161</v>
+        <v>201.1573580341604</v>
       </c>
       <c r="V17" t="n">
-        <v>277.6767163223145</v>
+        <v>277.5639635964588</v>
       </c>
       <c r="W17" t="n">
-        <v>299.1654265695926</v>
+        <v>299.0526738437369</v>
       </c>
       <c r="X17" t="n">
-        <v>319.6555585306486</v>
+        <v>319.5428058047929</v>
       </c>
       <c r="Y17" t="n">
-        <v>336.1623965082331</v>
+        <v>336.0496437823775</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>116.4576415020469</v>
+        <v>116.3448887761913</v>
       </c>
       <c r="C18" t="n">
-        <v>72.28592925966959</v>
+        <v>122.5202041146397</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>107.5695383075805</v>
+        <v>3.398178743835246</v>
       </c>
       <c r="F18" t="n">
-        <v>94.99367024556345</v>
+        <v>94.88091751970779</v>
       </c>
       <c r="G18" t="n">
-        <v>87.26797501539021</v>
+        <v>87.15522228953455</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>62.04714936282037</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>49.96953927896704</v>
       </c>
       <c r="S18" t="n">
-        <v>121.6076289560174</v>
+        <v>17.43626939227212</v>
       </c>
       <c r="T18" t="n">
-        <v>150.0891865470012</v>
+        <v>90.7281147491444</v>
       </c>
       <c r="U18" t="n">
-        <v>71.97808799107671</v>
+        <v>175.7530872072987</v>
       </c>
       <c r="V18" t="n">
-        <v>182.7250450016048</v>
+        <v>182.6122922757492</v>
       </c>
       <c r="W18" t="n">
-        <v>201.6194410130992</v>
+        <v>201.5066882872435</v>
       </c>
       <c r="X18" t="n">
-        <v>155.6974430556571</v>
+        <v>155.5846903298014</v>
       </c>
       <c r="Y18" t="n">
-        <v>155.6071536294839</v>
+        <v>155.4944009036283</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.90428505184904</v>
+        <v>25.5850784703716</v>
       </c>
       <c r="C19" t="n">
-        <v>13.28352700872971</v>
+        <v>12.99991938706214</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>98.42717814453627</v>
       </c>
       <c r="E19" t="n">
-        <v>96.35842049874874</v>
+        <v>96.24566777289309</v>
       </c>
       <c r="F19" t="n">
-        <v>95.34550587511082</v>
+        <v>95.23275314925516</v>
       </c>
       <c r="G19" t="n">
-        <v>117.9154372106383</v>
+        <v>117.8026844847827</v>
       </c>
       <c r="H19" t="n">
-        <v>112.1516303596191</v>
+        <v>112.0388776337635</v>
       </c>
       <c r="I19" t="n">
-        <v>105.3749327794379</v>
+        <v>105.2621800535822</v>
       </c>
       <c r="J19" t="n">
-        <v>43.28363796885235</v>
+        <v>43.17088524299668</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.08650110387396</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>23.33009728727136</v>
+        <v>127.1050965034934</v>
       </c>
       <c r="S19" t="n">
-        <v>173.9410558891518</v>
+        <v>173.8283031632962</v>
       </c>
       <c r="T19" t="n">
-        <v>177.8700472804611</v>
+        <v>177.7572945546054</v>
       </c>
       <c r="U19" t="n">
-        <v>236.2434872086704</v>
+        <v>236.1307344828148</v>
       </c>
       <c r="V19" t="n">
-        <v>202.0621011760076</v>
+        <v>97.8907416122623</v>
       </c>
       <c r="W19" t="n">
-        <v>236.4474561887706</v>
+        <v>236.3347034629149</v>
       </c>
       <c r="X19" t="n">
-        <v>175.6341132412167</v>
+        <v>175.5213605153611</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.5091112042743</v>
+        <v>112.7152859536238</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>321.8970982144321</v>
+        <v>321.7843454885764</v>
       </c>
       <c r="C20" t="n">
-        <v>304.4361483219591</v>
+        <v>304.3233955961034</v>
       </c>
       <c r="D20" t="n">
-        <v>293.8462981716345</v>
+        <v>293.7335454457788</v>
       </c>
       <c r="E20" t="n">
-        <v>321.0936266232133</v>
+        <v>320.9808738973576</v>
       </c>
       <c r="F20" t="n">
-        <v>346.039302292663</v>
+        <v>225.5614285122609</v>
       </c>
       <c r="G20" t="n">
-        <v>354.4659940660866</v>
+        <v>233.9881202856845</v>
       </c>
       <c r="H20" t="n">
-        <v>278.6380586667187</v>
+        <v>278.525305940863</v>
       </c>
       <c r="I20" t="n">
-        <v>149.6391461213574</v>
+        <v>149.5263933955018</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.0323744921012</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>148.1833261371968</v>
+        <v>148.0705734113412</v>
       </c>
       <c r="T20" t="n">
-        <v>162.2591061150829</v>
+        <v>145.0483765306283</v>
       </c>
       <c r="U20" t="n">
-        <v>190.508909458788</v>
+        <v>190.3961567329324</v>
       </c>
       <c r="V20" t="n">
-        <v>146.721248862352</v>
+        <v>266.8027622952308</v>
       </c>
       <c r="W20" t="n">
-        <v>168.2099591096301</v>
+        <v>288.2914725425089</v>
       </c>
       <c r="X20" t="n">
-        <v>188.7000910706861</v>
+        <v>308.7816045035649</v>
       </c>
       <c r="Y20" t="n">
-        <v>219.5340855743918</v>
+        <v>204.923321426603</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>105.5836874749632</v>
       </c>
       <c r="C21" t="n">
-        <v>111.8717555392673</v>
+        <v>111.7590028134116</v>
       </c>
       <c r="D21" t="n">
-        <v>86.60832211559027</v>
+        <v>86.49556938973461</v>
       </c>
       <c r="E21" t="n">
-        <v>96.80833700635246</v>
+        <v>96.6955842804968</v>
       </c>
       <c r="F21" t="n">
-        <v>84.23246894433539</v>
+        <v>84.11971621847974</v>
       </c>
       <c r="G21" t="n">
-        <v>76.50677371416215</v>
+        <v>76.39402098830649</v>
       </c>
       <c r="H21" t="n">
-        <v>51.39870078744798</v>
+        <v>51.28594806159231</v>
       </c>
       <c r="I21" t="n">
-        <v>28.55988940236659</v>
+        <v>28.44713667651093</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.32109070359465</v>
+        <v>39.20833797773899</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>110.7336749289337</v>
       </c>
       <c r="T21" t="n">
-        <v>129.8094773100335</v>
+        <v>139.2152325199175</v>
       </c>
       <c r="U21" t="n">
-        <v>165.1046386319263</v>
+        <v>44.62676485152426</v>
       </c>
       <c r="V21" t="n">
-        <v>171.9638437003768</v>
+        <v>171.8510909745211</v>
       </c>
       <c r="W21" t="n">
-        <v>70.66397355313664</v>
+        <v>70.38036593146904</v>
       </c>
       <c r="X21" t="n">
-        <v>144.936241754429</v>
+        <v>24.45836797402691</v>
       </c>
       <c r="Y21" t="n">
-        <v>24.65168616952137</v>
+        <v>38.71560097755578</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.32185620003176</v>
       </c>
       <c r="C22" t="n">
-        <v>106.4100776495793</v>
+        <v>106.2973249237237</v>
       </c>
       <c r="D22" t="n">
-        <v>87.77872956916387</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>85.59721919752069</v>
+        <v>85.48446647166503</v>
       </c>
       <c r="F22" t="n">
-        <v>84.58430457388276</v>
+        <v>84.4715518480271</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>101.3904290583911</v>
+        <v>101.2776763325354</v>
       </c>
       <c r="I22" t="n">
-        <v>94.6137314782098</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>32.52243666762429</v>
+        <v>32.40968394176863</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.67577842298372</v>
+        <v>25.21254707679024</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>163.1798545879238</v>
+        <v>163.0671018620681</v>
       </c>
       <c r="T22" t="n">
-        <v>46.91457982049853</v>
+        <v>166.9960932533774</v>
       </c>
       <c r="U22" t="n">
-        <v>225.4822859074424</v>
+        <v>225.3695331815867</v>
       </c>
       <c r="V22" t="n">
-        <v>191.3008998747795</v>
+        <v>191.1881471489239</v>
       </c>
       <c r="W22" t="n">
-        <v>225.6862548875425</v>
+        <v>225.5735021616869</v>
       </c>
       <c r="X22" t="n">
-        <v>164.8729119399887</v>
+        <v>164.760159214133</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.7479099030463</v>
+        <v>157.6351571771906</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>52.32291993440646</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C23" t="n">
         <v>275.8762589195925</v>
@@ -24223,10 +24223,10 @@
         <v>325.90610466372</v>
       </c>
       <c r="H23" t="n">
-        <v>250.0781692643521</v>
+        <v>9.063880386693029</v>
       </c>
       <c r="I23" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>143.5237407915925</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W23" t="n">
         <v>259.8443358659979</v>
       </c>
       <c r="X23" t="n">
-        <v>227.3394389810942</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y23" t="n">
         <v>296.8413058046385</v>
@@ -24293,7 +24293,7 @@
         <v>58.04843271322368</v>
       </c>
       <c r="E24" t="n">
-        <v>44.9563631217125</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>55.6725795419688</v>
@@ -24302,7 +24302,7 @@
         <v>47.94688431179556</v>
       </c>
       <c r="H24" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>101.8849886064336</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>116.3763523520624</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24372,22 +24372,22 @@
         <v>59.21884016679728</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>56.59701245326803</v>
       </c>
       <c r="F25" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>23.56200941979357</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S25" t="n">
         <v>134.6199651855572</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U25" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>197.1263654851759</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y25" t="n">
         <v>129.1880205006797</v>
@@ -24445,7 +24445,7 @@
         <v>52.32291993440646</v>
       </c>
       <c r="C26" t="n">
-        <v>63.59087327615038</v>
+        <v>34.86197004193343</v>
       </c>
       <c r="D26" t="n">
         <v>265.2864087692679</v>
@@ -24454,10 +24454,10 @@
         <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>317.4794128902964</v>
+        <v>76.46512401263732</v>
       </c>
       <c r="G26" t="n">
-        <v>84.89181578606093</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H26" t="n">
         <v>250.0781692643521</v>
@@ -24508,10 +24508,10 @@
         <v>259.8443358659979</v>
       </c>
       <c r="X26" t="n">
-        <v>280.334467827054</v>
+        <v>68.04908218361197</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.82701692697947</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
         <v>58.04843271322368</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>9.772401732888326</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>26.70891837256488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24603,28 +24603,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>77.85018824721276</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E28" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>74.69576892029994</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
         <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
         <v>162.7410104724129</v>
@@ -24666,10 +24666,10 @@
         <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>124.2400408566404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>52.32291993440646</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
         <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>214.9500431822473</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E29" t="n">
-        <v>51.51944834318766</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F29" t="n">
         <v>76.46512401263732</v>
       </c>
       <c r="G29" t="n">
-        <v>325.90610466372</v>
+        <v>84.89181578606093</v>
       </c>
       <c r="H29" t="n">
-        <v>250.0781692643521</v>
+        <v>171.1804049097884</v>
       </c>
       <c r="I29" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
         <v>238.3556256187198</v>
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77.13655079845226</v>
+        <v>5.865058643163067</v>
       </c>
       <c r="C30" t="n">
         <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>22.83881138508139</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.8842985384221294</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
         <v>59.21884016679728</v>
@@ -24849,7 +24849,7 @@
         <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
         <v>78.59434650704368</v>
@@ -24858,7 +24858,7 @@
         <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>3.962547265257697</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
         <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>138.5489565768664</v>
+        <v>123.8231561203142</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>140.9917194120879</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>136.3130225376221</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>282.5760075108374</v>
+        <v>41.56171863317837</v>
       </c>
       <c r="C32" t="n">
         <v>265.1150576183644</v>
@@ -24928,10 +24928,10 @@
         <v>281.7725359196186</v>
       </c>
       <c r="F32" t="n">
-        <v>306.7182115890683</v>
+        <v>65.70392271140923</v>
       </c>
       <c r="G32" t="n">
-        <v>315.1449033624919</v>
+        <v>74.13061448483285</v>
       </c>
       <c r="H32" t="n">
         <v>239.316967963124</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>49.71128378850655</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>108.8622354336022</v>
@@ -24976,16 +24976,16 @@
         <v>151.1878187551933</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W32" t="n">
-        <v>8.068845687110809</v>
+        <v>249.0831345647699</v>
       </c>
       <c r="X32" t="n">
-        <v>43.86801632221653</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y32" t="n">
-        <v>45.06581562575138</v>
+        <v>123.506002648475</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25004,7 +25004,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>45.20430867637942</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25046,16 +25046,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>50.46224212801631</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>132.6427529967821</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.27612849392604</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I34" t="n">
-        <v>55.29264077461515</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>123.8587638843291</v>
       </c>
       <c r="T34" t="n">
-        <v>127.7877552756384</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>186.1611952038477</v>
@@ -25137,13 +25137,13 @@
         <v>151.9798091711849</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>63.69534609260771</v>
       </c>
       <c r="X34" t="n">
-        <v>82.66812430849191</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>77.94321112903728</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C35" t="n">
-        <v>60.48226123656426</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D35" t="n">
         <v>49.89241108623966</v>
       </c>
       <c r="E35" t="n">
-        <v>102.8147040616355</v>
+        <v>77.13973953781849</v>
       </c>
       <c r="F35" t="n">
         <v>317.4794128902964</v>
@@ -25171,10 +25171,10 @@
         <v>325.90610466372</v>
       </c>
       <c r="H35" t="n">
-        <v>250.0781692643521</v>
+        <v>34.68417158132385</v>
       </c>
       <c r="I35" t="n">
-        <v>121.0792567189908</v>
+        <v>50.98366029460992</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S35" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>133.6992167127163</v>
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G36" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S36" t="n">
-        <v>82.28653825242274</v>
+        <v>65.14467408058042</v>
       </c>
       <c r="T36" t="n">
         <v>110.7680958434065</v>
@@ -25292,7 +25292,7 @@
         <v>136.5447492295597</v>
       </c>
       <c r="V36" t="n">
-        <v>9.671949143559544</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.542626882329031</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C37" t="n">
         <v>77.85018824721276</v>
       </c>
       <c r="D37" t="n">
-        <v>59.21884016679728</v>
+        <v>51.79921880910322</v>
       </c>
       <c r="E37" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>56.02441517151617</v>
@@ -25335,7 +25335,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>134.6199651855572</v>
       </c>
       <c r="T37" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V37" t="n">
         <v>162.7410104724129</v>
@@ -25377,10 +25377,10 @@
         <v>197.1263654851759</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y37" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>321.8970982144321</v>
+        <v>321.7843454885764</v>
       </c>
       <c r="C38" t="n">
-        <v>91.01188470461616</v>
+        <v>304.3233955961034</v>
       </c>
       <c r="D38" t="n">
-        <v>80.42203455429157</v>
+        <v>293.7335454457788</v>
       </c>
       <c r="E38" t="n">
-        <v>107.6693630058704</v>
+        <v>105.5868762143294</v>
       </c>
       <c r="F38" t="n">
-        <v>346.039302292663</v>
+        <v>345.9265495668073</v>
       </c>
       <c r="G38" t="n">
-        <v>354.4659940660866</v>
+        <v>354.3532413402309</v>
       </c>
       <c r="H38" t="n">
-        <v>278.6380586667187</v>
+        <v>177.7258945478974</v>
       </c>
       <c r="I38" t="n">
-        <v>149.6391461213574</v>
+        <v>149.5263933955018</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>49.23160923514247</v>
+        <v>148.0705734113412</v>
       </c>
       <c r="T38" t="n">
-        <v>162.2591061150829</v>
+        <v>162.1463533892272</v>
       </c>
       <c r="U38" t="n">
-        <v>190.508909458788</v>
+        <v>190.3961567329324</v>
       </c>
       <c r="V38" t="n">
-        <v>266.9155150210864</v>
+        <v>266.8027622952308</v>
       </c>
       <c r="W38" t="n">
-        <v>288.4042252683645</v>
+        <v>72.89747485948064</v>
       </c>
       <c r="X38" t="n">
-        <v>308.8943572294206</v>
+        <v>93.38760682053666</v>
       </c>
       <c r="Y38" t="n">
-        <v>325.4011952070051</v>
+        <v>325.2884424811494</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>105.6964402008189</v>
+        <v>105.5836874749632</v>
       </c>
       <c r="C39" t="n">
-        <v>15.91504596788823</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>96.80833700635246</v>
+        <v>96.6955842804968</v>
       </c>
       <c r="F39" t="n">
-        <v>84.23246894433539</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>76.50677371416215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>20.36559278057826</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>28.44713667651093</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.32109070359465</v>
+        <v>39.20833797773899</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>139.3279852457731</v>
+        <v>139.2152325199175</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>164.9918859060707</v>
       </c>
       <c r="V39" t="n">
-        <v>171.9638437003768</v>
+        <v>171.8510909745211</v>
       </c>
       <c r="W39" t="n">
-        <v>190.8582397118711</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>144.8234890285733</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>118.9952367328888</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>106.2973249237237</v>
       </c>
       <c r="D40" t="n">
-        <v>87.77872956916387</v>
+        <v>87.66597684330821</v>
       </c>
       <c r="E40" t="n">
-        <v>85.59721919752069</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>84.4715518480271</v>
       </c>
       <c r="G40" t="n">
-        <v>107.1542359094103</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>101.3904290583911</v>
+        <v>101.2776763325354</v>
       </c>
       <c r="I40" t="n">
-        <v>94.6137314782098</v>
+        <v>94.50097875235414</v>
       </c>
       <c r="J40" t="n">
-        <v>32.52243666762429</v>
+        <v>32.40968394176863</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.3252998026459</v>
+        <v>25.21254707679024</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>116.3438952022653</v>
       </c>
       <c r="S40" t="n">
-        <v>163.1798545879238</v>
+        <v>163.0671018620681</v>
       </c>
       <c r="T40" t="n">
-        <v>167.108845979233</v>
+        <v>11.29156512714653</v>
       </c>
       <c r="U40" t="n">
-        <v>225.4822859074424</v>
+        <v>225.3695331815867</v>
       </c>
       <c r="V40" t="n">
-        <v>191.3008998747795</v>
+        <v>191.1881471489239</v>
       </c>
       <c r="W40" t="n">
-        <v>225.6862548875425</v>
+        <v>225.5735021616869</v>
       </c>
       <c r="X40" t="n">
-        <v>5.874033982754923</v>
+        <v>164.760159214133</v>
       </c>
       <c r="Y40" t="n">
-        <v>157.7479099030463</v>
+        <v>157.6351571771906</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>194.7612604933956</v>
+        <v>331.7750447031212</v>
       </c>
       <c r="C41" t="n">
-        <v>314.4268475365039</v>
+        <v>314.3140948106482</v>
       </c>
       <c r="D41" t="n">
-        <v>303.8369973861793</v>
+        <v>303.7242446603236</v>
       </c>
       <c r="E41" t="n">
-        <v>331.0843258377581</v>
+        <v>330.9715731119024</v>
       </c>
       <c r="F41" t="n">
-        <v>356.0300015072078</v>
+        <v>355.9172487813521</v>
       </c>
       <c r="G41" t="n">
-        <v>243.6756395477714</v>
+        <v>364.3439405547757</v>
       </c>
       <c r="H41" t="n">
-        <v>288.6287578812635</v>
+        <v>288.5160051554078</v>
       </c>
       <c r="I41" t="n">
-        <v>159.6298453359022</v>
+        <v>159.5170926100466</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>99.023073706646</v>
+        <v>98.91032098079035</v>
       </c>
       <c r="S41" t="n">
-        <v>158.1740253517416</v>
+        <v>21.10559058611656</v>
       </c>
       <c r="T41" t="n">
-        <v>172.2498053296277</v>
+        <v>35.18137056400258</v>
       </c>
       <c r="U41" t="n">
-        <v>200.4996086733328</v>
+        <v>63.43117390770772</v>
       </c>
       <c r="V41" t="n">
-        <v>276.9062142356312</v>
+        <v>276.7934615097756</v>
       </c>
       <c r="W41" t="n">
-        <v>298.3949244829093</v>
+        <v>298.2821717570537</v>
       </c>
       <c r="X41" t="n">
-        <v>181.758519508384</v>
+        <v>318.7723037181097</v>
       </c>
       <c r="Y41" t="n">
-        <v>198.2653574859686</v>
+        <v>214.6485769550654</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>115.6871394153637</v>
+        <v>115.574386689508</v>
       </c>
       <c r="C42" t="n">
-        <v>121.8624547538121</v>
+        <v>121.7497020279564</v>
       </c>
       <c r="D42" t="n">
-        <v>96.59902133013507</v>
+        <v>96.48626860427942</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>106.6862834950416</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>94.11041543302454</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>86.3847202028513</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>61.27664727613712</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>38.43783589105573</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.31178991813945</v>
+        <v>49.19903719228379</v>
       </c>
       <c r="S42" t="n">
-        <v>120.8371268693341</v>
+        <v>120.7243741434785</v>
       </c>
       <c r="T42" t="n">
-        <v>149.3186844603179</v>
+        <v>28.57536699383336</v>
       </c>
       <c r="U42" t="n">
-        <v>37.96880091088977</v>
+        <v>38.02690308084604</v>
       </c>
       <c r="V42" t="n">
-        <v>174.3800812382875</v>
+        <v>44.88610814929649</v>
       </c>
       <c r="W42" t="n">
-        <v>200.8489389264159</v>
+        <v>200.7361862005603</v>
       </c>
       <c r="X42" t="n">
-        <v>154.9269409689738</v>
+        <v>17.8585062033487</v>
       </c>
       <c r="Y42" t="n">
-        <v>154.8366515428007</v>
+        <v>154.723898816945</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>128.9859359474336</v>
+        <v>16.15561656849786</v>
       </c>
       <c r="C43" t="n">
-        <v>116.4007768641242</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>97.76942878370868</v>
+        <v>97.65667605785302</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>95.47516568620983</v>
       </c>
       <c r="F43" t="n">
-        <v>94.57500378842757</v>
+        <v>94.46225106257191</v>
       </c>
       <c r="G43" t="n">
-        <v>117.1449351239551</v>
+        <v>117.0321823980994</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>111.2683755470802</v>
       </c>
       <c r="I43" t="n">
-        <v>104.6044306927546</v>
+        <v>104.4916779668989</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>35.20324629133504</v>
       </c>
       <c r="R43" t="n">
-        <v>126.4473471426658</v>
+        <v>126.3345944168101</v>
       </c>
       <c r="S43" t="n">
-        <v>50.2701330790651</v>
+        <v>173.0578010766129</v>
       </c>
       <c r="T43" t="n">
-        <v>177.0995451937778</v>
+        <v>176.9867924679222</v>
       </c>
       <c r="U43" t="n">
-        <v>235.4729851219872</v>
+        <v>235.3602323961316</v>
       </c>
       <c r="V43" t="n">
-        <v>201.2915990893243</v>
+        <v>201.1788463634687</v>
       </c>
       <c r="W43" t="n">
-        <v>235.6769541020873</v>
+        <v>235.5642013762317</v>
       </c>
       <c r="X43" t="n">
-        <v>174.8636111545335</v>
+        <v>174.7508584286778</v>
       </c>
       <c r="Y43" t="n">
-        <v>167.7386091175911</v>
+        <v>30.67017435196601</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>225.4695214181481</v>
+        <v>211.1258768800086</v>
       </c>
       <c r="C44" t="n">
-        <v>314.4268475365039</v>
+        <v>193.6649269875356</v>
       </c>
       <c r="D44" t="n">
-        <v>303.8369973861793</v>
+        <v>183.075076837211</v>
       </c>
       <c r="E44" t="n">
-        <v>331.0843258377581</v>
+        <v>330.9715731119024</v>
       </c>
       <c r="F44" t="n">
-        <v>356.0300015072078</v>
+        <v>355.9172487813521</v>
       </c>
       <c r="G44" t="n">
-        <v>364.4566932806314</v>
+        <v>364.3439405547757</v>
       </c>
       <c r="H44" t="n">
-        <v>288.6287578812635</v>
+        <v>288.5160051554078</v>
       </c>
       <c r="I44" t="n">
-        <v>159.6298453359022</v>
+        <v>159.5170926100466</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>99.023073706646</v>
+        <v>98.91032098079035</v>
       </c>
       <c r="S44" t="n">
-        <v>158.1740253517416</v>
+        <v>51.79348560728842</v>
       </c>
       <c r="T44" t="n">
-        <v>172.2498053296277</v>
+        <v>172.137052603772</v>
       </c>
       <c r="U44" t="n">
-        <v>79.67958595440822</v>
+        <v>200.3868559474772</v>
       </c>
       <c r="V44" t="n">
-        <v>276.9062142356312</v>
+        <v>276.7934615097756</v>
       </c>
       <c r="W44" t="n">
-        <v>177.5749017639847</v>
+        <v>298.2821717570537</v>
       </c>
       <c r="X44" t="n">
-        <v>318.8850564439654</v>
+        <v>318.7723037181097</v>
       </c>
       <c r="Y44" t="n">
-        <v>214.5718717026253</v>
+        <v>335.2791416956942</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>115.6871394153637</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>121.8624547538121</v>
+        <v>1.100534204843783</v>
       </c>
       <c r="D45" t="n">
-        <v>96.59902133013507</v>
+        <v>96.48626860427942</v>
       </c>
       <c r="E45" t="n">
-        <v>106.7990362208973</v>
+        <v>106.6862834950416</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>31.96688447310614</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>86.3847202028513</v>
       </c>
       <c r="H45" t="n">
-        <v>61.38940000199278</v>
+        <v>61.27664727613712</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>38.43783589105573</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.31178991813945</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>120.8371268693341</v>
+        <v>0.07520632036586505</v>
       </c>
       <c r="T45" t="n">
-        <v>149.3186844603179</v>
+        <v>149.2059317344623</v>
       </c>
       <c r="U45" t="n">
-        <v>54.27531512754652</v>
+        <v>174.9825851206155</v>
       </c>
       <c r="V45" t="n">
-        <v>181.9545429149216</v>
+        <v>181.8417901890659</v>
       </c>
       <c r="W45" t="n">
-        <v>80.02891620749133</v>
+        <v>200.7361862005603</v>
       </c>
       <c r="X45" t="n">
-        <v>154.9269409689738</v>
+        <v>154.8141882431181</v>
       </c>
       <c r="Y45" t="n">
-        <v>146.8695825175458</v>
+        <v>154.723898816945</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>128.9859359474336</v>
+        <v>128.873183221578</v>
       </c>
       <c r="C46" t="n">
-        <v>116.4007768641242</v>
+        <v>116.2880241382685</v>
       </c>
       <c r="D46" t="n">
-        <v>97.76942878370868</v>
+        <v>97.65667605785302</v>
       </c>
       <c r="E46" t="n">
-        <v>95.58791841206549</v>
+        <v>95.47516568620983</v>
       </c>
       <c r="F46" t="n">
-        <v>94.57500378842757</v>
+        <v>94.46225106257191</v>
       </c>
       <c r="G46" t="n">
-        <v>117.1449351239551</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>49.92700209577499</v>
+        <v>45.0797477477598</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.5131358821691</v>
+        <v>42.40038315631343</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.31599901719071</v>
+        <v>35.20324629133504</v>
       </c>
       <c r="R46" t="n">
-        <v>5.6273244237412</v>
+        <v>5.685426593697528</v>
       </c>
       <c r="S46" t="n">
-        <v>173.1705538024686</v>
+        <v>173.0578010766129</v>
       </c>
       <c r="T46" t="n">
-        <v>177.0995451937778</v>
+        <v>176.9867924679222</v>
       </c>
       <c r="U46" t="n">
-        <v>235.4729851219872</v>
+        <v>235.3602323961316</v>
       </c>
       <c r="V46" t="n">
-        <v>201.2915990893243</v>
+        <v>201.1788463634687</v>
       </c>
       <c r="W46" t="n">
-        <v>235.6769541020873</v>
+        <v>235.5642013762317</v>
       </c>
       <c r="X46" t="n">
-        <v>174.8636111545335</v>
+        <v>174.7508584286778</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.91858639866652</v>
+        <v>167.6258563917355</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>273752.813637297</v>
+        <v>272532.5427017951</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>393867.2371856426</v>
+        <v>394177.4075192688</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>423470.1170494456</v>
+        <v>423780.287383072</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>542660.9750978517</v>
+        <v>542660.9750978515</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>542660.9750978514</v>
+        <v>542660.9750978515</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>563360.3091013068</v>
+        <v>563360.3091013067</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>529237.7969137176</v>
+        <v>529237.7969137175</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>472315.8877117061</v>
+        <v>473568.5405271082</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>412789.8112186411</v>
+        <v>412920.9503544804</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>404246.3780379064</v>
+        <v>404377.5171737454</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>798794.4302491123</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491124</v>
+        <v>798794.4302491122</v>
       </c>
       <c r="D2" t="n">
-        <v>798794.4302491124</v>
+        <v>798794.4302491121</v>
       </c>
       <c r="E2" t="n">
+        <v>248894.3721637369</v>
+      </c>
+      <c r="F2" t="n">
         <v>248894.372163737</v>
       </c>
-      <c r="F2" t="n">
-        <v>249982.5160567428</v>
-      </c>
       <c r="G2" t="n">
-        <v>385744.3514892568</v>
+        <v>386100.8196165364</v>
       </c>
       <c r="H2" t="n">
-        <v>419765.9260987853</v>
+        <v>420122.3942260652</v>
       </c>
       <c r="I2" t="n">
-        <v>545852.1191288868</v>
+        <v>545852.119128887</v>
       </c>
       <c r="J2" t="n">
-        <v>545852.1191288867</v>
+        <v>545852.119128887</v>
       </c>
       <c r="K2" t="n">
-        <v>545852.1191288871</v>
+        <v>545852.1191288873</v>
       </c>
       <c r="L2" t="n">
         <v>571893.2167461388</v>
       </c>
       <c r="M2" t="n">
-        <v>534025.2505880838</v>
+        <v>534025.2505880839</v>
       </c>
       <c r="N2" t="n">
-        <v>462802.865672425</v>
+        <v>463989.7344888013</v>
       </c>
       <c r="O2" t="n">
-        <v>402985.0587661953</v>
+        <v>403183.7864230819</v>
       </c>
       <c r="P2" t="n">
-        <v>395457.6267579458</v>
+        <v>395656.3544148325</v>
       </c>
     </row>
     <row r="3">
@@ -26377,16 +26377,16 @@
         <v>15642.21467594633</v>
       </c>
       <c r="F3" t="n">
-        <v>564.3800229045488</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>52979.93676419112</v>
+        <v>53656.84227038761</v>
       </c>
       <c r="H3" t="n">
-        <v>13008.60533526439</v>
+        <v>13008.60533526441</v>
       </c>
       <c r="I3" t="n">
-        <v>54976.49278333241</v>
+        <v>54840.85669789868</v>
       </c>
       <c r="J3" t="n">
         <v>7992.559371635843</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>40676.83538760294</v>
+        <v>40767.03756828747</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>89410.09452461184</v>
       </c>
       <c r="F4" t="n">
-        <v>89793.03066224878</v>
+        <v>89410.09452461184</v>
       </c>
       <c r="G4" t="n">
-        <v>160608.8453323633</v>
+        <v>160798.5081771444</v>
       </c>
       <c r="H4" t="n">
-        <v>178710.4037342878</v>
+        <v>178900.0665790689</v>
       </c>
       <c r="I4" t="n">
         <v>238981.7761516717</v>
@@ -26447,19 +26447,19 @@
         <v>238981.7761516717</v>
       </c>
       <c r="L4" t="n">
-        <v>254251.6344093942</v>
+        <v>254251.6344093943</v>
       </c>
       <c r="M4" t="n">
         <v>234940.8775740046</v>
       </c>
       <c r="N4" t="n">
-        <v>193414.8800130489</v>
+        <v>193888.2667321496</v>
       </c>
       <c r="O4" t="n">
-        <v>166963.275699862</v>
+        <v>167099.043192695</v>
       </c>
       <c r="P4" t="n">
-        <v>164391.3701112711</v>
+        <v>164527.1376041041</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>2397.621796901122</v>
       </c>
       <c r="F5" t="n">
-        <v>2517.381628094789</v>
+        <v>2397.621796901122</v>
       </c>
       <c r="G5" t="n">
-        <v>10526.17607090344</v>
+        <v>10546.04305747876</v>
       </c>
       <c r="H5" t="n">
-        <v>12422.29556746911</v>
+        <v>12442.16255404444</v>
       </c>
       <c r="I5" t="n">
         <v>22169.15429094728</v>
@@ -26505,13 +26505,13 @@
         <v>20611.44058631373</v>
       </c>
       <c r="N5" t="n">
-        <v>18090.67941295251</v>
+        <v>18219.91825305613</v>
       </c>
       <c r="O5" t="n">
-        <v>12611.86953843384</v>
+        <v>12610.96056967843</v>
       </c>
       <c r="P5" t="n">
-        <v>11620.4334740611</v>
+        <v>11619.5245053057</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>350394.4316361534</v>
+        <v>350350.2958574723</v>
       </c>
       <c r="C6" t="n">
-        <v>350394.4316361535</v>
+        <v>350350.2958574721</v>
       </c>
       <c r="D6" t="n">
-        <v>350394.4316361535</v>
+        <v>350350.2958574721</v>
       </c>
       <c r="E6" t="n">
-        <v>141444.4411662777</v>
+        <v>127300.3038982279</v>
       </c>
       <c r="F6" t="n">
-        <v>157107.7237434947</v>
+        <v>142942.5185741743</v>
       </c>
       <c r="G6" t="n">
-        <v>161629.3933217989</v>
+        <v>150473.4028807272</v>
       </c>
       <c r="H6" t="n">
-        <v>215624.6214617639</v>
+        <v>206017.8845938</v>
       </c>
       <c r="I6" t="n">
-        <v>229724.6959029355</v>
+        <v>223330.4959245542</v>
       </c>
       <c r="J6" t="n">
-        <v>276708.6293146319</v>
+        <v>270178.793250817</v>
       </c>
       <c r="K6" t="n">
-        <v>284701.1886862681</v>
+        <v>278171.3526224532</v>
       </c>
       <c r="L6" t="n">
-        <v>253890.9092260014</v>
+        <v>247938.5914332261</v>
       </c>
       <c r="M6" t="n">
-        <v>278472.9324277655</v>
+        <v>271639.8433244427</v>
       </c>
       <c r="N6" t="n">
-        <v>251297.3062464236</v>
+        <v>243252.6779361886</v>
       </c>
       <c r="O6" t="n">
-        <v>223409.9135278994</v>
+        <v>213285.7842198214</v>
       </c>
       <c r="P6" t="n">
-        <v>219445.8231726136</v>
+        <v>209128.6827874011</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="G2" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="H2" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="I2" t="n">
         <v>89.39663285141508</v>
@@ -26721,13 +26721,13 @@
         <v>89.39663285141508</v>
       </c>
       <c r="N2" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="O2" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="P2" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
     </row>
     <row r="3">
@@ -26801,13 +26801,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
-        <v>103.8877519420777</v>
+        <v>104.0586068378896</v>
       </c>
       <c r="H4" t="n">
-        <v>120.1942661587345</v>
+        <v>120.3651210545464</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26825,13 +26825,13 @@
         <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4242636173429</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
-        <v>137.1265369355814</v>
+        <v>136.9556820397694</v>
       </c>
       <c r="P4" t="n">
-        <v>120.8200227189246</v>
+        <v>120.6491678231126</v>
       </c>
     </row>
   </sheetData>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>40.08484293327562</v>
+        <v>40.19759565913129</v>
       </c>
       <c r="H2" t="n">
         <v>10.76120130122806</v>
       </c>
       <c r="I2" t="n">
-        <v>28.55988940236659</v>
+        <v>28.44713667651093</v>
       </c>
       <c r="J2" t="n">
         <v>9.990699214544804</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27023,16 +27023,16 @@
         <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>76.29772668176156</v>
+        <v>78.43831564325878</v>
       </c>
       <c r="H4" t="n">
-        <v>16.30651421665675</v>
+        <v>16.30651421665682</v>
       </c>
       <c r="I4" t="n">
-        <v>120.8200227189246</v>
+        <v>120.6491678231126</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40.08484293327562</v>
+        <v>40.19759565913129</v>
       </c>
       <c r="M2" t="n">
         <v>10.76120130122806</v>
       </c>
       <c r="N2" t="n">
-        <v>28.55988940236659</v>
+        <v>28.44713667651093</v>
       </c>
       <c r="O2" t="n">
         <v>9.990699214544804</v>
@@ -27269,13 +27269,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="N4" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>76.29772668176156</v>
+        <v>78.43831564325878</v>
       </c>
       <c r="P4" t="n">
-        <v>16.30651421665675</v>
+        <v>16.30651421665682</v>
       </c>
     </row>
   </sheetData>
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4.611589586016663</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>9.990699214544804</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="C17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="D17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="E17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="F17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="G17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="H17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="I17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="S17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="T17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="U17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="V17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="W17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="X17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="C18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="D18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="E18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="F18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="G18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="H18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="I18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="S18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="T18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="U18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="V18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="W18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="X18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="Y18" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="C19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="D19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="E19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="F19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="G19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="H19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="I19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="J19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="K19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="L19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="M19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="N19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="O19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="P19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="R19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="S19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="T19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="U19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="V19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="W19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="X19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.07554214782043</v>
+        <v>50.18829487367609</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="C20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="D20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="E20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="F20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="G20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="H20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="I20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="S20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="T20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="U20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="V20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="W20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="X20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="Y20" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="C21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="D21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="E21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="F21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="G21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="H21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="I21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="S21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="T21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="U21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="V21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="W21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="X21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="Y21" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="C22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="D22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="E22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="F22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="G22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="H22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="I22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="J22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="K22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="L22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="M22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="N22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="O22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="P22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="R22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="S22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="T22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="U22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="V22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="W22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="X22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
     </row>
     <row r="23">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="C38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="D38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="E38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="F38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="G38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="H38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="I38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="S38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="T38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="U38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="V38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="W38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="X38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="Y38" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="C39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="D39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="E39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="F39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="G39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="H39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="I39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="S39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="T39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="U39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="V39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="W39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="X39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="Y39" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="C40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="D40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="E40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="F40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="G40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="H40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="I40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="J40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="K40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="L40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="M40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="N40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="O40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="P40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="R40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="S40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="T40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="U40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="V40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="W40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="X40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
       <c r="Y40" t="n">
-        <v>60.83674344904848</v>
+        <v>60.94949617490415</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="C41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="D41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="E41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="F41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="G41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="H41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="I41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="S41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="T41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="U41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="V41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="W41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="X41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="C42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="D42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="E42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="F42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="G42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="H42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="I42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="S42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="T42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="U42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="V42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="W42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="X42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="Y42" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="C43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="D43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="E43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="F43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="G43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="H43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="I43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="J43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="K43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="L43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="M43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="N43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="O43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="P43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="R43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="S43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="T43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="U43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="V43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="W43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="X43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="C44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="D44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="E44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="F44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="G44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="H44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="I44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="S44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="T44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="U44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="V44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="W44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="X44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="C45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="D45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="E45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="F45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="G45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="H45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="I45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="S45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="T45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="U45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="V45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="W45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="X45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="Y45" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="C46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="D46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="E46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="F46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="G46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="H46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="I46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="J46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="K46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="L46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="M46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="N46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="O46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="P46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="R46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="S46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="T46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="U46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="V46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="W46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="X46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.84604423450368</v>
+        <v>50.95879696035934</v>
       </c>
     </row>
   </sheetData>
@@ -35415,13 +35415,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M11" t="n">
         <v>24.58512791403969</v>
       </c>
       <c r="N11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M12" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="N12" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>27.59002526031614</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O14" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P14" t="n">
-        <v>26.47527676494983</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>26.47527676494983</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N15" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M16" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N16" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
-        <v>1.890148850910151</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>103.8877519420777</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>103.8877519420777</v>
+        <v>104.0586068378896</v>
       </c>
       <c r="M17" t="n">
-        <v>103.8877519420777</v>
+        <v>9.288506266610273</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>104.0586068378896</v>
       </c>
       <c r="O17" t="n">
-        <v>9.124554598911965</v>
+        <v>104.0586068378896</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>103.8877519420777</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>103.8877519420777</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>103.8877519420777</v>
+        <v>104.0586068378896</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>29.75870503299581</v>
       </c>
       <c r="O18" t="n">
-        <v>29.5947533652975</v>
+        <v>104.0586068378896</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>104.0586068378896</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>27.80605032193758</v>
+        <v>27.91880304779324</v>
       </c>
       <c r="L19" t="n">
-        <v>77.66556740813657</v>
+        <v>77.77832013399222</v>
       </c>
       <c r="M19" t="n">
-        <v>89.65941910966102</v>
+        <v>89.77217183551667</v>
       </c>
       <c r="N19" t="n">
-        <v>94.20771452704902</v>
+        <v>94.32046725290468</v>
       </c>
       <c r="O19" t="n">
-        <v>74.6606700618601</v>
+        <v>74.77342278771576</v>
       </c>
       <c r="P19" t="n">
-        <v>47.35410141271392</v>
+        <v>47.46685413856958</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>24.77221975630992</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>120.3651210545464</v>
       </c>
       <c r="M20" t="n">
-        <v>120.1942661587345</v>
+        <v>120.3651210545464</v>
       </c>
       <c r="N20" t="n">
-        <v>120.1942661587345</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>120.1942661587345</v>
+        <v>120.3651210545464</v>
       </c>
       <c r="P20" t="n">
-        <v>90.5657124162131</v>
+        <v>11.4463223140371</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>120.1942661587345</v>
+        <v>120.3651210545464</v>
       </c>
       <c r="L21" t="n">
-        <v>120.1942661587345</v>
+        <v>120.3651210545464</v>
       </c>
       <c r="M21" t="n">
-        <v>120.1942661587345</v>
+        <v>115.5018838402213</v>
       </c>
       <c r="N21" t="n">
-        <v>115.337932172523</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>120.3651210545464</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>38.56725162316563</v>
+        <v>38.6800043490213</v>
       </c>
       <c r="L22" t="n">
-        <v>88.42676870936462</v>
+        <v>88.53952143522028</v>
       </c>
       <c r="M22" t="n">
-        <v>100.4206204108891</v>
+        <v>100.5333731367447</v>
       </c>
       <c r="N22" t="n">
-        <v>104.9689158282771</v>
+        <v>105.0816685541327</v>
       </c>
       <c r="O22" t="n">
-        <v>85.42187136308816</v>
+        <v>85.53462408894381</v>
       </c>
       <c r="P22" t="n">
-        <v>58.11530271394197</v>
+        <v>58.22805543979764</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P23" t="n">
         <v>90.5657124162131</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36691,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37311,10 +37311,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
-        <v>84.22210066506267</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>215.3939976830282</v>
+        <v>208.2870111838408</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37323,7 +37323,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>22.20284867224841</v>
       </c>
       <c r="L36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>206.6912098978553</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>213.4242636173429</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>47.19965394337734</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>8.081749358897993</v>
+        <v>206.6912098978554</v>
       </c>
       <c r="M39" t="n">
-        <v>213.4242636173429</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
-        <v>213.4242636173429</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O39" t="n">
-        <v>213.4242636173429</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>38.56725162316563</v>
+        <v>38.6800043490213</v>
       </c>
       <c r="L40" t="n">
-        <v>88.42676870936462</v>
+        <v>88.53952143522028</v>
       </c>
       <c r="M40" t="n">
-        <v>100.4206204108891</v>
+        <v>100.5333731367447</v>
       </c>
       <c r="N40" t="n">
-        <v>104.9689158282771</v>
+        <v>105.0816685541327</v>
       </c>
       <c r="O40" t="n">
-        <v>85.42187136308816</v>
+        <v>85.53462408894381</v>
       </c>
       <c r="P40" t="n">
-        <v>58.11530271394197</v>
+        <v>58.22805543979764</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>137.1265369355814</v>
+        <v>73.75652722644382</v>
       </c>
       <c r="M41" t="n">
-        <v>137.1265369355814</v>
+        <v>136.9556820397694</v>
       </c>
       <c r="N41" t="n">
-        <v>137.1265369355814</v>
+        <v>136.9556820397694</v>
       </c>
       <c r="O41" t="n">
-        <v>41.02035838055694</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>136.9556820397694</v>
       </c>
       <c r="M42" t="n">
-        <v>137.1265369355814</v>
+        <v>136.9556820397694</v>
       </c>
       <c r="N42" t="n">
-        <v>137.1265369355814</v>
+        <v>136.9556820397694</v>
       </c>
       <c r="O42" t="n">
-        <v>137.1265369355814</v>
+        <v>131.4221191290717</v>
       </c>
       <c r="P42" t="n">
-        <v>61.49055714694249</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>28.57655240862083</v>
+        <v>28.68930513447649</v>
       </c>
       <c r="L43" t="n">
-        <v>78.43606949481982</v>
+        <v>78.54882222067548</v>
       </c>
       <c r="M43" t="n">
-        <v>90.42992119634427</v>
+        <v>90.54267392219992</v>
       </c>
       <c r="N43" t="n">
-        <v>94.97821661373227</v>
+        <v>95.09096933958793</v>
       </c>
       <c r="O43" t="n">
-        <v>75.43117214854335</v>
+        <v>75.54392487439901</v>
       </c>
       <c r="P43" t="n">
-        <v>48.12460349939717</v>
+        <v>48.23735622525283</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>42.13715441589944</v>
+        <v>120.6491678231126</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>11.71889244548956</v>
       </c>
       <c r="N44" t="n">
-        <v>120.8200227189246</v>
+        <v>120.6491678231126</v>
       </c>
       <c r="O44" t="n">
-        <v>120.8200227189246</v>
+        <v>120.6491678231126</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>120.8200227189246</v>
+        <v>120.6491678231126</v>
       </c>
       <c r="L45" t="n">
-        <v>120.8200227189246</v>
+        <v>120.6491678231126</v>
       </c>
       <c r="M45" t="n">
-        <v>115.9384056393721</v>
+        <v>120.6491678231126</v>
       </c>
       <c r="N45" t="n">
-        <v>120.8200227189246</v>
+        <v>115.7744539716738</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>28.57655240862083</v>
+        <v>28.68930513447649</v>
       </c>
       <c r="L46" t="n">
-        <v>78.43606949481982</v>
+        <v>78.54882222067548</v>
       </c>
       <c r="M46" t="n">
-        <v>90.42992119634427</v>
+        <v>90.54267392219992</v>
       </c>
       <c r="N46" t="n">
-        <v>94.97821661373227</v>
+        <v>95.09096933958793</v>
       </c>
       <c r="O46" t="n">
-        <v>75.43117214854335</v>
+        <v>75.54392487439901</v>
       </c>
       <c r="P46" t="n">
-        <v>48.12460349939717</v>
+        <v>48.23735622525283</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
